--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8750CB2-5182-4FD6-B0E1-82129D35B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="レポート" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="合計データ" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="レポート" sheetId="1" r:id="rId1"/>
+    <sheet name="合計データ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">レポート!$A$1:$G$30</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,117 +26,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t xml:space="preserve">デイリーレポート</t>
+    <t>デイリーレポート</t>
   </si>
   <si>
-    <t xml:space="preserve">月度</t>
+    <t>月度</t>
   </si>
   <si>
-    <t xml:space="preserve">計画売上</t>
+    <t>計画売上</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">実績売上 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">前日比</t>
-    </r>
+    <t>確定泊数</t>
   </si>
   <si>
-    <t xml:space="preserve">確定泊数</t>
+    <t>計画稼働率</t>
   </si>
   <si>
-    <t xml:space="preserve">計画稼働率</t>
+    <t>前日集計日</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">実績稼働率 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">前日比</t>
-    </r>
+    <t>前日実績売上</t>
   </si>
   <si>
-    <t xml:space="preserve">前日集計日</t>
+    <t>前日実績稼働率</t>
   </si>
   <si>
-    <t xml:space="preserve">前日実績売上</t>
+    <t>前日確定泊数</t>
   </si>
   <si>
-    <t xml:space="preserve">前日実績稼働率</t>
+    <t>販売可能室数</t>
   </si>
   <si>
-    <t xml:space="preserve">前日確定泊数</t>
+    <t>ブロック数</t>
   </si>
   <si>
-    <t xml:space="preserve">販売可能室数</t>
+    <t>正味販売可能室数</t>
   </si>
   <si>
-    <t xml:space="preserve">ブロック数</t>
+    <t>実績売上 / 前日比</t>
   </si>
   <si>
-    <t xml:space="preserve">正味販売可能室数</t>
+    <t>実績稼働率 / 前日比</t>
+  </si>
+  <si>
+    <t>確定泊数2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,23 +91,10 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans JP"/>
@@ -169,16 +102,38 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="6"/>
       <name val="Noto Sans JP"/>
       <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +145,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -198,53 +153,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -303,24 +231,105 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>計画ｘ実績</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -328,83 +337,73 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>計画売上</c:v>
+                  <c:v> 計画売上 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>合計データ!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DE4-4EAD-BC38-6F95879CF245}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -412,116 +411,128 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>実績売上 / 前日比</c:v>
+                  <c:v> 実績売上 / 前日比 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>合計データ!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60EF-4C96-80F0-6CDBE1F66A94}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="76024437"/>
-        <c:axId val="9347043"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1127746191"/>
+        <c:axId val="1127742831"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76024437"/>
+        <c:axId val="1127746191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9347043"/>
+        <c:crossAx val="1127742831"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9347043"/>
+        <c:axId val="1127742831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,46 +548,91 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76024437"/>
+        <c:crossAx val="1127746191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -584,59 +640,665 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>741600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE7CA60-B789-41D3-8938-8CDEF57C7CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="36360" y="341640"/>
-        <a:ext cx="5582160" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -650,56 +1312,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -729,7 +1391,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -753,7 +1415,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -813,132 +1475,130 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.54296875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8750CB2-5182-4FD6-B0E1-82129D35B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB0379-0045-4627-9C34-BB24BC4960EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
     <sheet name="合計データ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>デイリーレポート</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>月度</t>
   </si>
@@ -67,20 +75,61 @@
     <t>実績売上 / 前日比</t>
   </si>
   <si>
-    <t>実績稼働率 / 前日比</t>
+    <t>確定泊数2</t>
   </si>
   <si>
-    <t>確定泊数2</t>
+    <t>売上　実績/計画（%)</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>稼働率　実績/計画（%)</t>
+    <rPh sb="0" eb="3">
+      <t>カドウリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実績稼働率</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>稼働率　実績-計画</t>
+    <rPh sb="0" eb="3">
+      <t>カドウリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,16 +184,29 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,22 +214,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -259,10 +345,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -287,7 +373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>計画ｘ実績</a:t>
+              <a:t>売上　計画ｘ実績</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -343,41 +429,75 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-              <a:tileRect/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
@@ -420,19 +540,22 @@
             <a:gradFill>
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="65000"/>
                     <a:lumMod val="110000"/>
                     <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="65000"/>
                     <a:lumMod val="105000"/>
                     <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="65000"/>
                     <a:lumMod val="105000"/>
                     <a:tint val="81000"/>
                   </a:schemeClr>
@@ -443,7 +566,8 @@
             </a:gradFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -452,6 +576,62 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
@@ -488,6 +668,153 @@
         <c:axId val="1127746191"/>
         <c:axId val="1127742831"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 売上　実績/計画（%) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A03-4508-9034-FAFB4224416D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="273890128"/>
+        <c:axId val="273861328"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1127746191"/>
         <c:scaling>
@@ -546,24 +873,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -627,6 +940,64 @@
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="273861328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273890128"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="273890128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="273861328"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -636,7 +1007,978 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>稼働率　計画ｘ実績</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2174603174603173E-2"/>
+          <c:y val="0.13476111111111111"/>
+          <c:w val="0.95565079365079364"/>
+          <c:h val="0.67145972222222206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>計画稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81DA-4FAE-B96D-254BA73285B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="110000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="105000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="105000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="53000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81DA-4FAE-B96D-254BA73285B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>前日実績稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-81DA-4FAE-B96D-254BA73285B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 稼働率　実績-計画 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-81DA-4FAE-B96D-254BA73285B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1127746191"/>
+        <c:axId val="1127742831"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 稼働率　実績/計画（%) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="77000"/>
+                      <a:lumMod val="110000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="77000"/>
+                      <a:lumMod val="105000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="77000"/>
+                      <a:lumMod val="105000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="77000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-81DA-4FAE-B96D-254BA73285B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="785398336"/>
+        <c:axId val="785404576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1127746191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1127742831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1127742831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1127746191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="785404576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785398336"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="785398336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="785404576"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2015873015873015E-2"/>
+          <c:y val="0.86612250000000002"/>
+          <c:w val="0.74688095238095242"/>
+          <c:h val="0.10724111111111111"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -704,42 +2046,14 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1268,20 +2582,545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1303,6 +3142,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57877FE9-1284-4683-A848-0A0FBF92EABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1490,27 +3367,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="3" t="str">
+        <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
+        <v>デイリーレポート - 25年12月27日</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1525,79 +3405,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.54296875" style="1"/>
+    <col min="3" max="3" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>10</v>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="9" t="e">
+        <f>C2/B2</f>
+        <v>#DIV/0!</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>11</v>
+      <c r="P2" s="9" t="e">
+        <f>F2/E2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>F2-I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="9" t="e">
+        <f t="shared" ref="O3:O7" si="0">C3/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" s="9" t="e">
+        <f t="shared" ref="P3:P7" si="1">F3/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q7" si="2">F3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB0379-0045-4627-9C34-BB24BC4960EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD90BCF-FB36-47C6-87B0-8B52E642F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
     <sheet name="合計データ" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>月度</t>
   </si>
@@ -78,46 +81,78 @@
     <t>確定泊数2</t>
   </si>
   <si>
-    <t>売上　実績/計画（%)</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイカク</t>
+    <t>実績稼働率</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>計画売上（百万円)</t>
+    <rPh sb="5" eb="8">
+      <t>ヒャクマンエン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>稼働率　実績/計画（%)</t>
-    <rPh sb="0" eb="3">
-      <t>カドウリツ</t>
+    <t>売上　達成率</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイカク</t>
+    <rPh sb="3" eb="6">
+      <t>タッセイリツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>実績稼働率</t>
+    <t>稼働率　前日対比</t>
+    <rPh sb="0" eb="3">
+      <t>カドウリツ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ゼンジツタイヒ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>稼働率　実績-計画</t>
+    <t>稼働率　達成率</t>
     <rPh sb="0" eb="3">
       <t>カドウリツ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジッセキ</t>
+    <rPh sb="4" eb="7">
+      <t>タッセイリツ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイカク</t>
-    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実績売上</t>
+  </si>
+  <si>
+    <t>前年売上</t>
+  </si>
+  <si>
+    <t>前年比差異(売上)</t>
+  </si>
+  <si>
+    <t>前年稼働率</t>
+  </si>
+  <si>
+    <t>前年比差異(稼働率)</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>表示月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>売上差異</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>稼働率差異</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>施設名</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -125,9 +160,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -192,7 +228,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,16 +258,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,20 +279,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -359,7 +411,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -372,7 +424,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
               <a:t>売上　計画ｘ実績</a:t>
             </a:r>
           </a:p>
@@ -391,7 +443,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -419,11 +471,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$B$1</c:f>
+              <c:f>合計データ!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 計画売上 </c:v>
+                  <c:v> 計画売上（百万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -509,10 +561,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$B$2:$B$7</c:f>
+              <c:f>合計データ!$O$2:$O$7</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"_ ;_ @_ </c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -527,11 +597,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$C$1</c:f>
+              <c:f>合計データ!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 実績売上 / 前日比 </c:v>
+                  <c:v> 表示月 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -643,10 +713,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$C$2:$C$7</c:f>
+              <c:f>合計データ!$P$2:$P$7</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"_ ;_ @_ </c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -676,11 +764,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$O$1</c:f>
+              <c:f>合計データ!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上　実績/計画（%) </c:v>
+                  <c:v> 売上　達成率 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -770,7 +858,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$O$2:$O$7</c:f>
+              <c:f>合計データ!$Q$2:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -873,7 +961,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -907,38 +995,6 @@
         <c:crossAx val="1127746191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="273861328"/>
@@ -993,6 +1049,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="273861328"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1046,12 +1103,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1095,7 +1147,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -1108,7 +1160,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
               <a:t>稼働率　計画ｘ実績</a:t>
             </a:r>
           </a:p>
@@ -1127,7 +1179,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -1485,11 +1537,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$Q$1</c:f>
+              <c:f>合計データ!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 稼働率　実績-計画 </c:v>
+                  <c:v> 稼働率　前日対比 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1580,7 +1632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$Q$2:$Q$7</c:f>
+              <c:f>合計データ!$S$2:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1631,11 +1683,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$P$1</c:f>
+              <c:f>合計データ!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 稼働率　実績/計画（%) </c:v>
+                  <c:v> 稼働率　達成率 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1762,7 +1814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$P$2:$P$7</c:f>
+              <c:f>合計データ!$R$2:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1954,6 +2006,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="785404576"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1975,7 +2028,7 @@
           <c:yMode val="edge"/>
           <c:x val="5.2015873015873015E-2"/>
           <c:y val="0.86612250000000002"/>
-          <c:w val="0.74688095238095242"/>
+          <c:w val="0.87589682539682545"/>
           <c:h val="0.10724111111111111"/>
         </c:manualLayout>
       </c:layout>
@@ -2017,12 +2070,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2045,6 +2093,511 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>売上　計画ｘ実績</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>施設ごと</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 計画売上 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$11:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$B$11:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE88-495D-A3AB-639F9D93E0D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 実績売上 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$11:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$C$11:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE88-495D-A3AB-639F9D93E0D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 売上差異 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$11:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$D$11:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DE88-495D-A3AB-639F9D93E0D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="331957008"/>
+        <c:axId val="331962288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="331957008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331962288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331962288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331957008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
@@ -2054,6 +2607,46 @@
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3103,6 +3696,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3185,6 +4283,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673900</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84310F8C-6A24-4A32-AAE7-A22D26E62CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3367,37 +4503,102 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="17" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 25年12月27日</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A79" s="18">
+        <f>$A$39</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A39:H41"/>
+    <mergeCell ref="A79:H81"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3408,10 +4609,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -3429,232 +4630,665 @@
     <col min="12" max="12" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.54296875" style="1"/>
+    <col min="15" max="16" width="17.26953125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="9" t="e">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="10">
+        <f>B2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <f>C2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6" t="e">
         <f>C2/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P2" s="9" t="e">
+      <c r="R2" s="6" t="e">
         <f>F2/E2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="S2" s="7">
         <f>F2-I2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="9" t="e">
-        <f t="shared" ref="O3:O7" si="0">C3/B3</f>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O7" si="0">B3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P7" si="1">C3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6" t="e">
+        <f t="shared" ref="Q3:Q7" si="2">C3/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P3" s="9" t="e">
-        <f t="shared" ref="P3:P7" si="1">F3/E3</f>
+      <c r="R3" s="6" t="e">
+        <f t="shared" ref="R3:R7" si="3">F3/E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q7" si="2">F3-I3</f>
+      <c r="S3" s="7">
+        <f t="shared" ref="S3:S7" si="4">F3-I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="9" t="e">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="9" t="e">
+      <c r="R4" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R5" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="e">
         <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9" t="e">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P5" s="9" t="e">
-        <f t="shared" si="1"/>
+      <c r="R7" s="6" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="2"/>
+      <c r="S7" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD90BCF-FB36-47C6-87B0-8B52E642F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E9B94-0B7D-49CF-9F50-AC4142E1886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,12 @@
     <sheet name="合計データ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
+    <definedName name="稼働率施設名">OFFSET(合計データ!$G$10, 0, 0, COUNTA(合計データ!$G$10:$G$1000), 1)</definedName>
+    <definedName name="施設データ">OFFSET(合計データ!$O$10, 0, 0, COUNTA(合計データ!$A$10:$A$1000), 3)</definedName>
+    <definedName name="施設稼働率">OFFSET(合計データ!$H$10, 0, 0, COUNTA(合計データ!$G$10:$G$1000), 3)</definedName>
+    <definedName name="売上施設名">OFFSET(合計データ!$A$10, 0, 0, COUNTA(合計データ!$A$10:$A$1000), 1)</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>月度</t>
   </si>
@@ -73,9 +78,6 @@
   </si>
   <si>
     <t>正味販売可能室数</t>
-  </si>
-  <si>
-    <t>実績売上 / 前日比</t>
   </si>
   <si>
     <t>確定泊数2</t>
@@ -140,32 +142,84 @@
     <t>KPI</t>
   </si>
   <si>
-    <t>表示月</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>売上差異</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>稼働率差異</t>
+    <t>実績売上 / 前日比</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実績売上（百万円)</t>
+    <rPh sb="5" eb="8">
+      <t>ヒャクマンエン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>計画売上（万円)</t>
+    <rPh sb="5" eb="6">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実績売上（万円)</t>
+    <rPh sb="5" eb="6">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ADR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RevPAR</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>施設名</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>売上差異</t>
+  </si>
+  <si>
+    <t>実績稼働率</t>
+  </si>
+  <si>
+    <t>稼働率差異</t>
+  </si>
+  <si>
+    <t>実績 ADR</t>
+  </si>
+  <si>
+    <t>計画 ADR</t>
+  </si>
+  <si>
+    <t>実績 RevPAR</t>
+  </si>
+  <si>
+    <t>計画 RevPAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_)&quot;円&quot;;[Red]\(#,##0\)&quot;円&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,6 +281,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="0.34998626667073579"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -279,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -291,17 +359,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -601,7 +678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 表示月 </c:v>
+                  <c:v> 実績売上（百万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2113,27 +2190,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2141,69 +2204,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="ja-JP"/>
               <a:t>売上　計画ｘ実績</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="ja-JP"/>
               <a:t>施設ごと</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2219,27 +2232,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:srgbClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2262,25 +2261,89 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$B$10</c:f>
+              <c:f>合計データ!$O$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 計画売上 </c:v>
+                  <c:v> 計画売上（万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>合計データ!$A$11:$A$38</c:f>
@@ -2292,10 +2355,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$B$11:$B$38</c:f>
+              <c:f>合計データ!$O$11:$O$38</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2310,25 +2376,89 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$C$10</c:f>
+              <c:f>合計データ!$P$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 実績売上 </c:v>
+                  <c:v> 実績売上（万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>合計データ!$A$11:$A$38</c:f>
@@ -2340,10 +2470,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$C$11:$C$38</c:f>
+              <c:f>合計データ!$P$11:$P$38</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2358,7 +2491,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$D$10</c:f>
+              <c:f>合計データ!$Q$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2369,14 +2502,77 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>合計データ!$A$11:$A$38</c:f>
@@ -2388,10 +2584,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$D$11:$D$38</c:f>
+              <c:f>合計データ!$Q$11:$Q$38</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2402,14 +2601,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="50"/>
         <c:axId val="331957008"/>
         <c:axId val="331962288"/>
       </c:barChart>
@@ -2423,7 +2623,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2445,8 +2645,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2471,24 +2671,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="none"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -2504,8 +2690,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2546,8 +2732,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2575,7 +2761,626 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>稼働率</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>　計画ｘ実績</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>施設ごと</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>計画稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$G$11:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$H$11:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06C6-4747-ABF6-1DFCE5A33B68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$G$11:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$I$11:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06C6-4747-ABF6-1DFCE5A33B68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>稼働率差異</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$G$11:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$J$11:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06C6-4747-ABF6-1DFCE5A33B68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="331957008"/>
+        <c:axId val="331962288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="331957008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331962288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331962288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331957008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2650,6 +3455,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -3701,18 +4546,18 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3720,8 +4565,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -3742,7 +4587,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3758,7 +4603,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3766,8 +4611,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3801,36 +4646,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3842,30 +4713,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3882,20 +4756,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3905,7 +4777,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3914,14 +4786,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3930,17 +4801,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3949,17 +4820,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3968,21 +4838,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4001,17 +4865,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4020,17 +4883,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4039,17 +4902,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4059,8 +4921,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4070,7 +4932,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4078,7 +4940,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4087,10 +4949,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4098,17 +4971,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4118,27 +4991,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4148,10 +5020,535 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
@@ -4159,20 +5556,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4182,8 +5578,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4193,14 +5589,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4212,13 +5602,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9800</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4249,14 +5639,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>113850</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>183700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4286,13 +5676,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>673900</xdr:colOff>
+      <xdr:colOff>721525</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -4316,6 +5706,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721525</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AF1787-DD75-40F4-A7FB-9EAFD7AAEFF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4503,7 +5931,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4512,86 +5940,182 @@
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="17" t="str">
+      <c r="A1" s="15" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 25年12月27日</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="17">
+        <f>合計データ!N11</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
+        <f>合計データ!$N$13</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="18" t="str">
+        <f>_xlfn.CONCAT("計画：",TEXT(合計データ!$N$12,"#,#"),"円　",TEXT(合計データ!$N$11-合計データ!$N$12,"#,##0_)円;[赤]-#,##0円"))</f>
+        <v>計画：円　0 円</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18" t="str">
+        <f>_xlfn.CONCAT("計画：",TEXT(合計データ!$N$14,"#,#"),"円　",TEXT(合計データ!$N$13-合計データ!$N$14,"#,##0_)円;[赤]-#,##0円"))</f>
+        <v>計画：円　0 円</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A79" s="18">
+      <c r="A79" s="14">
         <f>$A$39</f>
         <v>0</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A119" s="14">
+        <f>$A$39</f>
+        <v>0</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A119:H121"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A39:H41"/>
     <mergeCell ref="A79:H81"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
@@ -4609,31 +6133,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="17.26953125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
@@ -4645,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -4654,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
@@ -4669,7 +6192,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>8</v>
@@ -4681,19 +6204,19 @@
         <v>10</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.5">
@@ -4748,23 +6271,23 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="0">B3/1000000</f>
+        <f t="shared" ref="O3:P7" si="0">B3/1000000</f>
         <v>0</v>
       </c>
       <c r="P3" s="10">
-        <f t="shared" ref="P3:P7" si="1">C3/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="6" t="e">
-        <f t="shared" ref="Q3:Q7" si="2">C3/B3</f>
+        <f t="shared" ref="Q3:Q7" si="1">C3/B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R3" s="6" t="e">
-        <f t="shared" ref="R3:R7" si="3">F3/E3</f>
+        <f t="shared" ref="R3:R7" si="2">F3/E3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S3" s="7">
-        <f t="shared" ref="S3:S7" si="4">F3-I3</f>
+        <f t="shared" ref="S3:S7" si="3">F3-I3</f>
         <v>0</v>
       </c>
     </row>
@@ -4788,19 +6311,19 @@
         <v>0</v>
       </c>
       <c r="P4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="6" t="e">
+      <c r="S4" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4824,19 +6347,19 @@
         <v>0</v>
       </c>
       <c r="P5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="6" t="e">
+      <c r="S5" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4860,19 +6383,19 @@
         <v>0</v>
       </c>
       <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="6" t="e">
+      <c r="S6" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4896,404 +6419,121 @@
         <v>0</v>
       </c>
       <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="6" t="e">
+      <c r="S7" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="N11" s="13"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13">
+        <f>B11/10000</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <f>C11/10000</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>D11/10000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="N13" s="13"/>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="M14" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E9B94-0B7D-49CF-9F50-AC4142E1886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD3F6BA-2D1F-4E07-8242-65EF6DF605E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,10 +213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_)&quot;円&quot;;[Red]\(#,##0\)&quot;円&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
@@ -358,7 +357,6 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -380,6 +378,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -640,7 +639,7 @@
             <c:numRef>
               <c:f>合計データ!$O$2:$O$7</c:f>
               <c:numCache>
-                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"_ ;_ @_ </c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -792,7 +791,7 @@
             <c:numRef>
               <c:f>合計データ!$P$2:$P$7</c:f>
               <c:numCache>
-                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"_ ;_ @_ </c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1038,7 +1037,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -5940,169 +5939,169 @@
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="14" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 25年12月27日</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <f>合計データ!N11</f>
         <v>0</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16">
         <f>合計データ!$N$13</f>
         <v>0</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="18" t="str">
+      <c r="A19" s="17" t="str">
         <f>_xlfn.CONCAT("計画：",TEXT(合計データ!$N$12,"#,#"),"円　",TEXT(合計データ!$N$11-合計データ!$N$12,"#,##0_)円;[赤]-#,##0円"))</f>
         <v>計画：円　0 円</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18" t="str">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17" t="str">
         <f>_xlfn.CONCAT("計画：",TEXT(合計データ!$N$14,"#,#"),"円　",TEXT(合計データ!$N$13-合計データ!$N$14,"#,##0_)円;[赤]-#,##0円"))</f>
         <v>計画：円　0 円</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A79" s="14">
+      <c r="A79" s="13">
         <f>$A$39</f>
         <v>0</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A119" s="14">
+      <c r="A119" s="13">
         <f>$A$39</f>
         <v>0</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6234,11 +6233,11 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="10">
+      <c r="O2" s="19">
         <f>B2/1000000</f>
         <v>0</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="19">
         <f>C2/1000000</f>
         <v>0</v>
       </c>
@@ -6270,11 +6269,11 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="10">
+      <c r="O3" s="19">
         <f t="shared" ref="O3:P7" si="0">B3/1000000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6306,11 +6305,11 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="10">
+      <c r="O4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6342,11 +6341,11 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="10">
+      <c r="O5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6378,11 +6377,11 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="10">
+      <c r="O6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6414,11 +6413,11 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="10">
+      <c r="O7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6472,7 +6471,7 @@
       <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="O10" s="9" t="s">
@@ -6501,16 +6500,16 @@
       <c r="M11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13">
+      <c r="N11" s="11"/>
+      <c r="O11" s="12">
         <f>B11/10000</f>
         <v>0</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="12">
         <f>C11/10000</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <f>D11/10000</f>
         <v>0</v>
       </c>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD3F6BA-2D1F-4E07-8242-65EF6DF605E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA866E93-B648-42E5-8070-FCE88BDEC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0_)&quot;円&quot;;[Red]\(#,##0\)&quot;円&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0_)&quot;円&quot;;[Red]\(#,##0\)&quot;円&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -346,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -378,7 +378,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -6123,6 +6122,10 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="41" max="16383" man="1"/>
+    <brk id="81" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6233,11 +6236,11 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="19">
+      <c r="O2" s="12">
         <f>B2/1000000</f>
         <v>0</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="12">
         <f>C2/1000000</f>
         <v>0</v>
       </c>
@@ -6269,11 +6272,11 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="19">
+      <c r="O3" s="12">
         <f t="shared" ref="O3:P7" si="0">B3/1000000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6305,11 +6308,11 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="19">
+      <c r="O4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6341,11 +6344,11 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="19">
+      <c r="O5" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6377,11 +6380,11 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="19">
+      <c r="O6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6413,11 +6416,11 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="19">
+      <c r="O7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA866E93-B648-42E5-8070-FCE88BDEC6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E83A21-D769-4B0E-80A1-4580A541495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="合計データ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
     <definedName name="稼働率施設名">OFFSET(合計データ!$G$10, 0, 0, COUNTA(合計データ!$G$10:$G$1000), 1)</definedName>
     <definedName name="施設データ">OFFSET(合計データ!$O$10, 0, 0, COUNTA(合計データ!$A$10:$A$1000), 3)</definedName>
@@ -6540,5 +6540,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E83A21-D769-4B0E-80A1-4580A541495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7894369-E574-405E-9061-93A00D394AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="合計データ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
     <definedName name="稼働率施設名">OFFSET(合計データ!$G$10, 0, 0, COUNTA(合計データ!$G$10:$G$1000), 1)</definedName>
     <definedName name="施設データ">OFFSET(合計データ!$O$10, 0, 0, COUNTA(合計データ!$A$10:$A$1000), 3)</definedName>
@@ -5992,15 +5992,15 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="17" t="str">
-        <f>_xlfn.CONCAT("計画：",TEXT(合計データ!$N$12,"#,#"),"円　",TEXT(合計データ!$N$11-合計データ!$N$12,"#,##0_)円;[赤]-#,##0円"))</f>
-        <v>計画：円　0 円</v>
+        <f>"計画：" &amp; TEXT(合計データ!$N$12, "#,##0") &amp; "円　" &amp; TEXT(合計データ!$N$11-合計データ!$N$12, "#,##0円;-#,##0円")</f>
+        <v>計画：0円　0円</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="17" t="str">
-        <f>_xlfn.CONCAT("計画：",TEXT(合計データ!$N$14,"#,#"),"円　",TEXT(合計データ!$N$13-合計データ!$N$14,"#,##0_)円;[赤]-#,##0円"))</f>
-        <v>計画：円　0 円</v>
+        <f>"計画：" &amp; TEXT(合計データ!$N$14, "#,##0") &amp; "円　" &amp; TEXT(合計データ!$N$13-合計データ!$N$14, "#,##0円;-#,##0円")</f>
+        <v>計画：0円　0円</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -6137,7 +6137,7 @@
   </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6534,14 +6534,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7894369-E574-405E-9061-93A00D394AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133F8AD-D5DA-451C-B7B4-CABB83317296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>正味販売可能室数</t>
   </si>
   <si>
-    <t>確定泊数2</t>
-  </si>
-  <si>
     <t>実績稼働率</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -146,10 +143,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>実績売上 / 前日比</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>実績売上（百万円)</t>
     <rPh sb="5" eb="8">
       <t>ヒャクマンエン</t>
@@ -207,6 +200,14 @@
   </si>
   <si>
     <t>計画 RevPAR</t>
+  </si>
+  <si>
+    <t>実績売上</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確定泊数</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -5940,7 +5941,7 @@
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="14" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 25年12月27日</v>
+        <v>デイリーレポート - 26年01月05日</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5952,13 +5953,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -6170,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -6179,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
@@ -6194,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>8</v>
@@ -6206,19 +6207,19 @@
         <v>10</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.5">
@@ -6439,52 +6440,52 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="O10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
@@ -6501,7 +6502,7 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="12">
@@ -6519,17 +6520,17 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="M12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="M14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133F8AD-D5DA-451C-B7B4-CABB83317296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420762A-1B82-4CC3-8F04-56A5D8EDC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-1670" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24210" yWindow="-1300" windowWidth="21600" windowHeight="18100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>月度</t>
   </si>
@@ -65,9 +65,6 @@
     <t>前日実績売上</t>
   </si>
   <si>
-    <t>前日実績稼働率</t>
-  </si>
-  <si>
     <t>前日確定泊数</t>
   </si>
   <si>
@@ -78,10 +75,6 @@
   </si>
   <si>
     <t>正味販売可能室数</t>
-  </si>
-  <si>
-    <t>実績稼働率</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>計画売上（百万円)</t>
@@ -121,9 +114,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>実績売上</t>
-  </si>
-  <si>
     <t>前年売上</t>
   </si>
   <si>
@@ -143,24 +133,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>実績売上（百万円)</t>
-    <rPh sb="5" eb="8">
-      <t>ヒャクマンエン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>計画売上（万円)</t>
-    <rPh sb="5" eb="6">
-      <t>マン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実績売上（万円)</t>
     <rPh sb="5" eb="6">
       <t>マン</t>
     </rPh>
@@ -184,29 +157,45 @@
     <t>売上差異</t>
   </si>
   <si>
-    <t>実績稼働率</t>
-  </si>
-  <si>
     <t>稼働率差異</t>
-  </si>
-  <si>
-    <t>実績 ADR</t>
   </si>
   <si>
     <t>計画 ADR</t>
   </si>
   <si>
-    <t>実績 RevPAR</t>
-  </si>
-  <si>
     <t>計画 RevPAR</t>
   </si>
   <si>
-    <t>実績売上</t>
+    <t>確定泊数</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>確定泊数</t>
+    <t>売上</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>稼働率</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前日稼働率</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>売上（百万円)</t>
+    <rPh sb="3" eb="6">
+      <t>ヒャクマンエン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>売上（万円)</t>
+    <rPh sb="3" eb="4">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -501,7 +490,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-              <a:t>売上　計画ｘ実績</a:t>
+              <a:t>売上　計画ｘ見込み</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -677,7 +666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 実績売上（百万円) </c:v>
+                  <c:v> 売上（百万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1237,7 +1226,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-              <a:t>稼働率　計画ｘ実績</a:t>
+              <a:t>稼働率　計画ｘ見込み</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1404,7 +1393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>実績稼働率</c:v>
+                  <c:v>稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,7 +1532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>前日実績稼働率</c:v>
+                  <c:v>前日稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2204,7 +2193,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP"/>
-              <a:t>売上　計画ｘ実績</a:t>
+              <a:t>売上　計画ｘ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>見込み</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2379,7 +2372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 実績売上（万円) </c:v>
+                  <c:v> 売上（万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2827,7 +2820,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP"/>
-              <a:t>　計画ｘ実績</a:t>
+              <a:t>　計画ｘ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>見込み</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2999,7 +2996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>実績稼働率</c:v>
+                  <c:v>稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5932,7 +5929,7 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -5941,7 +5938,7 @@
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="14" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月05日</v>
+        <v>デイリーレポート - 26年01月08日</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5953,13 +5950,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -6171,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -6180,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
@@ -6189,37 +6186,37 @@
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.5">
@@ -6440,25 +6437,25 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -6467,25 +6464,25 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.5">
@@ -6502,7 +6499,7 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="12">
@@ -6520,17 +6517,17 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="M12" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="M13" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420762A-1B82-4CC3-8F04-56A5D8EDC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA64A8-5964-4F8D-AB22-6C2E8665A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24210" yWindow="-1300" windowWidth="21600" windowHeight="18100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="-18930" windowWidth="32055" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
-    <definedName name="稼働率施設名">OFFSET(合計データ!$G$10, 0, 0, COUNTA(合計データ!$G$10:$G$1000), 1)</definedName>
-    <definedName name="施設データ">OFFSET(合計データ!$O$10, 0, 0, COUNTA(合計データ!$A$10:$A$1000), 3)</definedName>
-    <definedName name="施設稼働率">OFFSET(合計データ!$H$10, 0, 0, COUNTA(合計データ!$G$10:$G$1000), 3)</definedName>
-    <definedName name="売上施設名">OFFSET(合計データ!$A$10, 0, 0, COUNTA(合計データ!$A$10:$A$1000), 1)</definedName>
+    <definedName name="稼働率">OFFSET(合計データ!$J$11, 0, 0, COUNTA(合計データ!$H$11:$H$1000), 1)</definedName>
+    <definedName name="稼働率差異">OFFSET(合計データ!$K$11, 0, 0, COUNTA(合計データ!$H$11:$H$1000), 1)</definedName>
+    <definedName name="稼働率施設名">OFFSET(合計データ!$H$11, 0, 0, COUNTA(合計データ!$H$11:$H$1000), 1)</definedName>
+    <definedName name="計画稼働率">OFFSET(合計データ!$I$11, 0, 0, COUNTA(合計データ!$H$11:$H$1000), 1)</definedName>
+    <definedName name="計画売上">OFFSET(合計データ!$O$11, 0, 0, COUNTA(合計データ!$A$11:$A$1000), 1)</definedName>
+    <definedName name="売上">OFFSET(合計データ!$P$11, 0, 0, COUNTA(合計データ!$A$11:$A$1000), 1)</definedName>
+    <definedName name="売上差異">OFFSET(合計データ!$Q$11, 0, 0, COUNTA(合計データ!$A$11:$A$1000), 1)</definedName>
+    <definedName name="売上施設名">OFFSET(合計データ!$A$11, 0, 0, COUNTA(合計データ!$A$11:$A$1000), 1)</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -33,19 +37,14 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>月度</t>
   </si>
@@ -126,9 +125,6 @@
     <t>前年比差異(稼働率)</t>
   </si>
   <si>
-    <t>KPI</t>
-  </si>
-  <si>
     <t>売上差異</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -158,12 +154,6 @@
   </si>
   <si>
     <t>稼働率差異</t>
-  </si>
-  <si>
-    <t>計画 ADR</t>
-  </si>
-  <si>
-    <t>計画 RevPAR</t>
   </si>
   <si>
     <t>確定泊数</t>
@@ -198,17 +188,62 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>2026-01</t>
+  </si>
+  <si>
+    <t>2026-02</t>
+  </si>
+  <si>
+    <t>2026-03</t>
+  </si>
+  <si>
+    <t>2026-04</t>
+  </si>
+  <si>
+    <t>2026-05</t>
+  </si>
+  <si>
+    <t>2026-06</t>
+  </si>
+  <si>
+    <t>計画対比</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ADR計画</t>
+    <rPh sb="3" eb="5">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RevPAR計画</t>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="#,##0_)&quot;円&quot;;[Red]\(#,##0\)&quot;円&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,18 +306,28 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans JP"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="3" tint="0.34998626667073579"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -305,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -328,53 +373,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -526,7 +633,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2096651099889675E-2"/>
+          <c:y val="0.11968056541999413"/>
+          <c:w val="0.95582888038701108"/>
+          <c:h val="0.67783047793926587"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1268,9 +1385,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="2.2174603174603173E-2"/>
-          <c:y val="0.13476111111111111"/>
+          <c:y val="8.1844444444444428E-2"/>
           <c:w val="0.95565079365079364"/>
-          <c:h val="0.67145972222222206"/>
+          <c:h val="0.72437638888888889"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2237,7 +2354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2337,20 +2454,22 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>合計データ!$A$11:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>[0]!売上施設名</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$O$11:$O$38</c:f>
+              <c:f>[0]!計画売上</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2452,20 +2571,22 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>合計データ!$A$11:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>[0]!売上施設名</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$P$11:$P$38</c:f>
+              <c:f>[0]!売上</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2566,21 +2687,23 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>合計データ!$A$11:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>[0]!売上施設名</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$Q$11:$Q$38</c:f>
+              <c:f>[0]!売上差異</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2663,7 +2786,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -2739,7 +2862,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2747,6 +2869,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2864,7 +2987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2880,7 +3003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$H$10</c:f>
+              <c:f>合計データ!$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2964,20 +3087,25 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>合計データ!$G$11:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>[0]!稼働率施設名</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$H$11:$H$38</c:f>
+              <c:f>[0]!計画稼働率</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2992,7 +3120,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$I$10</c:f>
+              <c:f>合計データ!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3076,20 +3204,25 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>合計データ!$G$11:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>[0]!稼働率施設名</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$I$11:$I$38</c:f>
+              <c:f>[0]!稼働率</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3104,7 +3237,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$J$10</c:f>
+              <c:f>合計データ!$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3187,20 +3320,25 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>合計データ!$G$11:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>[0]!稼働率施設名</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$J$11:$J$38</c:f>
+              <c:f>[0]!稼働率差異</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3281,7 +3419,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -3357,7 +3495,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3365,6 +3502,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5598,7 +5736,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -5634,15 +5772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>183700</xdr:rowOff>
+      <xdr:colOff>718350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5745,6 +5883,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>17862</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>795737</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>112183</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="図 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D4A611-9897-9441-5A5C-200C7338FAE4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="合計データ!$U$1:$AA$5" spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="827487" y="6915150"/>
+              <a:ext cx="4826000" cy="1121833"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5923,195 +6126,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="14" t="str">
+      <c r="A1" s="25" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月08日</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+        <v>デイリーレポート - 26年01月09日</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="16">
-        <f>合計データ!N11</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
-        <f>合計データ!$N$13</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" s="17" t="str">
-        <f>"計画：" &amp; TEXT(合計データ!$N$12, "#,##0") &amp; "円　" &amp; TEXT(合計データ!$N$11-合計データ!$N$12, "#,##0円;-#,##0円")</f>
-        <v>計画：0円　0円</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17" t="str">
-        <f>"計画：" &amp; TEXT(合計データ!$N$14, "#,##0") &amp; "円　" &amp; TEXT(合計データ!$N$13-合計データ!$N$14, "#,##0円;-#,##0円")</f>
-        <v>計画：0円　0円</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A79" s="13">
+      <c r="A79" s="24">
         <f>$A$39</f>
         <v>0</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A119" s="13">
+      <c r="A119" s="24">
         <f>$A$39</f>
         <v>0</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="4">
     <mergeCell ref="A119:H121"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A39:H41"/>
     <mergeCell ref="A79:H81"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
@@ -6125,6 +6268,7 @@
     <brk id="81" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6133,9 +6277,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6157,296 +6303,398 @@
     <col min="17" max="17" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.54296875" style="1"/>
+    <col min="20" max="20" width="11.54296875" style="1"/>
+    <col min="21" max="21" width="9.08984375" style="1" customWidth="1"/>
+    <col min="22" max="27" width="9.90625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="W1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>12</v>
+      <c r="X1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="12">
+    <row r="2" spans="1:27" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7">
         <f>B2/1000000</f>
         <v>0</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="7">
         <f>C2/1000000</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="6" t="e">
+      <c r="Q2" s="3" t="e">
         <f>C2/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R2" s="6" t="e">
+      <c r="R2" s="3" t="e">
         <f>F2/E2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="4">
         <f>F2-I2</f>
         <v>0</v>
       </c>
+      <c r="U2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="12">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7">
         <f t="shared" ref="O3:P7" si="0">B3/1000000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="6" t="e">
+      <c r="Q3" s="3" t="e">
         <f t="shared" ref="Q3:Q7" si="1">C3/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R3" s="6" t="e">
+      <c r="R3" s="3" t="e">
         <f t="shared" ref="R3:R7" si="2">F3/E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="4">
         <f t="shared" ref="S3:S7" si="3">F3-I3</f>
         <v>0</v>
       </c>
+      <c r="U3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="20">
+        <f>V2-V7</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="20">
+        <f t="shared" ref="W3:AA3" si="4">W2-W7</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="12">
+    <row r="4" spans="1:27" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="6" t="e">
+      <c r="Q4" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="6" t="e">
+      <c r="R4" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="U4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="12">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="6" t="e">
+      <c r="Q5" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="6" t="e">
+      <c r="R5" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="U5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="20">
+        <f>V4-V8</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="20">
+        <f t="shared" ref="W5:AA5" si="5">W4-W8</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="12">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="6" t="e">
+      <c r="Q6" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="6" t="e">
+      <c r="R6" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="12">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="6" t="e">
+      <c r="Q7" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="6" t="e">
+      <c r="R7" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="U7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -6454,84 +6702,806 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
       <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="Q10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="16" t="e">
         <f>B11/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" s="16" t="e">
         <f>C11/10000</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" s="16" t="e">
         <f>D11/10000</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="M12" s="2" t="s">
-        <v>26</v>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="16">
+        <f t="shared" ref="O12:O38" si="6">B12/10000</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" ref="P12:P38" si="7">C12/10000</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" ref="Q12:Q38" si="8">D12/10000</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="M13" s="2" t="s">
-        <v>22</v>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="M14" s="2" t="s">
-        <v>27</v>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15"/>
+      <c r="O15" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16"/>
+      <c r="O16" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17"/>
+      <c r="O17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18"/>
+      <c r="O18" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19"/>
+      <c r="O19" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20"/>
+      <c r="O20" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21"/>
+      <c r="O21" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22"/>
+      <c r="O22" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23"/>
+      <c r="O23" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24"/>
+      <c r="O24" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25"/>
+      <c r="O25" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26"/>
+      <c r="O26" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27"/>
+      <c r="O27" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28"/>
+      <c r="O28" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29"/>
+      <c r="O29" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30"/>
+      <c r="O30" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31"/>
+      <c r="O31" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32"/>
+      <c r="O32" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33"/>
+      <c r="O33" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34"/>
+      <c r="O34" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35"/>
+      <c r="O35" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36"/>
+      <c r="O36" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37"/>
+      <c r="O37" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38"/>
+      <c r="O38" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="V3:AA3">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:AA5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA64A8-5964-4F8D-AB22-6C2E8665A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117D3E1-66B9-4F6C-B2F3-33A03A0D7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="-18930" windowWidth="32055" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="-20145" windowWidth="30345" windowHeight="18630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>月度</t>
   </si>
@@ -440,7 +440,87 @@
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2455,7 +2535,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!売上施設名</c:f>
+              <c:f>合計データ!$A$11:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2466,11 +2546,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!計画売上</c:f>
+              <c:f>合計データ!$O$11:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2572,7 +2733,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!売上施設名</c:f>
+              <c:f>合計データ!$A$11:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2583,11 +2744,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!売上</c:f>
+              <c:f>合計データ!$P$11:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2688,7 +2930,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!売上施設名</c:f>
+              <c:f>合計データ!$A$11:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2699,11 +2941,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!売上差異</c:f>
+              <c:f>合計データ!$Q$11:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3088,7 +3411,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!稼働率施設名</c:f>
+              <c:f>合計データ!$H$11:$H$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3099,11 +3422,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!計画稼働率</c:f>
+              <c:f>合計データ!$I$11:$I$40</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3205,7 +3528,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!稼働率施設名</c:f>
+              <c:f>合計データ!$H$11:$H$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3216,11 +3539,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!稼働率</c:f>
+              <c:f>合計データ!$J$11:$J$40</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3321,7 +3644,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[0]!稼働率施設名</c:f>
+              <c:f>合計データ!$H$11:$H$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3332,11 +3655,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!稼働率差異</c:f>
+              <c:f>合計データ!$K$11:$K$40</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5739,7 +6062,7 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>168550</xdr:rowOff>
@@ -5777,7 +6100,7 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>718350</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142425</xdr:rowOff>
@@ -5815,7 +6138,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -5853,7 +6176,7 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
@@ -5883,71 +6206,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>17862</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>795737</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>112183</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="図 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D4A611-9897-9441-5A5C-200C7338FAE4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ!$U$1:$AA$5" spid="_x0000_s1038"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="827487" y="6915150"/>
-              <a:ext cx="4826000" cy="1121833"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -6126,19 +6384,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="25" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月09日</v>
@@ -6150,10 +6408,148 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="23">
+        <f>合計データ!V2</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="23">
+        <f>合計データ!W2</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="23">
+        <f>合計データ!X2</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="23">
+        <f>合計データ!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <f>合計データ!Z2</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="23">
+        <f>合計データ!AA2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="20">
+        <f>合計データ!V3</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="20">
+        <f>合計データ!W3</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="20">
+        <f>合計データ!X3</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
+        <f>合計データ!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <f>合計データ!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="20">
+        <f>合計データ!AA3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="23">
+        <f>合計データ!V4</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="23">
+        <f>合計データ!W4</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="23">
+        <f>合計データ!X4</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
+        <f>合計データ!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <f>合計データ!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <f>合計データ!AA4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="20">
+        <f>合計データ!V5</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="20">
+        <f>合計データ!W5</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="20">
+        <f>合計データ!X5</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="20">
+        <f>合計データ!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="20">
+        <f>合計データ!Z5</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="20">
+        <f>合計データ!AA5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
@@ -6162,8 +6558,9 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -6172,8 +6569,9 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -6182,8 +6580,9 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79" s="24">
         <f>$A$39</f>
         <v>0</v>
@@ -6195,8 +6594,9 @@
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -6205,8 +6605,9 @@
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -6215,8 +6616,9 @@
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119" s="24">
         <f>$A$39</f>
         <v>0</v>
@@ -6228,8 +6630,9 @@
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -6238,8 +6641,9 @@
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -6248,17 +6652,34 @@
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A119:H121"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A39:H41"/>
-    <mergeCell ref="A79:H81"/>
+    <mergeCell ref="A119:I121"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A39:I41"/>
+    <mergeCell ref="A79:I81"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="C36:H36">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:H38">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
@@ -6268,7 +6689,6 @@
     <brk id="81" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6280,7 +6700,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117D3E1-66B9-4F6C-B2F3-33A03A0D7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C837F57-E212-4724-A6A5-0BAA34C353DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="-20145" windowWidth="30345" windowHeight="18630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="-20685" windowWidth="15900" windowHeight="19575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <rPh sb="5" eb="8">
       <t>ヒャクマンエン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>売上　達成率</t>
@@ -90,7 +90,7 @@
     <rPh sb="3" eb="6">
       <t>タッセイリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>稼働率　前日対比</t>
@@ -100,7 +100,7 @@
     <rPh sb="4" eb="8">
       <t>ゼンジツタイヒ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>稼働率　達成率</t>
@@ -110,7 +110,7 @@
     <rPh sb="4" eb="7">
       <t>タッセイリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>前年売上</t>
@@ -126,7 +126,7 @@
   </si>
   <si>
     <t>売上差異</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>計画売上（万円)</t>
@@ -136,15 +136,15 @@
     <rPh sb="6" eb="7">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ADR</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>RevPAR</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>施設名</t>
@@ -157,26 +157,26 @@
   </si>
   <si>
     <t>確定泊数</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>売上</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>稼働率</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>前日稼働率</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>売上（百万円)</t>
     <rPh sb="3" eb="6">
       <t>ヒャクマンエン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>売上（万円)</t>
@@ -186,7 +186,7 @@
     <rPh sb="4" eb="5">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2026-01</t>
@@ -214,25 +214,25 @@
     <rPh sb="2" eb="4">
       <t>タイヒ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ADR計画</t>
     <rPh sb="3" eb="5">
       <t>ケイカク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>RevPAR計画</t>
     <rPh sb="6" eb="8">
       <t>ケイカク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -255,14 +255,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans JP"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -328,6 +320,13 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -395,42 +394,44 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,47 +441,7 @@
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6059,13 +6020,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168550</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6095,15 +6056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>718350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142425</xdr:rowOff>
+      <xdr:colOff>712000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6133,15 +6094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6171,15 +6132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6388,7 +6349,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -6397,272 +6358,281 @@
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="25" t="str">
+      <c r="A1" s="27" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月09日</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H39" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="22" t="s">
+    <row r="40" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C40" s="23">
         <f>合計データ!V2</f>
         <v>0</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D40" s="23">
         <f>合計データ!W2</f>
         <v>0</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E40" s="23">
         <f>合計データ!X2</f>
         <v>0</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F40" s="23">
         <f>合計データ!Y2</f>
         <v>0</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G40" s="23">
         <f>合計データ!Z2</f>
         <v>0</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H40" s="23">
         <f>合計データ!AA2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B36" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="20">
-        <f>合計データ!V3</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="20">
-        <f>合計データ!W3</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="20">
-        <f>合計データ!X3</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="20">
-        <f>合計データ!Y3</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="20">
-        <f>合計データ!Z3</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="20">
-        <f>合計データ!AA3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="23">
-        <f>合計データ!V4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
-        <f>合計データ!W4</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <f>合計データ!X4</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <f>合計データ!Y4</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <f>合計データ!Z4</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
-        <f>合計データ!AA4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B38" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="20">
-        <f>合計データ!V5</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="20">
-        <f>合計データ!W5</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="20">
-        <f>合計データ!X5</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="20">
-        <f>合計データ!Y5</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="20">
-        <f>合計データ!Z5</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="20">
-        <f>合計データ!AA5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="B41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="20">
+        <f>合計データ!V3</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="20">
+        <f>合計データ!W3</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="20">
+        <f>合計データ!X3</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="20">
+        <f>合計データ!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="20">
+        <f>合計データ!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="20">
+        <f>合計データ!AA3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A79" s="24">
-        <f>$A$39</f>
-        <v>0</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
+    <row r="42" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="23">
+        <f>合計データ!V4</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="23">
+        <f>合計データ!W4</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="23">
+        <f>合計データ!X4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="23">
+        <f>合計データ!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="23">
+        <f>合計データ!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="23">
+        <f>合計データ!AA4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="20">
+        <f>合計データ!V5</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="20">
+        <f>合計データ!W5</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="20">
+        <f>合計データ!X5</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="20">
+        <f>合計データ!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="20">
+        <f>合計データ!Z5</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="20">
+        <f>合計データ!AA5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A119" s="24">
-        <f>$A$39</f>
-        <v>0</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A92" s="24">
+        <f>$A$45</f>
+        <v>0</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A139" s="24">
+        <f>$A$45</f>
+        <v>0</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A119:I121"/>
+    <mergeCell ref="A139:I141"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A39:I41"/>
-    <mergeCell ref="A79:I81"/>
+    <mergeCell ref="A45:I47"/>
+    <mergeCell ref="A92:I94"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="C36:H36">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C41:H41">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6670,7 +6640,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:H38">
+  <conditionalFormatting sqref="C43:H44">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6685,8 +6655,8 @@
     <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="41" max="16383" man="1"/>
-    <brk id="81" max="16383" man="1"/>
+    <brk id="47" max="16383" man="1"/>
+    <brk id="94" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7905,7 +7875,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="V3:AA3">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C837F57-E212-4724-A6A5-0BAA34C353DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9932A6-A065-44E7-99AF-0354B6D1BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="-20685" windowWidth="15900" windowHeight="19575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="-19980" windowWidth="35355" windowHeight="18840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>月度</t>
   </si>
@@ -59,21 +59,6 @@
   </si>
   <si>
     <t>前日集計日</t>
-  </si>
-  <si>
-    <t>前日実績売上</t>
-  </si>
-  <si>
-    <t>前日確定泊数</t>
-  </si>
-  <si>
-    <t>販売可能室数</t>
-  </si>
-  <si>
-    <t>ブロック数</t>
-  </si>
-  <si>
-    <t>正味販売可能室数</t>
   </si>
   <si>
     <t>計画売上（百万円)</t>
@@ -231,7 +216,33 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>x</t>
+    <t>稼働率（仮予約含む）</t>
+    <rPh sb="4" eb="7">
+      <t>カリヨヤク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前日実績売上</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前日確定泊数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上（仮予約含む）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定泊数（仮予約含む）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計画総室数</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -399,7 +410,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -426,11 +437,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,11 +706,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$O$1</c:f>
+              <c:f>合計データ!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 計画売上（百万円) </c:v>
+                  <c:v> 計画売上 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -784,28 +796,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$O$2:$O$7</c:f>
+              <c:f>合計データ!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -820,11 +814,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$P$1</c:f>
+              <c:f>合計データ!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上（百万円) </c:v>
+                  <c:v> 売上 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -834,21 +828,21 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:tint val="65000"/>
+                    <a:tint val="86000"/>
                     <a:lumMod val="110000"/>
                     <a:tint val="67000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
-                    <a:tint val="65000"/>
+                    <a:tint val="86000"/>
                     <a:lumMod val="105000"/>
                     <a:tint val="73000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:tint val="65000"/>
+                    <a:tint val="86000"/>
                     <a:lumMod val="105000"/>
                     <a:tint val="81000"/>
                   </a:schemeClr>
@@ -860,7 +854,7 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:tint val="65000"/>
+                  <a:tint val="86000"/>
                   <a:shade val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -936,34 +930,141 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$P$2:$P$7</c:f>
+              <c:f>合計データ!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60EF-4C96-80F0-6CDBE1F66A94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 売上（仮予約含む） </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
+                    <a:lumMod val="110000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
+                    <a:lumMod val="105000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="58000"/>
+                    <a:lumMod val="105000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2F7-411C-9D5A-17C2070B69C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -984,10 +1085,10 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$Q$1</c:f>
+              <c:f>合計データ!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1081,7 +1182,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$Q$2:$Q$7</c:f>
+              <c:f>合計データ!$R$2:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1218,6 +1319,38 @@
         <c:crossAx val="1127746191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="273861328"/>
@@ -1386,6 +1519,18 @@
               <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
               <a:t>稼働率　計画ｘ見込み</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>（当日・前日）</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1686,7 +1831,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$I$1</c:f>
+              <c:f>合計データ!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1742,7 +1887,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$I$2:$I$7</c:f>
+              <c:f>合計データ!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1760,7 +1905,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$S$1</c:f>
+              <c:f>合計データ!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1855,7 +2000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$S$2:$S$7</c:f>
+              <c:f>合計データ!$T$2:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1906,7 +2051,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$R$1</c:f>
+              <c:f>合計データ!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2037,7 +2182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$R$2:$R$7</c:f>
+              <c:f>合計データ!$S$2:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2495,15 +2640,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$11:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2693,15 +2836,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$11:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2890,15 +3031,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$11:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3371,15 +3510,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$H$11:$H$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3387,9 +3524,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3488,15 +3622,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$H$11:$H$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3504,9 +3636,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3604,15 +3733,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$H$11:$H$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3620,9 +3747,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3652,7 +3776,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3703,7 +3827,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -3821,6 +3945,640 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>稼働率　計画ｘ見込み（仮予約含まない・含む）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2174603174603173E-2"/>
+          <c:y val="8.1844444444444428E-2"/>
+          <c:w val="0.95565079365079364"/>
+          <c:h val="0.72437638888888889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>計画稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="33000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77CB-4FE2-AF34-D45E32C2AB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1127746191"/>
+        <c:axId val="1127742831"/>
+      </c:areaChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77CB-4FE2-AF34-D45E32C2AB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>稼働率（仮予約含む）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77CB-4FE2-AF34-D45E32C2AB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1127746191"/>
+        <c:axId val="1127742831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1127746191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1127742831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1127742831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1127746191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2015873015873015E-2"/>
+          <c:y val="0.86612250000000002"/>
+          <c:w val="0.87589682539682545"/>
+          <c:h val="0.10724111111111111"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
@@ -3913,6 +4671,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -5490,6 +6254,531 @@
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6058,13 +7347,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
+      <xdr:rowOff>50345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>712000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>105681</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6076,7 +7365,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6094,15 +7383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6132,15 +7421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6162,6 +7451,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>692950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>163175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19B51A1-4E11-4479-9DA2-9FE080B65327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6349,7 +7676,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -6358,281 +7685,281 @@
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="28" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月09日</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+        <v>デイリーレポート - 26年01月13日</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="18" t="s">
+    </row>
+    <row r="47" spans="2:8" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="23">
+        <f>合計データ!W2</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="23">
+        <f>合計データ!X2</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <f>合計データ!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="23">
+        <f>合計データ!Z2</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <f>合計データ!AA2</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
+        <f>合計データ!AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B48" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>36</v>
+      <c r="C48" s="20">
+        <f>合計データ!W3</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="20">
+        <f>合計データ!X3</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="20">
+        <f>合計データ!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="20">
+        <f>合計データ!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="20">
+        <f>合計データ!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="20">
+        <f>合計データ!AB3</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="23">
-        <f>合計データ!V2</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="23">
-        <f>合計データ!W2</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="23">
-        <f>合計データ!X2</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
-        <f>合計データ!Y2</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="23">
-        <f>合計データ!Z2</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="23">
-        <f>合計データ!AA2</f>
+    <row r="49" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="23">
+        <f>合計データ!W4</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="23">
+        <f>合計データ!X4</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <f>合計データ!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <f>合計データ!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <f>合計データ!AA4</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
+        <f>合計データ!AB4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B41" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="20">
-        <f>合計データ!V3</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="20">
-        <f>合計データ!W3</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="20">
-        <f>合計データ!X3</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="20">
-        <f>合計データ!Y3</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="20">
-        <f>合計データ!Z3</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="20">
-        <f>合計データ!AA3</f>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B50" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="20">
+        <f>合計データ!W5</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <f>合計データ!X5</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <f>合計データ!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <f>合計データ!Z5</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="20">
+        <f>合計データ!AA5</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="20">
+        <f>合計データ!AB5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="23">
-        <f>合計データ!V4</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="23">
-        <f>合計データ!W4</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="23">
-        <f>合計データ!X4</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="23">
-        <f>合計データ!Y4</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="23">
-        <f>合計データ!Z4</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="23">
-        <f>合計データ!AA4</f>
-        <v>0</v>
-      </c>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B51" s="21"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B43" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="20">
-        <f>合計データ!V5</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="20">
-        <f>合計データ!W5</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="20">
-        <f>合計データ!X5</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="20">
-        <f>合計データ!Y5</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="20">
-        <f>合計データ!Z5</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="20">
-        <f>合計データ!AA5</f>
-        <v>0</v>
-      </c>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A105" s="27">
+        <f>$A$52</f>
+        <v>0</v>
+      </c>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A92" s="24">
-        <f>$A$45</f>
-        <v>0</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A158" s="27">
+        <f>$A$52</f>
+        <v>0</v>
+      </c>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A139" s="24">
-        <f>$A$45</f>
-        <v>0</v>
-      </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A139:I141"/>
+    <mergeCell ref="A158:I160"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A45:I47"/>
-    <mergeCell ref="A92:I94"/>
+    <mergeCell ref="A52:I54"/>
+    <mergeCell ref="A105:I107"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C41:H41">
+  <conditionalFormatting sqref="C48:H48">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6640,7 +7967,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:H44">
+  <conditionalFormatting sqref="C50:H51">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6648,15 +7975,15 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.0629921259842521" bottom="1.0629921259842521" header="0.78740157480314965" footer="0.78740157480314965"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.39370078740157483" header="0.78740157480314965" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="94" max="16383" man="1"/>
+    <brk id="54" max="16383" man="1"/>
+    <brk id="107" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6667,10 +7994,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -6678,10 +8005,10 @@
     <col min="1" max="1" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -6699,7 +8026,7 @@
     <col min="28" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6707,472 +8034,473 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="Y1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="Z1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:28" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="7">
+      <c r="O2" s="9"/>
+      <c r="P2" s="7">
         <f>B2/1000000</f>
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <f>C2/1000000</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="e">
+      <c r="R2" s="3" t="e">
         <f>C2/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R2" s="3" t="e">
+      <c r="S2" s="3" t="e">
         <f>F2/E2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S2" s="4">
-        <f>F2-I2</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
+      <c r="T2" s="4">
+        <f>F2-J2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="7">
-        <f t="shared" ref="O3:P7" si="0">B3/1000000</f>
-        <v>0</v>
-      </c>
+      <c r="O3" s="9"/>
       <c r="P3" s="7">
+        <f>B3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>C3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="e">
+        <f>C3/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" s="3" t="e">
+        <f>F3/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" s="4">
+        <f>F3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="20">
+        <f>W2-W7</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="20">
+        <f t="shared" ref="X3:AB3" si="0">X2-X7</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="3" t="e">
-        <f t="shared" ref="Q3:Q7" si="1">C3/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="3" t="e">
-        <f t="shared" ref="R3:R7" si="2">F3/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S7" si="3">F3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="20">
-        <f>V2-V7</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="20">
-        <f t="shared" ref="W3:AA3" si="4">W2-W7</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Z3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:28" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O4" s="9"/>
       <c r="P4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>B4/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>C4/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="e">
+        <f>C4/B4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="S4" s="3" t="e">
+        <f>F4/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
+      <c r="T4" s="4">
+        <f>F4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O5" s="9"/>
       <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="e">
+        <f>B5/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>C5/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="e">
+        <f>C5/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="3" t="e">
+        <f>F5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="4">
+        <f>F5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="20">
+        <f t="shared" ref="W5:AB5" si="1">W4-W8</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="20">
-        <f>V4-V8</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="20">
-        <f t="shared" ref="W5:AA5" si="5">W4-W8</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="20">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O6" s="9"/>
       <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>B6/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>C6/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="e">
+        <f>C6/B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="S6" s="3" t="e">
+        <f>F6/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="4">
-        <f t="shared" si="3"/>
+      <c r="T6" s="4">
+        <f>F6-J6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O7" s="9"/>
       <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>B7/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>C7/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="e">
+        <f>C7/B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="S7" s="3" t="e">
+        <f>F7/E7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="T7" s="4">
+        <f>F7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="U8" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="A11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="16" t="e">
+      <c r="O11" s="16">
         <f>B11/10000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P11" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
         <f>C11/10000</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q11" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
         <f>D11/10000</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.5">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -7186,19 +8514,19 @@
       <c r="M12" s="14"/>
       <c r="N12" s="11"/>
       <c r="O12" s="16">
-        <f t="shared" ref="O12:O38" si="6">B12/10000</f>
+        <f t="shared" ref="O12:O38" si="2">B12/10000</f>
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" ref="P12:P38" si="7">C12/10000</f>
+        <f t="shared" ref="P12:P38" si="3">C12/10000</f>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" ref="Q12:Q38" si="8">D12/10000</f>
+        <f t="shared" ref="Q12:Q38" si="4">D12/10000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.5">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -7212,19 +8540,19 @@
       <c r="M13" s="14"/>
       <c r="N13" s="11"/>
       <c r="O13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.5">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -7238,19 +8566,19 @@
       <c r="M14" s="14"/>
       <c r="N14" s="11"/>
       <c r="O14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.5">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -7264,19 +8592,19 @@
       <c r="M15" s="14"/>
       <c r="N15"/>
       <c r="O15" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.5">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -7290,15 +8618,15 @@
       <c r="M16" s="14"/>
       <c r="N16"/>
       <c r="O16" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7316,15 +8644,15 @@
       <c r="M17" s="14"/>
       <c r="N17"/>
       <c r="O17" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7342,15 +8670,15 @@
       <c r="M18" s="14"/>
       <c r="N18"/>
       <c r="O18" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7368,15 +8696,15 @@
       <c r="M19" s="14"/>
       <c r="N19"/>
       <c r="O19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7394,15 +8722,15 @@
       <c r="M20" s="14"/>
       <c r="N20"/>
       <c r="O20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7420,15 +8748,15 @@
       <c r="M21" s="14"/>
       <c r="N21"/>
       <c r="O21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7446,15 +8774,15 @@
       <c r="M22" s="14"/>
       <c r="N22"/>
       <c r="O22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7472,15 +8800,15 @@
       <c r="M23" s="14"/>
       <c r="N23"/>
       <c r="O23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7498,15 +8826,15 @@
       <c r="M24" s="14"/>
       <c r="N24"/>
       <c r="O24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7524,15 +8852,15 @@
       <c r="M25" s="14"/>
       <c r="N25"/>
       <c r="O25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7550,15 +8878,15 @@
       <c r="M26" s="14"/>
       <c r="N26"/>
       <c r="O26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7576,15 +8904,15 @@
       <c r="M27" s="14"/>
       <c r="N27"/>
       <c r="O27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7602,15 +8930,15 @@
       <c r="M28" s="14"/>
       <c r="N28"/>
       <c r="O28" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7628,15 +8956,15 @@
       <c r="M29" s="14"/>
       <c r="N29"/>
       <c r="O29" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q29" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7654,15 +8982,15 @@
       <c r="M30" s="14"/>
       <c r="N30"/>
       <c r="O30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7680,15 +9008,15 @@
       <c r="M31" s="14"/>
       <c r="N31"/>
       <c r="O31" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7706,15 +9034,15 @@
       <c r="M32" s="14"/>
       <c r="N32"/>
       <c r="O32" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7732,15 +9060,15 @@
       <c r="M33" s="14"/>
       <c r="N33"/>
       <c r="O33" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7758,15 +9086,15 @@
       <c r="M34" s="14"/>
       <c r="N34"/>
       <c r="O34" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7784,15 +9112,15 @@
       <c r="M35" s="14"/>
       <c r="N35"/>
       <c r="O35" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P35" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7810,15 +9138,15 @@
       <c r="M36" s="14"/>
       <c r="N36"/>
       <c r="O36" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7836,15 +9164,15 @@
       <c r="M37" s="14"/>
       <c r="N37"/>
       <c r="O37" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P37" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7862,21 +9190,21 @@
       <c r="M38" s="14"/>
       <c r="N38"/>
       <c r="O38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P38" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="V3:AA3">
+  <conditionalFormatting sqref="W3:AB3">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7884,7 +9212,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:AA5">
+  <conditionalFormatting sqref="W5:AB5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9932A6-A065-44E7-99AF-0354B6D1BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0DBCB-6FF7-4B2B-B8E7-1ADC071C33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="-19980" windowWidth="35355" windowHeight="18840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37500" yWindow="-150" windowWidth="28500" windowHeight="16800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -44,15 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>月度</t>
   </si>
   <si>
     <t>計画売上</t>
-  </si>
-  <si>
-    <t>確定泊数</t>
   </si>
   <si>
     <t>計画稼働率</t>
@@ -244,6 +241,9 @@
   <si>
     <t>計画総室数</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2026-01-14</t>
   </si>
 </sst>
 </file>
@@ -786,13 +786,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -800,6 +817,24 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>108337216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113856360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104965195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112235948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121040957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136386196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -920,13 +955,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -934,6 +986,24 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>109397258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100183074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64568332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28646965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29456304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29615470</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1059,6 +1129,24 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>109711836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103521136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71395389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41839601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51165897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52225648</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1187,22 +1275,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0097846523949812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.87990757828548183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.61514039963437406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.25523876717288474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.24335815520691892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.21714418957766077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1647,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1664,13 +1752,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1678,6 +1783,24 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63347546191789983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65047565301515642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5439816500400495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56730624529721596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63114395980484961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73581640331075993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1803,13 +1926,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1817,6 +1957,24 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68464175236184266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62088842308932601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36914730940071361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19078254326561325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19536881963154445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19390519187358918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1877,13 +2035,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1891,6 +2066,24 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68434913468773517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62072718477910349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34657394596956237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19078254326561325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19536881963154445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19390519187358918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1990,13 +2183,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2005,13 +2215,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9261767410748707E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6123831022252233E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2573363431151239E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2172,13 +2382,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2187,22 +2414,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0807707535964102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95451446985189314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.67860250317917137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33629551031235494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.30954715892702628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.26352387769710606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,7 +2767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3285,6 +3512,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3292,7 +3520,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3410,7 +3637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3903,6 +4130,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3910,7 +4138,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4112,13 +4339,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4126,6 +4370,24 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63347546191789983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65047565301515642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5439816500400495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56730624529721596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63114395980484961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73581640331075993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4239,13 +4501,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4253,6 +4532,24 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68464175236184266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62088842308932601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36914730940071361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19078254326561325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19536881963154445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19390519187358918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4354,13 +4651,30 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>2026-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2026-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4368,6 +4682,24 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68648106345623272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64571912286359234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41145416150877451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27430398796087285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34457147018131506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35966892400300976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7682,12 +8014,12 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="28" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月13日</v>
+        <v>デイリーレポート - 26年01月15日</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -7698,32 +8030,32 @@
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46" s="17"/>
       <c r="C46" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="47" spans="2:8" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B47" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="23">
         <f>合計データ!W2</f>
@@ -7750,9 +8082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="20">
         <f>合計データ!W3</f>
@@ -7779,9 +8111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="23">
         <f>合計データ!W4</f>
@@ -7808,9 +8140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B50" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="20">
         <f>合計データ!W5</f>
@@ -7837,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B51" s="21"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -7846,7 +8178,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -7857,7 +8189,7 @@
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -7868,7 +8200,7 @@
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -7879,7 +8211,7 @@
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="27">
         <f>$A$52</f>
         <v>0</v>
@@ -7893,7 +8225,7 @@
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
@@ -7904,7 +8236,7 @@
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -7915,7 +8247,7 @@
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="27">
         <f>$A$52</f>
         <v>0</v>
@@ -7929,7 +8261,7 @@
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="27"/>
       <c r="B159" s="27"/>
       <c r="C159" s="27"/>
@@ -7940,7 +8272,7 @@
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="27"/>
       <c r="B160" s="27"/>
       <c r="C160" s="27"/>
@@ -7975,7 +8307,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.39370078740157483" header="0.78740157480314965" footer="0.78740157480314965"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.28999999999999998" bottom="0.39370078740157483" header="0.63" footer="0.28999999999999998"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -7997,36 +8329,34 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="A2" sqref="A2:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.26953125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="1"/>
-    <col min="21" max="21" width="9.08984375" style="1" customWidth="1"/>
-    <col min="22" max="27" width="9.90625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.109375" style="2" customWidth="1"/>
+    <col min="17" max="19" width="11.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" style="1"/>
+    <col min="21" max="21" width="9.109375" style="1" customWidth="1"/>
+    <col min="22" max="27" width="9.88671875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8034,117 +8364,143 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="O1" s="6"/>
       <c r="P1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="V1" s="17"/>
       <c r="W1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="18" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9">
+        <v>108337216</v>
+      </c>
+      <c r="C2" s="9">
+        <v>109397258</v>
+      </c>
+      <c r="D2" s="9">
+        <v>109711836</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.63347546191789983</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.68464175236184266</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.68648106345623272</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9">
+        <v>109476436</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.68434913468773517</v>
+      </c>
+      <c r="K2" s="9">
+        <v>16371</v>
+      </c>
+      <c r="L2" s="9">
+        <v>16378</v>
+      </c>
+      <c r="M2" s="9">
+        <v>16422</v>
+      </c>
+      <c r="N2" s="9">
+        <v>23922</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="7">
-        <f>B2/1000000</f>
-        <v>0</v>
+        <f t="shared" ref="P2:Q7" si="0">B2/1000000</f>
+        <v>108.337216</v>
       </c>
       <c r="Q2" s="7">
-        <f>C2/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="e">
-        <f>C2/B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S2" s="3" t="e">
-        <f>F2/E2</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>109.39725799999999</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" ref="R2:R7" si="1">C2/B2</f>
+        <v>1.0097846523949812</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S7" si="2">F2/E2</f>
+        <v>1.0807707535964102</v>
       </c>
       <c r="T2" s="4">
-        <f>F2-J2</f>
-        <v>0</v>
+        <f t="shared" ref="T2:T7" si="3">F2-J2</f>
+        <v>2.9261767410748707E-4</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W2" s="26"/>
       <c r="X2" s="26"/>
@@ -8153,108 +8509,164 @@
       <c r="AA2" s="26"/>
       <c r="AB2" s="26"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9">
+        <v>113856360</v>
+      </c>
+      <c r="C3" s="9">
+        <v>100183074</v>
+      </c>
+      <c r="D3" s="9">
+        <v>103521136</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.65047565301515642</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.62088842308932601</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.64571912286359234</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9">
+        <v>100177256</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.62072718477910349</v>
+      </c>
+      <c r="K3" s="9">
+        <v>15399</v>
+      </c>
+      <c r="L3" s="9">
+        <v>15403</v>
+      </c>
+      <c r="M3" s="9">
+        <v>16019</v>
+      </c>
+      <c r="N3" s="9">
+        <v>24808</v>
+      </c>
       <c r="O3" s="9"/>
       <c r="P3" s="7">
-        <f>B3/1000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>113.85636</v>
       </c>
       <c r="Q3" s="7">
-        <f>C3/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="e">
-        <f>C3/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="3" t="e">
-        <f>F3/E3</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>100.183074</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87990757828548183</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95451446985189314</v>
       </c>
       <c r="T3" s="4">
-        <f>F3-J3</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.6123831022252233E-4</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W3" s="20">
         <f>W2-W7</f>
         <v>0</v>
       </c>
       <c r="X3" s="20">
-        <f t="shared" ref="X3:AB3" si="0">X2-X7</f>
+        <f t="shared" ref="X3:AB3" si="4">X2-X7</f>
         <v>0</v>
       </c>
       <c r="Y3" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z3" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA3" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB3" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9">
+        <v>104965195</v>
+      </c>
+      <c r="C4" s="9">
+        <v>64568332</v>
+      </c>
+      <c r="D4" s="9">
+        <v>71395389</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.5439816500400495</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.36914730940071361</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.41145416150877451</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9">
+        <v>61919884</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.34657394596956237</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9519</v>
+      </c>
+      <c r="L4" s="9">
+        <v>10139</v>
+      </c>
+      <c r="M4" s="9">
+        <v>11301</v>
+      </c>
+      <c r="N4" s="9">
+        <v>27466</v>
+      </c>
       <c r="O4" s="9"/>
       <c r="P4" s="7">
-        <f>B4/1000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>104.96519499999999</v>
       </c>
       <c r="Q4" s="7">
-        <f>C4/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="3" t="e">
-        <f>C4/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3" t="e">
-        <f>F4/E4</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>64.568331999999998</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61514039963437406</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.67860250317917137</v>
       </c>
       <c r="T4" s="4">
-        <f>F4-J4</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.2573363431151239E-2</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W4" s="26"/>
       <c r="X4" s="26"/>
@@ -8263,145 +8675,229 @@
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9">
+        <v>112235948</v>
+      </c>
+      <c r="C5" s="9">
+        <v>28646965</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41839601</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.56730624529721596</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.19078254326561325</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.27430398796087285</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9">
+        <v>28646965</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.19078254326561325</v>
+      </c>
+      <c r="K5" s="9">
+        <v>5071</v>
+      </c>
+      <c r="L5" s="9">
+        <v>5071</v>
+      </c>
+      <c r="M5" s="9">
+        <v>7291</v>
+      </c>
+      <c r="N5" s="9">
+        <v>26580</v>
+      </c>
       <c r="O5" s="9"/>
       <c r="P5" s="7">
-        <f>B5/1000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>112.23594799999999</v>
       </c>
       <c r="Q5" s="7">
-        <f>C5/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="e">
-        <f>C5/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3" t="e">
-        <f>F5/E5</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>28.646965000000002</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25523876717288474</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.33629551031235494</v>
       </c>
       <c r="T5" s="4">
-        <f>F5-J5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" s="20">
-        <f t="shared" ref="W5:AB5" si="1">W4-W8</f>
+        <f t="shared" ref="W5:AB5" si="5">W4-W8</f>
         <v>0</v>
       </c>
       <c r="X5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9">
+        <v>121040957</v>
+      </c>
+      <c r="C6" s="9">
+        <v>29456304</v>
+      </c>
+      <c r="D6" s="9">
+        <v>51165897</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.63114395980484961</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.19536881963154445</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.34457147018131506</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9">
+        <v>29456304</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.19536881963154445</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5366</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5366</v>
+      </c>
+      <c r="M6" s="9">
+        <v>9464</v>
+      </c>
+      <c r="N6" s="9">
+        <v>27466</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="7">
-        <f>B6/1000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>121.04095700000001</v>
       </c>
       <c r="Q6" s="7">
-        <f>C6/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="3" t="e">
-        <f>C6/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3" t="e">
-        <f>F6/E6</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>29.456303999999999</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24335815520691892</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30954715892702628</v>
       </c>
       <c r="T6" s="4">
-        <f>F6-J6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9">
+        <v>136386196</v>
+      </c>
+      <c r="C7" s="9">
+        <v>29615470</v>
+      </c>
+      <c r="D7" s="9">
+        <v>52225648</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.73581640331075993</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.19390519187358918</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.35966892400300976</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9">
+        <v>29615470</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.19390519187358918</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5154</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5154</v>
+      </c>
+      <c r="M7" s="9">
+        <v>9560</v>
+      </c>
+      <c r="N7" s="9">
+        <v>26580</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="7">
-        <f>B7/1000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>136.38619600000001</v>
       </c>
       <c r="Q7" s="7">
-        <f>C7/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="e">
-        <f>C7/B7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="3" t="e">
-        <f>F7/E7</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>29.615469999999998</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21714418957766077</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26352387769710606</v>
       </c>
       <c r="T7" s="4">
-        <f>F7-J7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
@@ -8410,13 +8906,13 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="V8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
@@ -8425,54 +8921,54 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -8500,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -8514,19 +9010,19 @@
       <c r="M12" s="14"/>
       <c r="N12" s="11"/>
       <c r="O12" s="16">
-        <f t="shared" ref="O12:O38" si="2">B12/10000</f>
+        <f t="shared" ref="O12:O38" si="6">B12/10000</f>
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" ref="P12:P38" si="3">C12/10000</f>
+        <f t="shared" ref="P12:P38" si="7">C12/10000</f>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" ref="Q12:Q38" si="4">D12/10000</f>
+        <f t="shared" ref="Q12:Q38" si="8">D12/10000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -8540,19 +9036,19 @@
       <c r="M13" s="14"/>
       <c r="N13" s="11"/>
       <c r="O13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -8566,19 +9062,19 @@
       <c r="M14" s="14"/>
       <c r="N14" s="11"/>
       <c r="O14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -8592,19 +9088,19 @@
       <c r="M15" s="14"/>
       <c r="N15"/>
       <c r="O15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -8618,19 +9114,19 @@
       <c r="M16" s="14"/>
       <c r="N16"/>
       <c r="O16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -8644,19 +9140,19 @@
       <c r="M17" s="14"/>
       <c r="N17"/>
       <c r="O17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -8670,19 +9166,19 @@
       <c r="M18" s="14"/>
       <c r="N18"/>
       <c r="O18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -8696,19 +9192,19 @@
       <c r="M19" s="14"/>
       <c r="N19"/>
       <c r="O19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -8722,19 +9218,19 @@
       <c r="M20" s="14"/>
       <c r="N20"/>
       <c r="O20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -8748,19 +9244,19 @@
       <c r="M21" s="14"/>
       <c r="N21"/>
       <c r="O21" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P21" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -8774,19 +9270,19 @@
       <c r="M22" s="14"/>
       <c r="N22"/>
       <c r="O22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -8800,19 +9296,19 @@
       <c r="M23" s="14"/>
       <c r="N23"/>
       <c r="O23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -8826,19 +9322,19 @@
       <c r="M24" s="14"/>
       <c r="N24"/>
       <c r="O24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -8852,19 +9348,19 @@
       <c r="M25" s="14"/>
       <c r="N25"/>
       <c r="O25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -8878,19 +9374,19 @@
       <c r="M26" s="14"/>
       <c r="N26"/>
       <c r="O26" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -8904,19 +9400,19 @@
       <c r="M27" s="14"/>
       <c r="N27"/>
       <c r="O27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -8930,19 +9426,19 @@
       <c r="M28" s="14"/>
       <c r="N28"/>
       <c r="O28" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -8956,19 +9452,19 @@
       <c r="M29" s="14"/>
       <c r="N29"/>
       <c r="O29" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P29" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -8982,19 +9478,19 @@
       <c r="M30" s="14"/>
       <c r="N30"/>
       <c r="O30" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -9008,19 +9504,19 @@
       <c r="M31" s="14"/>
       <c r="N31"/>
       <c r="O31" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -9034,19 +9530,19 @@
       <c r="M32" s="14"/>
       <c r="N32"/>
       <c r="O32" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -9060,19 +9556,19 @@
       <c r="M33" s="14"/>
       <c r="N33"/>
       <c r="O33" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -9086,19 +9582,19 @@
       <c r="M34" s="14"/>
       <c r="N34"/>
       <c r="O34" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -9112,19 +9608,19 @@
       <c r="M35" s="14"/>
       <c r="N35"/>
       <c r="O35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -9138,19 +9634,19 @@
       <c r="M36" s="14"/>
       <c r="N36"/>
       <c r="O36" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -9164,19 +9660,19 @@
       <c r="M37" s="14"/>
       <c r="N37"/>
       <c r="O37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P37" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -9190,15 +9686,15 @@
       <c r="M38" s="14"/>
       <c r="N38"/>
       <c r="O38" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P38" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0DBCB-6FF7-4B2B-B8E7-1ADC071C33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECF93B-C232-4B14-8D08-D9B48245D542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37500" yWindow="-150" windowWidth="28500" windowHeight="16800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37965" yWindow="-1605" windowWidth="35715" windowHeight="13995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>月度</t>
   </si>
@@ -243,7 +243,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2026-01-14</t>
+    <t>売上+ 仮（百万）</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒャクマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -360,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -401,6 +411,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -410,7 +431,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -446,6 +467,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -706,11 +728,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$B$1</c:f>
+              <c:f>合計データ!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 計画売上 </c:v>
+                  <c:v> 計画売上（百万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -786,54 +808,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$B$2:$B$7</c:f>
+              <c:f>合計データ!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>108337216</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113856360</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104965195</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112235948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121040957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136386196</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,11 +854,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$C$1</c:f>
+              <c:f>合計データ!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上 </c:v>
+                  <c:v> 売上（百万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,54 +960,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$C$2:$C$7</c:f>
+              <c:f>合計データ!$P$2:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>109397258</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100183074</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64568332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28646965</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29456304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29615470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,11 +1006,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$D$1</c:f>
+              <c:f>合計データ!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上（仮予約含む） </c:v>
+                  <c:v> 売上+ 仮（百万） </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1125,27 +1113,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$D$2:$D$7</c:f>
+              <c:f>合計データ!$Q$2:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>109711836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103521136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71395389</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41839601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51165897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52225648</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,22 +1263,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0097846523949812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87990757828548183</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61514039963437406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25523876717288474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24335815520691892</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21714418957766077</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,38 +1395,6 @@
         <c:crossAx val="1127746191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="273861328"/>
@@ -1752,30 +1708,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1783,24 +1722,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.63347546191789983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65047565301515642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5439816500400495</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56730624529721596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63114395980484961</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73581640331075993</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1926,30 +1847,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1957,24 +1861,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.68464175236184266</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62088842308932601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36914730940071361</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19078254326561325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19536881963154445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19390519187358918</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2035,30 +1921,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2066,24 +1935,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.68434913468773517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62072718477910349</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34657394596956237</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19078254326561325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19536881963154445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19390519187358918</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2183,30 +2034,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2215,13 +2049,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.9261767410748707E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6123831022252233E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2573363431151239E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2382,30 +2216,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2414,22 +2231,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0807707535964102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95451446985189314</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67860250317917137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33629551031235494</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30954715892702628</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26352387769710606</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4339,30 +4156,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4370,24 +4170,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.63347546191789983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65047565301515642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5439816500400495</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56730624529721596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63114395980484961</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73581640331075993</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4501,30 +4283,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4532,24 +4297,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.68464175236184266</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62088842308932601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36914730940071361</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19078254326561325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19536881963154445</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19390519187358918</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4651,30 +4398,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2026-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2026-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2026-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2026-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2026-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026-06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4682,24 +4412,6 @@
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.68648106345623272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64571912286359234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41145416150877451</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27430398796087285</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34457147018131506</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35966892400300976</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8019,7 +7731,7 @@
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="28" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月15日</v>
+        <v>デイリーレポート - 26年01月16日</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -8329,7 +8041,7 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N7"/>
+      <selection activeCell="N7" sqref="A2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -8399,12 +8111,14 @@
       <c r="N1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="P1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>5</v>
@@ -8436,68 +8150,43 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9">
-        <v>108337216</v>
-      </c>
-      <c r="C2" s="9">
-        <v>109397258</v>
-      </c>
-      <c r="D2" s="9">
-        <v>109711836</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.63347546191789983</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.68464175236184266</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.68648106345623272</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="9">
-        <v>109476436</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.68434913468773517</v>
-      </c>
-      <c r="K2" s="9">
-        <v>16371</v>
-      </c>
-      <c r="L2" s="9">
-        <v>16378</v>
-      </c>
-      <c r="M2" s="9">
-        <v>16422</v>
-      </c>
-      <c r="N2" s="9">
-        <v>23922</v>
-      </c>
-      <c r="O2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7">
+        <f>B2/1000000</f>
+        <v>0</v>
+      </c>
       <c r="P2" s="7">
-        <f t="shared" ref="P2:Q7" si="0">B2/1000000</f>
-        <v>108.337216</v>
+        <f>C2/1000000</f>
+        <v>0</v>
       </c>
       <c r="Q2" s="7">
-        <f t="shared" si="0"/>
-        <v>109.39725799999999</v>
-      </c>
-      <c r="R2" s="3">
-        <f t="shared" ref="R2:R7" si="1">C2/B2</f>
-        <v>1.0097846523949812</v>
-      </c>
-      <c r="S2" s="3">
-        <f t="shared" ref="S2:S7" si="2">F2/E2</f>
-        <v>1.0807707535964102</v>
+        <f>D2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="e">
+        <f t="shared" ref="R2:R7" si="0">C2/B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S2" s="3" t="e">
+        <f t="shared" ref="S2:S7" si="1">F2/E2</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T7" si="3">F2-J2</f>
-        <v>2.9261767410748707E-4</v>
+        <f t="shared" ref="T2:T7" si="2">F2-J2</f>
+        <v>0</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>14</v>
@@ -8510,68 +8199,43 @@
       <c r="AB2" s="26"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="9">
-        <v>113856360</v>
-      </c>
-      <c r="C3" s="9">
-        <v>100183074</v>
-      </c>
-      <c r="D3" s="9">
-        <v>103521136</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.65047565301515642</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.62088842308932601</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.64571912286359234</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="9">
-        <v>100177256</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.62072718477910349</v>
-      </c>
-      <c r="K3" s="9">
-        <v>15399</v>
-      </c>
-      <c r="L3" s="9">
-        <v>15403</v>
-      </c>
-      <c r="M3" s="9">
-        <v>16019</v>
-      </c>
-      <c r="N3" s="9">
-        <v>24808</v>
-      </c>
-      <c r="O3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="7">
+        <f>B3/1000000</f>
+        <v>0</v>
+      </c>
       <c r="P3" s="7">
+        <f>C3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>D3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>113.85636</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" si="0"/>
-        <v>100.183074</v>
-      </c>
-      <c r="R3" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>0.87990757828548183</v>
-      </c>
-      <c r="S3" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" s="4">
         <f t="shared" si="2"/>
-        <v>0.95451446985189314</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="3"/>
-        <v>1.6123831022252233E-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="19" t="s">
         <v>31</v>
@@ -8581,89 +8245,64 @@
         <v>0</v>
       </c>
       <c r="X3" s="20">
-        <f t="shared" ref="X3:AB3" si="4">X2-X7</f>
+        <f t="shared" ref="X3:AB3" si="3">X2-X7</f>
         <v>0</v>
       </c>
       <c r="Y3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB3" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="9">
-        <v>104965195</v>
-      </c>
-      <c r="C4" s="9">
-        <v>64568332</v>
-      </c>
-      <c r="D4" s="9">
-        <v>71395389</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.5439816500400495</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.36914730940071361</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.41145416150877451</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9">
-        <v>61919884</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.34657394596956237</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9519</v>
-      </c>
-      <c r="L4" s="9">
-        <v>10139</v>
-      </c>
-      <c r="M4" s="9">
-        <v>11301</v>
-      </c>
-      <c r="N4" s="9">
-        <v>27466</v>
-      </c>
-      <c r="O4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7">
+        <f>B4/1000000</f>
+        <v>0</v>
+      </c>
       <c r="P4" s="7">
+        <f>C4/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>D4/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>104.96519499999999</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="0"/>
-        <v>64.568331999999998</v>
-      </c>
-      <c r="R4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>0.61514039963437406</v>
-      </c>
-      <c r="S4" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" s="4">
         <f t="shared" si="2"/>
-        <v>0.67860250317917137</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2573363431151239E-2</v>
+        <v>0</v>
       </c>
       <c r="V4" s="22" t="s">
         <v>15</v>
@@ -8676,224 +8315,149 @@
       <c r="AB4" s="26"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9">
-        <v>112235948</v>
-      </c>
-      <c r="C5" s="9">
-        <v>28646965</v>
-      </c>
-      <c r="D5" s="9">
-        <v>41839601</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.56730624529721596</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.19078254326561325</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.27430398796087285</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="9">
-        <v>28646965</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.19078254326561325</v>
-      </c>
-      <c r="K5" s="9">
-        <v>5071</v>
-      </c>
-      <c r="L5" s="9">
-        <v>5071</v>
-      </c>
-      <c r="M5" s="9">
-        <v>7291</v>
-      </c>
-      <c r="N5" s="9">
-        <v>26580</v>
-      </c>
-      <c r="O5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="7">
+        <f>B5/1000000</f>
+        <v>0</v>
+      </c>
       <c r="P5" s="7">
+        <f>C5/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>D5/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>112.23594799999999</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="0"/>
-        <v>28.646965000000002</v>
-      </c>
-      <c r="R5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>0.25523876717288474</v>
-      </c>
-      <c r="S5" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="2"/>
-        <v>0.33629551031235494</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W5" s="20">
-        <f t="shared" ref="W5:AB5" si="5">W4-W8</f>
+        <f t="shared" ref="W5:AB5" si="4">W4-W8</f>
         <v>0</v>
       </c>
       <c r="X5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB5" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9">
-        <v>121040957</v>
-      </c>
-      <c r="C6" s="9">
-        <v>29456304</v>
-      </c>
-      <c r="D6" s="9">
-        <v>51165897</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.63114395980484961</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.19536881963154445</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.34457147018131506</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="9">
-        <v>29456304</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.19536881963154445</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5366</v>
-      </c>
-      <c r="L6" s="9">
-        <v>5366</v>
-      </c>
-      <c r="M6" s="9">
-        <v>9464</v>
-      </c>
-      <c r="N6" s="9">
-        <v>27466</v>
-      </c>
-      <c r="O6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="7">
+        <f>B6/1000000</f>
+        <v>0</v>
+      </c>
       <c r="P6" s="7">
+        <f>C6/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>D6/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>121.04095700000001</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="0"/>
-        <v>29.456303999999999</v>
-      </c>
-      <c r="R6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>0.24335815520691892</v>
-      </c>
-      <c r="S6" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="2"/>
-        <v>0.30954715892702628</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="9">
-        <v>136386196</v>
-      </c>
-      <c r="C7" s="9">
-        <v>29615470</v>
-      </c>
-      <c r="D7" s="9">
-        <v>52225648</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.73581640331075993</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.19390519187358918</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.35966892400300976</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="9">
-        <v>29615470</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.19390519187358918</v>
-      </c>
-      <c r="K7" s="9">
-        <v>5154</v>
-      </c>
-      <c r="L7" s="9">
-        <v>5154</v>
-      </c>
-      <c r="M7" s="9">
-        <v>9560</v>
-      </c>
-      <c r="N7" s="9">
-        <v>26580</v>
-      </c>
-      <c r="O7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7">
+        <f>B7/1000000</f>
+        <v>0</v>
+      </c>
       <c r="P7" s="7">
+        <f>C7/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>D7/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>136.38619600000001</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="0"/>
-        <v>29.615469999999998</v>
-      </c>
-      <c r="R7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>0.21714418957766077</v>
-      </c>
-      <c r="S7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="2"/>
-        <v>0.26352387769710606</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -9010,15 +8574,15 @@
       <c r="M12" s="14"/>
       <c r="N12" s="11"/>
       <c r="O12" s="16">
-        <f t="shared" ref="O12:O38" si="6">B12/10000</f>
+        <f t="shared" ref="O12:O38" si="5">B12/10000</f>
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" ref="P12:P38" si="7">C12/10000</f>
+        <f t="shared" ref="P12:P38" si="6">C12/10000</f>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" ref="Q12:Q38" si="8">D12/10000</f>
+        <f t="shared" ref="Q12:Q38" si="7">D12/10000</f>
         <v>0</v>
       </c>
     </row>
@@ -9036,15 +8600,15 @@
       <c r="M13" s="14"/>
       <c r="N13" s="11"/>
       <c r="O13" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="Q13" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9062,15 +8626,15 @@
       <c r="M14" s="14"/>
       <c r="N14" s="11"/>
       <c r="O14" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="Q14" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9088,15 +8652,15 @@
       <c r="M15" s="14"/>
       <c r="N15"/>
       <c r="O15" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="Q15" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9114,15 +8678,15 @@
       <c r="M16" s="14"/>
       <c r="N16"/>
       <c r="O16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="Q16" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9140,15 +8704,15 @@
       <c r="M17" s="14"/>
       <c r="N17"/>
       <c r="O17" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="Q17" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9166,15 +8730,15 @@
       <c r="M18" s="14"/>
       <c r="N18"/>
       <c r="O18" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="Q18" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9192,15 +8756,15 @@
       <c r="M19" s="14"/>
       <c r="N19"/>
       <c r="O19" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="16">
+      <c r="Q19" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9218,15 +8782,15 @@
       <c r="M20" s="14"/>
       <c r="N20"/>
       <c r="O20" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="16">
+      <c r="Q20" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9244,15 +8808,15 @@
       <c r="M21" s="14"/>
       <c r="N21"/>
       <c r="O21" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="Q21" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9270,15 +8834,15 @@
       <c r="M22" s="14"/>
       <c r="N22"/>
       <c r="O22" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="16">
+      <c r="Q22" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9296,15 +8860,15 @@
       <c r="M23" s="14"/>
       <c r="N23"/>
       <c r="O23" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="16">
+      <c r="Q23" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9322,15 +8886,15 @@
       <c r="M24" s="14"/>
       <c r="N24"/>
       <c r="O24" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="16">
+      <c r="Q24" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9348,15 +8912,15 @@
       <c r="M25" s="14"/>
       <c r="N25"/>
       <c r="O25" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="16">
+      <c r="Q25" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9374,15 +8938,15 @@
       <c r="M26" s="14"/>
       <c r="N26"/>
       <c r="O26" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="16">
+      <c r="Q26" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9400,15 +8964,15 @@
       <c r="M27" s="14"/>
       <c r="N27"/>
       <c r="O27" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16">
+      <c r="Q27" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9426,15 +8990,15 @@
       <c r="M28" s="14"/>
       <c r="N28"/>
       <c r="O28" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="16">
+      <c r="Q28" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9452,15 +9016,15 @@
       <c r="M29" s="14"/>
       <c r="N29"/>
       <c r="O29" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="16">
+      <c r="Q29" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9478,15 +9042,15 @@
       <c r="M30" s="14"/>
       <c r="N30"/>
       <c r="O30" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="16">
+      <c r="Q30" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9504,15 +9068,15 @@
       <c r="M31" s="14"/>
       <c r="N31"/>
       <c r="O31" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="16">
+      <c r="Q31" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9530,15 +9094,15 @@
       <c r="M32" s="14"/>
       <c r="N32"/>
       <c r="O32" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="16">
+      <c r="Q32" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9556,15 +9120,15 @@
       <c r="M33" s="14"/>
       <c r="N33"/>
       <c r="O33" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="16">
+      <c r="Q33" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9582,15 +9146,15 @@
       <c r="M34" s="14"/>
       <c r="N34"/>
       <c r="O34" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P34" s="16">
+      <c r="Q34" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9608,15 +9172,15 @@
       <c r="M35" s="14"/>
       <c r="N35"/>
       <c r="O35" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P35" s="16">
+      <c r="Q35" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9634,15 +9198,15 @@
       <c r="M36" s="14"/>
       <c r="N36"/>
       <c r="O36" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P36" s="16">
+      <c r="Q36" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9660,15 +9224,15 @@
       <c r="M37" s="14"/>
       <c r="N37"/>
       <c r="O37" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P37" s="16">
+      <c r="Q37" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9686,15 +9250,15 @@
       <c r="M38" s="14"/>
       <c r="N38"/>
       <c r="O38" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P38" s="16">
+      <c r="Q38" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ECF93B-C232-4B14-8D08-D9B48245D542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A7C10C-FBB5-45FC-ACAB-0D96F241D0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37965" yWindow="-1605" windowWidth="35715" windowHeight="13995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37065" yWindow="-945" windowWidth="26790" windowHeight="14130" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -461,13 +461,15 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -2006,7 +2008,7 @@
                 <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2281,7 +2283,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2319,7 +2321,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3343,12 +3345,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3961,12 +3958,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4100,61 +4092,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>合計データ!$A$2:$A$7</c:f>
@@ -4225,7 +4162,6 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
                   <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -4328,6 +4264,7 @@
                   <a:tint val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4339,7 +4276,6 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
                   <a:alpha val="48000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -4355,7 +4291,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent2">
                         <a:lumMod val="60000"/>
@@ -4510,7 +4446,7 @@
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -7729,18 +7665,18 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="28" t="str">
+      <c r="A1" s="31" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月16日</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7795,30 +7731,30 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="29">
         <f>合計データ!W3</f>
         <v>0</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="29">
         <f>合計データ!X3</f>
         <v>0</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="29">
         <f>合計データ!Y3</f>
         <v>0</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="29">
         <f>合計データ!Z3</f>
         <v>0</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="29">
         <f>合計データ!AA3</f>
         <v>0</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="29">
         <f>合計データ!AB3</f>
         <v>0</v>
       </c>
@@ -7853,30 +7789,30 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="29">
         <f>合計データ!W5</f>
         <v>0</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="29">
         <f>合計データ!X5</f>
         <v>0</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="29">
         <f>合計データ!Y5</f>
         <v>0</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="29">
         <f>合計データ!Z5</f>
         <v>0</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="29">
         <f>合計データ!AA5</f>
         <v>0</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="29">
         <f>合計データ!AB5</f>
         <v>0</v>
       </c>
@@ -7891,109 +7827,109 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="27">
+      <c r="A105" s="30">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="27">
+      <c r="A158" s="30">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8041,7 +7977,7 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N7" sqref="A2:N7"/>
+      <selection activeCell="A2" sqref="A2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -8117,7 +8053,7 @@
       <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="27" t="s">
         <v>40</v>
       </c>
       <c r="R1" s="6" t="s">
@@ -8165,27 +8101,27 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7">
-        <f>B2/1000000</f>
+        <f t="shared" ref="O2:Q7" si="0">B2/1000000</f>
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <f>C2/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2" s="7">
-        <f>D2/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2" s="3" t="e">
-        <f t="shared" ref="R2:R7" si="0">C2/B2</f>
+        <f t="shared" ref="R2:R7" si="1">C2/B2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2" s="3" t="e">
-        <f t="shared" ref="S2:S7" si="1">F2/E2</f>
+        <f t="shared" ref="S2:S7" si="2">F2/E2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T7" si="2">F2-J2</f>
+        <f t="shared" ref="T2:T7" si="3">F2-J2</f>
         <v>0</v>
       </c>
       <c r="V2" s="22" t="s">
@@ -8214,27 +8150,27 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="7">
-        <f>B3/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="7">
-        <f>C3/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <f>D3/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S3" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T3" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V3" s="19" t="s">
@@ -8245,23 +8181,23 @@
         <v>0</v>
       </c>
       <c r="X3" s="20">
-        <f t="shared" ref="X3:AB3" si="3">X2-X7</f>
+        <f t="shared" ref="X3:AB3" si="4">X2-X7</f>
         <v>0</v>
       </c>
       <c r="Y3" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z3" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA3" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB3" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8281,27 +8217,27 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="7">
-        <f>B4/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <f>C4/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="7">
-        <f>D4/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S4" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="22" t="s">
@@ -8330,54 +8266,54 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="7">
-        <f>B5/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <f>C5/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <f>D5/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S5" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W5" s="20">
-        <f t="shared" ref="W5:AB5" si="4">W4-W8</f>
+        <f t="shared" ref="W5:AB5" si="5">W4-W8</f>
         <v>0</v>
       </c>
       <c r="X5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB5" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8397,27 +8333,27 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="7">
-        <f>B6/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <f>C6/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <f>D6/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S6" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8437,27 +8373,27 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="7">
-        <f>B7/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <f>C7/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <f>D7/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="S7" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -8574,15 +8510,15 @@
       <c r="M12" s="14"/>
       <c r="N12" s="11"/>
       <c r="O12" s="16">
-        <f t="shared" ref="O12:O38" si="5">B12/10000</f>
+        <f t="shared" ref="O12:O38" si="6">B12/10000</f>
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" ref="P12:P38" si="6">C12/10000</f>
+        <f t="shared" ref="P12:P38" si="7">C12/10000</f>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" ref="Q12:Q38" si="7">D12/10000</f>
+        <f t="shared" ref="Q12:Q38" si="8">D12/10000</f>
         <v>0</v>
       </c>
     </row>
@@ -8600,15 +8536,15 @@
       <c r="M13" s="14"/>
       <c r="N13" s="11"/>
       <c r="O13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8626,15 +8562,15 @@
       <c r="M14" s="14"/>
       <c r="N14" s="11"/>
       <c r="O14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8652,15 +8588,15 @@
       <c r="M15" s="14"/>
       <c r="N15"/>
       <c r="O15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8678,15 +8614,15 @@
       <c r="M16" s="14"/>
       <c r="N16"/>
       <c r="O16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8704,15 +8640,15 @@
       <c r="M17" s="14"/>
       <c r="N17"/>
       <c r="O17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8730,15 +8666,15 @@
       <c r="M18" s="14"/>
       <c r="N18"/>
       <c r="O18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8756,15 +8692,15 @@
       <c r="M19" s="14"/>
       <c r="N19"/>
       <c r="O19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8782,15 +8718,15 @@
       <c r="M20" s="14"/>
       <c r="N20"/>
       <c r="O20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8808,15 +8744,15 @@
       <c r="M21" s="14"/>
       <c r="N21"/>
       <c r="O21" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8834,15 +8770,15 @@
       <c r="M22" s="14"/>
       <c r="N22"/>
       <c r="O22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8860,15 +8796,15 @@
       <c r="M23" s="14"/>
       <c r="N23"/>
       <c r="O23" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8886,15 +8822,15 @@
       <c r="M24" s="14"/>
       <c r="N24"/>
       <c r="O24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,15 +8848,15 @@
       <c r="M25" s="14"/>
       <c r="N25"/>
       <c r="O25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8938,15 +8874,15 @@
       <c r="M26" s="14"/>
       <c r="N26"/>
       <c r="O26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8964,15 +8900,15 @@
       <c r="M27" s="14"/>
       <c r="N27"/>
       <c r="O27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8990,15 +8926,15 @@
       <c r="M28" s="14"/>
       <c r="N28"/>
       <c r="O28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9016,15 +8952,15 @@
       <c r="M29" s="14"/>
       <c r="N29"/>
       <c r="O29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P29" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q29" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9042,15 +8978,15 @@
       <c r="M30" s="14"/>
       <c r="N30"/>
       <c r="O30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9068,15 +9004,15 @@
       <c r="M31" s="14"/>
       <c r="N31"/>
       <c r="O31" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9094,15 +9030,15 @@
       <c r="M32" s="14"/>
       <c r="N32"/>
       <c r="O32" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9120,15 +9056,15 @@
       <c r="M33" s="14"/>
       <c r="N33"/>
       <c r="O33" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9146,15 +9082,15 @@
       <c r="M34" s="14"/>
       <c r="N34"/>
       <c r="O34" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9172,15 +9108,15 @@
       <c r="M35" s="14"/>
       <c r="N35"/>
       <c r="O35" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P35" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9198,15 +9134,15 @@
       <c r="M36" s="14"/>
       <c r="N36"/>
       <c r="O36" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9224,15 +9160,15 @@
       <c r="M37" s="14"/>
       <c r="N37"/>
       <c r="O37" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P37" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9250,15 +9186,15 @@
       <c r="M38" s="14"/>
       <c r="N38"/>
       <c r="O38" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFB270-3E24-441A-9A89-ABD3A8205DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D6566-73F3-48D1-A301-E60BF8CFB70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37980" yWindow="-3195" windowWidth="34455" windowHeight="14130" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37770" yWindow="-2745" windowWidth="18450" windowHeight="19470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -301,9 +301,9 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,6 +401,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -483,7 +490,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -516,11 +523,10 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -529,6 +535,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,6 +759,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38045937938715307"/>
+          <c:y val="3.0530176344822715E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2582,63 +2609,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>　　</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3430,63 +3401,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>　　</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4604,63 +4519,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>　　</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5452,63 +5311,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>　　</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6300,63 +6103,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>　　</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6896,63 +6643,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>　　</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -12542,15 +12233,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>62865</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>97154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12580,15 +12271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>59689</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>102869</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>99058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12656,15 +12347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59055</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12694,15 +12385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59055</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12729,278 +12420,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>118828</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>125730</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>669373</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>17145</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="図 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C31F6C-A9AA-1608-2CE0-BE5F6DD891DB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ!$A$9" spid="_x0000_s1135"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1738078" y="12336780"/>
-              <a:ext cx="3785235" cy="339090"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>115970</xdr:colOff>
-          <xdr:row>161</xdr:row>
-          <xdr:rowOff>64770</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>668420</xdr:colOff>
-          <xdr:row>162</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="図 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B68EC2-D82A-93BE-1B3A-6525373D592A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ2!$A$1" spid="_x0000_s1136"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1735220" y="23886795"/>
-              <a:ext cx="3787140" cy="344805"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>112160</xdr:colOff>
-          <xdr:row>267</xdr:row>
-          <xdr:rowOff>93345</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>664610</xdr:colOff>
-          <xdr:row>268</xdr:row>
-          <xdr:rowOff>207645</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="図 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B578BC-0D56-0466-175B-A4F90AA1A790}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ3!$A$1" spid="_x0000_s1137"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1731410" y="35526345"/>
-              <a:ext cx="3794760" cy="337185"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>115970</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>666515</xdr:colOff>
-          <xdr:row>109</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="図 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F07EFE0-18EB-821D-DDC7-9D905BF679A0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ!$H$9" spid="_x0000_s1138"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1735220" y="47015400"/>
-              <a:ext cx="3792855" cy="339090"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59055</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>88264</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13021,89 +12452,24 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>114065</xdr:colOff>
-          <xdr:row>213</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>666515</xdr:colOff>
-          <xdr:row>215</xdr:row>
-          <xdr:rowOff>55245</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="図 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B42E3F-A36B-BB01-F60E-8FDF86323933}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ2!$H$1" spid="_x0000_s1139"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1733315" y="58603515"/>
-              <a:ext cx="3794760" cy="329565"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>55245</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>721525</xdr:colOff>
-      <xdr:row>367</xdr:row>
-      <xdr:rowOff>125729</xdr:rowOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>131443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13124,77 +12490,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>115018</xdr:colOff>
-          <xdr:row>319</xdr:row>
-          <xdr:rowOff>217170</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>669373</xdr:colOff>
-          <xdr:row>321</xdr:row>
-          <xdr:rowOff>116205</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="21" name="図 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12068D11-8652-DEC9-D88E-3F0ACFD5B53A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="合計データ3!$H$1" spid="_x0000_s1140"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1734268" y="70264020"/>
-              <a:ext cx="3792855" cy="337185"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -13373,31 +12674,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="34" t="str">
+      <c r="A1" s="33" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月21日</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+        <v>デイリーレポート - 26年01月22日</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -13548,296 +12852,338 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
     </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="C56" s="39" t="str">
+        <f>合計データ!A9</f>
+        <v>売上　計画ｘ見込み（1900年1月）</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" s="32">
+        <f>$A$52</f>
+        <v>0</v>
+      </c>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+    </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="33">
-        <f>$A$52</f>
-        <v>0</v>
-      </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
+    <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="C108" s="39" t="str">
+        <f>合計データ!H9</f>
+        <v>稼働率　計画ｘ見込み（1900年1月）</v>
+      </c>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156" s="32">
+        <f>$A$52</f>
+        <v>0</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157" s="32"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="33">
+      <c r="A158" s="32"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+    </row>
+    <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="C160" s="39" t="str">
+        <f>合計データ2!A1</f>
+        <v>売上　計画ｘ見込み（1900年1月）</v>
+      </c>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39"/>
+    </row>
+    <row r="161" spans="3:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="36"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A208" s="32">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B158" s="33"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A209" s="32"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A210" s="32"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A211" s="33">
+    <row r="212" spans="1:9" s="37" customFormat="1" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="C212" s="40" t="str">
+        <f>合計データ2!H1</f>
+        <v>稼働率　計画ｘ見込み（1900年1月）</v>
+      </c>
+      <c r="D212" s="39"/>
+      <c r="E212" s="39"/>
+      <c r="F212" s="39"/>
+      <c r="G212" s="39"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A260" s="32">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="32"/>
+      <c r="H260" s="32"/>
+      <c r="I260" s="32"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A212" s="33"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A261" s="32"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="32"/>
+      <c r="I261" s="32"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A262" s="32"/>
+      <c r="B262" s="32"/>
+      <c r="C262" s="32"/>
+      <c r="D262" s="32"/>
+      <c r="E262" s="32"/>
+      <c r="F262" s="32"/>
+      <c r="G262" s="32"/>
+      <c r="H262" s="32"/>
+      <c r="I262" s="32"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A264" s="33">
+    <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="C264" s="39" t="str">
+        <f>合計データ3!A1</f>
+        <v>売上　計画ｘ見込み（1900年1月）</v>
+      </c>
+      <c r="D264" s="38"/>
+      <c r="E264" s="38"/>
+      <c r="F264" s="38"/>
+      <c r="G264" s="38"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A312" s="32">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="33"/>
-      <c r="H264" s="33"/>
-      <c r="I264" s="33"/>
+      <c r="B312" s="32"/>
+      <c r="C312" s="32"/>
+      <c r="D312" s="32"/>
+      <c r="E312" s="32"/>
+      <c r="F312" s="32"/>
+      <c r="G312" s="32"/>
+      <c r="H312" s="32"/>
+      <c r="I312" s="32"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A265" s="33"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="33"/>
-      <c r="I265" s="33"/>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A313" s="32"/>
+      <c r="B313" s="32"/>
+      <c r="C313" s="32"/>
+      <c r="D313" s="32"/>
+      <c r="E313" s="32"/>
+      <c r="F313" s="32"/>
+      <c r="G313" s="32"/>
+      <c r="H313" s="32"/>
+      <c r="I313" s="32"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A266" s="33"/>
-      <c r="B266" s="33"/>
-      <c r="C266" s="33"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="33"/>
-      <c r="G266" s="33"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A314" s="32"/>
+      <c r="B314" s="32"/>
+      <c r="C314" s="32"/>
+      <c r="D314" s="32"/>
+      <c r="E314" s="32"/>
+      <c r="F314" s="32"/>
+      <c r="G314" s="32"/>
+      <c r="H314" s="32"/>
+      <c r="I314" s="32"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A317" s="33">
+    <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C316" s="40" t="str">
+        <f>合計データ3!H1</f>
+        <v>稼働率　計画ｘ見込み（1900年1月）</v>
+      </c>
+      <c r="D316" s="38"/>
+      <c r="E316" s="38"/>
+      <c r="F316" s="38"/>
+      <c r="G316" s="38"/>
+    </row>
+    <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A365" s="32">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B317" s="33"/>
-      <c r="C317" s="33"/>
-      <c r="D317" s="33"/>
-      <c r="E317" s="33"/>
-      <c r="F317" s="33"/>
-      <c r="G317" s="33"/>
-      <c r="H317" s="33"/>
-      <c r="I317" s="33"/>
+      <c r="B365" s="32"/>
+      <c r="C365" s="32"/>
+      <c r="D365" s="32"/>
+      <c r="E365" s="32"/>
+      <c r="F365" s="32"/>
+      <c r="G365" s="32"/>
+      <c r="H365" s="32"/>
+      <c r="I365" s="32"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A318" s="33"/>
-      <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
-      <c r="D318" s="33"/>
-      <c r="E318" s="33"/>
-      <c r="F318" s="33"/>
-      <c r="G318" s="33"/>
-      <c r="H318" s="33"/>
-      <c r="I318" s="33"/>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A366" s="32"/>
+      <c r="B366" s="32"/>
+      <c r="C366" s="32"/>
+      <c r="D366" s="32"/>
+      <c r="E366" s="32"/>
+      <c r="F366" s="32"/>
+      <c r="G366" s="32"/>
+      <c r="H366" s="32"/>
+      <c r="I366" s="32"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A319" s="33"/>
-      <c r="B319" s="33"/>
-      <c r="C319" s="33"/>
-      <c r="D319" s="33"/>
-      <c r="E319" s="33"/>
-      <c r="F319" s="33"/>
-      <c r="G319" s="33"/>
-      <c r="H319" s="33"/>
-      <c r="I319" s="33"/>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A370" s="33">
-        <f>$A$52</f>
-        <v>0</v>
-      </c>
-      <c r="B370" s="33"/>
-      <c r="C370" s="33"/>
-      <c r="D370" s="33"/>
-      <c r="E370" s="33"/>
-      <c r="F370" s="33"/>
-      <c r="G370" s="33"/>
-      <c r="H370" s="33"/>
-      <c r="I370" s="33"/>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A371" s="33"/>
-      <c r="B371" s="33"/>
-      <c r="C371" s="33"/>
-      <c r="D371" s="33"/>
-      <c r="E371" s="33"/>
-      <c r="F371" s="33"/>
-      <c r="G371" s="33"/>
-      <c r="H371" s="33"/>
-      <c r="I371" s="33"/>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A372" s="33"/>
-      <c r="B372" s="33"/>
-      <c r="C372" s="33"/>
-      <c r="D372" s="33"/>
-      <c r="E372" s="33"/>
-      <c r="F372" s="33"/>
-      <c r="G372" s="33"/>
-      <c r="H372" s="33"/>
-      <c r="I372" s="33"/>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A367" s="32"/>
+      <c r="B367" s="32"/>
+      <c r="C367" s="32"/>
+      <c r="D367" s="32"/>
+      <c r="E367" s="32"/>
+      <c r="F367" s="32"/>
+      <c r="G367" s="32"/>
+      <c r="H367" s="32"/>
+      <c r="I367" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A264:I266"/>
-    <mergeCell ref="A370:I372"/>
-    <mergeCell ref="A158:I160"/>
+  <mergeCells count="14">
+    <mergeCell ref="A260:I262"/>
+    <mergeCell ref="A365:I367"/>
+    <mergeCell ref="A156:I158"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A52:I54"/>
-    <mergeCell ref="A105:I107"/>
-    <mergeCell ref="A211:I213"/>
-    <mergeCell ref="A317:I319"/>
+    <mergeCell ref="A104:I106"/>
+    <mergeCell ref="A208:I210"/>
+    <mergeCell ref="A312:I314"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="C264:G264"/>
+    <mergeCell ref="C316:G316"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C48:H48">
@@ -13857,17 +13203,20 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.28999999999999998" bottom="0.39370078740157483" header="0.63" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="6" manualBreakCount="6">
     <brk id="54" max="16383" man="1"/>
-    <brk id="107" max="16383" man="1"/>
+    <brk id="106" max="16383" man="1"/>
+    <brk id="158" max="16383" man="1"/>
+    <brk id="210" max="16383" man="1"/>
+    <brk id="262" max="16383" man="1"/>
+    <brk id="314" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13878,8 +13227,8 @@
   </sheetPr>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -13978,8 +13327,8 @@
       <c r="AB1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
@@ -14318,21 +13667,21 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A9" s="34" t="str">
+      <c r="A9" s="33" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="34" t="str">
+      <c r="H9" s="33" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -15148,7 +14497,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -15168,20 +14517,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="34" t="str">
+      <c r="A1" s="33" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="H1" s="36" t="str">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="H1" s="35" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
@@ -15238,7 +14587,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
@@ -15264,7 +14613,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="I4" s="30"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15"/>
       <c r="L4" s="14"/>
@@ -15290,7 +14639,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="14"/>
@@ -15316,7 +14665,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="14"/>
@@ -15342,7 +14691,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
@@ -15368,7 +14717,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
@@ -15394,7 +14743,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="14"/>
@@ -15420,7 +14769,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
@@ -15446,7 +14795,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14"/>
@@ -15472,7 +14821,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
       <c r="L12" s="14"/>
@@ -15498,7 +14847,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14"/>
@@ -15524,7 +14873,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
       <c r="L14" s="14"/>
@@ -15550,7 +14899,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
       <c r="L15" s="14"/>
@@ -15576,7 +14925,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
@@ -15602,7 +14951,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="14"/>
@@ -15628,7 +14977,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
       <c r="L18" s="14"/>
@@ -15654,7 +15003,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
@@ -15680,7 +15029,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
       <c r="L20" s="14"/>
@@ -15706,7 +15055,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
       <c r="L21" s="14"/>
@@ -15732,7 +15081,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
       <c r="L22" s="14"/>
@@ -15758,7 +15107,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
       <c r="L23" s="14"/>
@@ -15784,7 +15133,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="14"/>
@@ -15810,7 +15159,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
       <c r="L25" s="14"/>
@@ -15836,7 +15185,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
       <c r="L26" s="14"/>
@@ -15862,7 +15211,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
       <c r="L27" s="14"/>
@@ -15888,7 +15237,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="14"/>
@@ -15914,7 +15263,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
       <c r="L29" s="14"/>
@@ -15940,7 +15289,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>
       <c r="L30" s="14"/>
@@ -15983,7 +15332,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L30" sqref="A3:L30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -16003,20 +15352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="34" t="str">
+      <c r="A1" s="33" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="H1" s="36" t="str">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="H1" s="35" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
@@ -16066,14 +15415,14 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3"/>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
@@ -16094,12 +15443,12 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="11"/>
       <c r="F4" s="13"/>
-      <c r="I4" s="30"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15"/>
       <c r="L4" s="14"/>
@@ -16120,12 +15469,12 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="11"/>
       <c r="F5" s="13"/>
-      <c r="I5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="14"/>
@@ -16146,12 +15495,12 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
-      <c r="I6" s="30"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="14"/>
@@ -16172,12 +15521,12 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
@@ -16198,12 +15547,12 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
       <c r="F8" s="13"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
@@ -16224,12 +15573,12 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
       <c r="F9" s="13"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="14"/>
@@ -16250,12 +15599,12 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="13"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
@@ -16276,12 +15625,12 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
       <c r="F11" s="13"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14"/>
@@ -16302,12 +15651,12 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
       <c r="L12" s="14"/>
@@ -16328,12 +15677,12 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
       <c r="F13" s="13"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14"/>
@@ -16354,12 +15703,12 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="13"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
       <c r="L14" s="14"/>
@@ -16380,12 +15729,12 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
       <c r="F15" s="13"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
       <c r="L15" s="14"/>
@@ -16406,12 +15755,12 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="13"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="14"/>
@@ -16432,12 +15781,12 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="13"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="14"/>
@@ -16458,12 +15807,12 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="13"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
       <c r="L18" s="14"/>
@@ -16484,12 +15833,12 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="30"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="13"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="14"/>
@@ -16510,12 +15859,12 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="13"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
       <c r="L20" s="14"/>
@@ -16536,12 +15885,12 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
       <c r="L21" s="14"/>
@@ -16562,12 +15911,12 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
       <c r="F22" s="13"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
       <c r="L22" s="14"/>
@@ -16588,12 +15937,12 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
       <c r="F23" s="13"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
       <c r="L23" s="14"/>
@@ -16614,12 +15963,12 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="13"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="14"/>
@@ -16640,12 +15989,12 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
       <c r="L25" s="14"/>
@@ -16666,12 +16015,12 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="13"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
       <c r="L26" s="14"/>
@@ -16692,12 +16041,12 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
       <c r="F27" s="13"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
       <c r="L27" s="14"/>
@@ -16718,12 +16067,12 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
       <c r="F28" s="13"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="14"/>
@@ -16744,12 +16093,12 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="13"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
       <c r="L29" s="14"/>
@@ -16770,12 +16119,12 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
       <c r="F30" s="13"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>
       <c r="L30" s="14"/>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D6566-73F3-48D1-A301-E60BF8CFB70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFE1F4-A6CD-4085-B2D9-163EECF8C726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37770" yWindow="-2745" windowWidth="18450" windowHeight="19470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37740" yWindow="-2310" windowWidth="15705" windowHeight="19035" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">合計データ2!$A$2:$N$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">合計データ3!$A$2:$N$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">合計データ2!$A$1:$N$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">合計データ3!$A$1:$N$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
     <definedName name="稼働率" localSheetId="2">OFFSET(合計データ2!#REF!, 0, 0, COUNTA(合計データ2!$I$3:$I$991), 1)</definedName>
     <definedName name="稼働率" localSheetId="3">OFFSET(合計データ3!#REF!, 0, 0, COUNTA(合計データ3!$I$3:$I$992), 1)</definedName>
@@ -298,12 +298,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -403,13 +404,50 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Noto Sans JP"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +466,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -481,6 +555,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -490,13 +726,12 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,7 +741,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,30 +760,130 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -557,7 +891,37 @@
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -597,6 +961,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -12690,483 +13064,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月22日</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="21">
         <f>合計データ!W2</f>
         <v>0</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="21">
         <f>合計データ!X2</f>
         <v>0</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <f>合計データ!Y2</f>
         <v>0</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="21">
         <f>合計データ!Z2</f>
         <v>0</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="21">
         <f>合計データ!AA2</f>
         <v>0</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="21">
         <f>合計データ!AB2</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="27">
         <f>合計データ!W3</f>
         <v>0</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>合計データ!X3</f>
         <v>0</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="27">
         <f>合計データ!Y3</f>
         <v>0</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="27">
         <f>合計データ!Z3</f>
         <v>0</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="27">
         <f>合計データ!AA3</f>
         <v>0</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="27">
         <f>合計データ!AB3</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="21">
         <f>合計データ!W4</f>
         <v>0</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="21">
         <f>合計データ!X4</f>
         <v>0</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="21">
         <f>合計データ!Y4</f>
         <v>0</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="21">
         <f>合計データ!Z4</f>
         <v>0</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="21">
         <f>合計データ!AA4</f>
         <v>0</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="21">
         <f>合計データ!AB4</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="27">
         <f>合計データ!W5</f>
         <v>0</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="27">
         <f>合計データ!X5</f>
         <v>0</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="27">
         <f>合計データ!Y5</f>
         <v>0</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="27">
         <f>合計データ!Z5</f>
         <v>0</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="27">
         <f>合計データ!AA5</f>
         <v>0</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="27">
         <f>合計データ!AB5</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B51" s="21"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="39" t="str">
+      <c r="C56" s="106" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="32">
+      <c r="A104" s="103">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
+      <c r="B104" s="103"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="103"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
+      <c r="A105" s="103"/>
+      <c r="B105" s="103"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="103"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
+      <c r="A106" s="103"/>
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="39" t="str">
+      <c r="C108" s="106" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="107"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="107"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="32">
+      <c r="A156" s="103">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="32"/>
+      <c r="B156" s="103"/>
+      <c r="C156" s="103"/>
+      <c r="D156" s="103"/>
+      <c r="E156" s="103"/>
+      <c r="F156" s="103"/>
+      <c r="G156" s="103"/>
+      <c r="H156" s="103"/>
+      <c r="I156" s="103"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="32"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="32"/>
-      <c r="I157" s="32"/>
+      <c r="A157" s="103"/>
+      <c r="B157" s="103"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="103"/>
+      <c r="F157" s="103"/>
+      <c r="G157" s="103"/>
+      <c r="H157" s="103"/>
+      <c r="I157" s="103"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="32"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
+      <c r="A158" s="103"/>
+      <c r="B158" s="103"/>
+      <c r="C158" s="103"/>
+      <c r="D158" s="103"/>
+      <c r="E158" s="103"/>
+      <c r="F158" s="103"/>
+      <c r="G158" s="103"/>
+      <c r="H158" s="103"/>
+      <c r="I158" s="103"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="39" t="str">
+      <c r="C160" s="106" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
+      <c r="D160" s="106"/>
+      <c r="E160" s="106"/>
+      <c r="F160" s="106"/>
+      <c r="G160" s="106"/>
     </row>
-    <row r="161" spans="3:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="36"/>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="32">
+      <c r="A208" s="103">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="32"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="32"/>
+      <c r="B208" s="103"/>
+      <c r="C208" s="103"/>
+      <c r="D208" s="103"/>
+      <c r="E208" s="103"/>
+      <c r="F208" s="103"/>
+      <c r="G208" s="103"/>
+      <c r="H208" s="103"/>
+      <c r="I208" s="103"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="32"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="32"/>
-      <c r="D209" s="32"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="32"/>
-      <c r="H209" s="32"/>
-      <c r="I209" s="32"/>
+      <c r="A209" s="103"/>
+      <c r="B209" s="103"/>
+      <c r="C209" s="103"/>
+      <c r="D209" s="103"/>
+      <c r="E209" s="103"/>
+      <c r="F209" s="103"/>
+      <c r="G209" s="103"/>
+      <c r="H209" s="103"/>
+      <c r="I209" s="103"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="32"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="32"/>
-      <c r="D210" s="32"/>
-      <c r="E210" s="32"/>
-      <c r="F210" s="32"/>
-      <c r="G210" s="32"/>
-      <c r="H210" s="32"/>
-      <c r="I210" s="32"/>
+      <c r="A210" s="103"/>
+      <c r="B210" s="103"/>
+      <c r="C210" s="103"/>
+      <c r="D210" s="103"/>
+      <c r="E210" s="103"/>
+      <c r="F210" s="103"/>
+      <c r="G210" s="103"/>
+      <c r="H210" s="103"/>
+      <c r="I210" s="103"/>
     </row>
-    <row r="212" spans="1:9" s="37" customFormat="1" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="40" t="str">
+    <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="C212" s="105" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-      <c r="F212" s="39"/>
-      <c r="G212" s="39"/>
+      <c r="D212" s="106"/>
+      <c r="E212" s="106"/>
+      <c r="F212" s="106"/>
+      <c r="G212" s="106"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="32">
+      <c r="A260" s="103">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="32"/>
-      <c r="C260" s="32"/>
-      <c r="D260" s="32"/>
-      <c r="E260" s="32"/>
-      <c r="F260" s="32"/>
-      <c r="G260" s="32"/>
-      <c r="H260" s="32"/>
-      <c r="I260" s="32"/>
+      <c r="B260" s="103"/>
+      <c r="C260" s="103"/>
+      <c r="D260" s="103"/>
+      <c r="E260" s="103"/>
+      <c r="F260" s="103"/>
+      <c r="G260" s="103"/>
+      <c r="H260" s="103"/>
+      <c r="I260" s="103"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="32"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="32"/>
-      <c r="D261" s="32"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="32"/>
-      <c r="G261" s="32"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="32"/>
+      <c r="A261" s="103"/>
+      <c r="B261" s="103"/>
+      <c r="C261" s="103"/>
+      <c r="D261" s="103"/>
+      <c r="E261" s="103"/>
+      <c r="F261" s="103"/>
+      <c r="G261" s="103"/>
+      <c r="H261" s="103"/>
+      <c r="I261" s="103"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="32"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="32"/>
-      <c r="D262" s="32"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="32"/>
-      <c r="G262" s="32"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="32"/>
+      <c r="A262" s="103"/>
+      <c r="B262" s="103"/>
+      <c r="C262" s="103"/>
+      <c r="D262" s="103"/>
+      <c r="E262" s="103"/>
+      <c r="F262" s="103"/>
+      <c r="G262" s="103"/>
+      <c r="H262" s="103"/>
+      <c r="I262" s="103"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="39" t="str">
+      <c r="C264" s="106" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="38"/>
-      <c r="E264" s="38"/>
-      <c r="F264" s="38"/>
-      <c r="G264" s="38"/>
+      <c r="D264" s="107"/>
+      <c r="E264" s="107"/>
+      <c r="F264" s="107"/>
+      <c r="G264" s="107"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="32">
+      <c r="A312" s="103">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="32"/>
-      <c r="C312" s="32"/>
-      <c r="D312" s="32"/>
-      <c r="E312" s="32"/>
-      <c r="F312" s="32"/>
-      <c r="G312" s="32"/>
-      <c r="H312" s="32"/>
-      <c r="I312" s="32"/>
+      <c r="B312" s="103"/>
+      <c r="C312" s="103"/>
+      <c r="D312" s="103"/>
+      <c r="E312" s="103"/>
+      <c r="F312" s="103"/>
+      <c r="G312" s="103"/>
+      <c r="H312" s="103"/>
+      <c r="I312" s="103"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="32"/>
-      <c r="B313" s="32"/>
-      <c r="C313" s="32"/>
-      <c r="D313" s="32"/>
-      <c r="E313" s="32"/>
-      <c r="F313" s="32"/>
-      <c r="G313" s="32"/>
-      <c r="H313" s="32"/>
-      <c r="I313" s="32"/>
+      <c r="A313" s="103"/>
+      <c r="B313" s="103"/>
+      <c r="C313" s="103"/>
+      <c r="D313" s="103"/>
+      <c r="E313" s="103"/>
+      <c r="F313" s="103"/>
+      <c r="G313" s="103"/>
+      <c r="H313" s="103"/>
+      <c r="I313" s="103"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="32"/>
-      <c r="B314" s="32"/>
-      <c r="C314" s="32"/>
-      <c r="D314" s="32"/>
-      <c r="E314" s="32"/>
-      <c r="F314" s="32"/>
-      <c r="G314" s="32"/>
-      <c r="H314" s="32"/>
-      <c r="I314" s="32"/>
+      <c r="A314" s="103"/>
+      <c r="B314" s="103"/>
+      <c r="C314" s="103"/>
+      <c r="D314" s="103"/>
+      <c r="E314" s="103"/>
+      <c r="F314" s="103"/>
+      <c r="G314" s="103"/>
+      <c r="H314" s="103"/>
+      <c r="I314" s="103"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="40" t="str">
+      <c r="C316" s="105" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="38"/>
-      <c r="E316" s="38"/>
-      <c r="F316" s="38"/>
-      <c r="G316" s="38"/>
+      <c r="D316" s="107"/>
+      <c r="E316" s="107"/>
+      <c r="F316" s="107"/>
+      <c r="G316" s="107"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="32">
+      <c r="A365" s="103">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="32"/>
-      <c r="C365" s="32"/>
-      <c r="D365" s="32"/>
-      <c r="E365" s="32"/>
-      <c r="F365" s="32"/>
-      <c r="G365" s="32"/>
-      <c r="H365" s="32"/>
-      <c r="I365" s="32"/>
+      <c r="B365" s="103"/>
+      <c r="C365" s="103"/>
+      <c r="D365" s="103"/>
+      <c r="E365" s="103"/>
+      <c r="F365" s="103"/>
+      <c r="G365" s="103"/>
+      <c r="H365" s="103"/>
+      <c r="I365" s="103"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="32"/>
-      <c r="B366" s="32"/>
-      <c r="C366" s="32"/>
-      <c r="D366" s="32"/>
-      <c r="E366" s="32"/>
-      <c r="F366" s="32"/>
-      <c r="G366" s="32"/>
-      <c r="H366" s="32"/>
-      <c r="I366" s="32"/>
+      <c r="A366" s="103"/>
+      <c r="B366" s="103"/>
+      <c r="C366" s="103"/>
+      <c r="D366" s="103"/>
+      <c r="E366" s="103"/>
+      <c r="F366" s="103"/>
+      <c r="G366" s="103"/>
+      <c r="H366" s="103"/>
+      <c r="I366" s="103"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="32"/>
-      <c r="B367" s="32"/>
-      <c r="C367" s="32"/>
-      <c r="D367" s="32"/>
-      <c r="E367" s="32"/>
-      <c r="F367" s="32"/>
-      <c r="G367" s="32"/>
-      <c r="H367" s="32"/>
-      <c r="I367" s="32"/>
+      <c r="A367" s="103"/>
+      <c r="B367" s="103"/>
+      <c r="C367" s="103"/>
+      <c r="D367" s="103"/>
+      <c r="E367" s="103"/>
+      <c r="F367" s="103"/>
+      <c r="G367" s="103"/>
+      <c r="H367" s="103"/>
+      <c r="I367" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -13187,18 +13561,18 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C48:H48">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:H51">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13225,10 +13599,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -13238,7 +13612,9 @@
     <col min="5" max="7" width="13.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16" width="13.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="13.77734375" style="2" customWidth="1"/>
     <col min="17" max="20" width="13.77734375" style="1" customWidth="1"/>
     <col min="21" max="21" width="9.109375" style="1" customWidth="1"/>
     <col min="22" max="27" width="9.88671875" style="1" customWidth="1"/>
@@ -13248,112 +13624,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="15"/>
+      <c r="W1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6">
         <f t="shared" ref="O2:Q7" si="0">B2/1000000</f>
         <v>0</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13369,40 +13745,40 @@
         <f t="shared" ref="T2:T7" si="3">F2-J2</f>
         <v>0</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13418,58 +13794,58 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="18">
         <f t="shared" ref="W3:AB3" si="4">W2-W7</f>
         <v>0</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13485,40 +13861,40 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13534,58 +13910,58 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="18">
         <f t="shared" ref="W5:AB5" si="5">W4-W8</f>
         <v>0</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13603,29 +13979,29 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13644,12 +14020,12 @@
       <c r="V7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="H8" s="1"/>
@@ -13659,804 +14035,856 @@
       <c r="V8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A9" s="33" t="str">
+    <row r="9" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="108" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="33" t="str">
+      <c r="H9" s="108" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:31" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F10"/>
-      <c r="H10" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="91" t="s">
         <v>14</v>
       </c>
       <c r="M10"/>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A11"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="16">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="14">
         <f>C11/10000</f>
         <v>0</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="14">
         <f>D11/10000</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="14">
         <f>E11/10000</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B12" s="31"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="16">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="14">
         <f t="shared" ref="O12:O38" si="6">C12/10000</f>
         <v>0</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <f t="shared" ref="P12:P38" si="7">D12/10000</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="14">
         <f t="shared" ref="Q12:Q38" si="8">E12/10000</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B13" s="31"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="16">
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="11"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B14" s="31"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="16">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="11"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B15" s="31"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="11"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="13"/>
       <c r="N15"/>
-      <c r="O15" s="16">
+      <c r="O15" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B16" s="31"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="11"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="13"/>
       <c r="N16"/>
-      <c r="O16" s="16">
+      <c r="O16" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="11"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="13"/>
       <c r="N17"/>
-      <c r="O17" s="16">
+      <c r="O17" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B18" s="31"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="13"/>
       <c r="N18"/>
-      <c r="O18" s="16">
+      <c r="O18" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B19" s="31"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="11"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="13"/>
       <c r="N19"/>
-      <c r="O19" s="16">
+      <c r="O19" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B20" s="31"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="11"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="13"/>
       <c r="N20"/>
-      <c r="O20" s="16">
+      <c r="O20" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B21" s="31"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="11"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="13"/>
       <c r="N21"/>
-      <c r="O21" s="16">
+      <c r="O21" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B22" s="31"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="11"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="13"/>
       <c r="N22"/>
-      <c r="O22" s="16">
+      <c r="O22" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23" s="38"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="11"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="13"/>
       <c r="N23"/>
-      <c r="O23" s="16">
+      <c r="O23" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B24" s="31"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="11"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="13"/>
       <c r="N24"/>
-      <c r="O24" s="16">
+      <c r="O24" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="11"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="13"/>
       <c r="N25"/>
-      <c r="O25" s="16">
+      <c r="O25" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="13"/>
       <c r="N26"/>
-      <c r="O26" s="16">
+      <c r="O26" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B27" s="31"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27" s="38"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="11"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="13"/>
       <c r="N27"/>
-      <c r="O27" s="16">
+      <c r="O27" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B28" s="31"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="13"/>
       <c r="N28"/>
-      <c r="O28" s="16">
+      <c r="O28" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" s="38"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="11"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="13"/>
       <c r="N29"/>
-      <c r="O29" s="16">
+      <c r="O29" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B30" s="31"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="11"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="13"/>
       <c r="N30"/>
-      <c r="O30" s="16">
+      <c r="O30" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B31" s="31"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="13"/>
       <c r="N31"/>
-      <c r="O31" s="16">
+      <c r="O31" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B32" s="31"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="13"/>
       <c r="N32"/>
-      <c r="O32" s="16">
+      <c r="O32" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B33" s="31"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33" s="38"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="11"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="13"/>
       <c r="N33"/>
-      <c r="O33" s="16">
+      <c r="O33" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B34" s="31"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="11"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="13"/>
       <c r="N34"/>
-      <c r="O34" s="16">
+      <c r="O34" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B35" s="31"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" s="38"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="11"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="13"/>
       <c r="N35"/>
-      <c r="O35" s="16">
+      <c r="O35" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B36" s="31"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="11"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="13"/>
       <c r="N36"/>
-      <c r="O36" s="16">
+      <c r="O36" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B37" s="31"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A37" s="38"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="11"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="13"/>
       <c r="N37"/>
-      <c r="O37" s="16">
+      <c r="O37" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q37" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B38" s="31"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="11"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="13"/>
       <c r="N38"/>
-      <c r="O38" s="16">
+      <c r="O38" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="83"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="95"/>
+    </row>
+    <row r="40" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="36"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="84"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14464,19 +14892,29 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E11:E40">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$E11&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L40">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>$L11&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W3:AB3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:AB5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14494,10 +14932,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -14506,7 +14944,8 @@
     <col min="3" max="5" width="13.77734375" style="2" customWidth="1"/>
     <col min="6" max="8" width="13.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
     <col min="12" max="18" width="13.77734375" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.109375" style="1" customWidth="1"/>
@@ -14516,798 +14955,877 @@
     <col min="29" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="str">
+    <row r="1" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="108" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="H1" s="35" t="str">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="H1" s="110" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F2"/>
-      <c r="H2" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="M2"/>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="16">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14">
         <f>C3/10000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <f>D3/10000</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <f>E3/10000</f>
         <v>0</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="31"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="16">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="14">
         <f t="shared" ref="O4:O30" si="0">C4/10000</f>
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <f t="shared" ref="P4:P30" si="1">D4/10000</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q30" si="2">E4/10000</f>
         <v>0</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="16">
+      <c r="A5" s="59"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="16">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="31"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="13"/>
       <c r="N7"/>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="31"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="13"/>
       <c r="N8"/>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="31"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="13"/>
       <c r="N9"/>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="31"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="13"/>
       <c r="N10"/>
-      <c r="O10" s="16">
+      <c r="O10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="13"/>
       <c r="N11"/>
-      <c r="O11" s="16">
+      <c r="O11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="31"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="13"/>
       <c r="N12"/>
-      <c r="O12" s="16">
+      <c r="O12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="31"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="12"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="13"/>
       <c r="N13"/>
-      <c r="O13" s="16">
+      <c r="O13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="31"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="13"/>
       <c r="N14"/>
-      <c r="O14" s="16">
+      <c r="O14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="31"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="13"/>
       <c r="N15"/>
-      <c r="O15" s="16">
+      <c r="O15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="31"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="12"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="13"/>
       <c r="N16"/>
-      <c r="O16" s="16">
+      <c r="O16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="59"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="13"/>
       <c r="N17"/>
-      <c r="O17" s="16">
+      <c r="O17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="31"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="13"/>
       <c r="N18"/>
-      <c r="O18" s="16">
+      <c r="O18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="31"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="59"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="13"/>
       <c r="N19"/>
-      <c r="O19" s="16">
+      <c r="O19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="31"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="12"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="13"/>
       <c r="N20"/>
-      <c r="O20" s="16">
+      <c r="O20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="31"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="59"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="12"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="13"/>
       <c r="N21"/>
-      <c r="O21" s="16">
+      <c r="O21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B22" s="31"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="13"/>
       <c r="N22"/>
-      <c r="O22" s="16">
+      <c r="O22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="59"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="12"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="13"/>
       <c r="N23"/>
-      <c r="O23" s="16">
+      <c r="O23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="31"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="13"/>
       <c r="N24"/>
-      <c r="O24" s="16">
+      <c r="O24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="13"/>
       <c r="N25"/>
-      <c r="O25" s="16">
+      <c r="O25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="13"/>
       <c r="N26"/>
-      <c r="O26" s="16">
+      <c r="O26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B27" s="31"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="59"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="13"/>
       <c r="N27"/>
-      <c r="O27" s="16">
+      <c r="O27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B28" s="31"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="13"/>
       <c r="N28"/>
-      <c r="O28" s="16">
+      <c r="O28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="59"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="12"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="13"/>
       <c r="N29"/>
-      <c r="O29" s="16">
+      <c r="O29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B30" s="31"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="12"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="13"/>
       <c r="N30"/>
-      <c r="O30" s="16">
+      <c r="O30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="62"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="72"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="41"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15315,6 +15833,16 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E3:E32">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$E3&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L32">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$L3&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -15329,10 +15857,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -15341,7 +15869,8 @@
     <col min="3" max="5" width="13.77734375" style="2" customWidth="1"/>
     <col min="6" max="8" width="13.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
     <col min="12" max="18" width="13.77734375" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.109375" style="1" customWidth="1"/>
@@ -15351,798 +15880,877 @@
     <col min="29" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="str">
+    <row r="1" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="108" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="H1" s="35" t="str">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="H1" s="110" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F2"/>
-      <c r="H2" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="M2"/>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="16">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14">
         <f>C3/10000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <f>D3/10000</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <f>E3/10000</f>
         <v>0</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="31"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="16">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="14">
         <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="16">
+      <c r="A5" s="59"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="16">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="31"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="13"/>
       <c r="N7"/>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="31"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="13"/>
       <c r="N8"/>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="31"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="13"/>
       <c r="N9"/>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="31"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="13"/>
       <c r="N10"/>
-      <c r="O10" s="16">
+      <c r="O10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="13"/>
       <c r="N11"/>
-      <c r="O11" s="16">
+      <c r="O11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="31"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="13"/>
       <c r="N12"/>
-      <c r="O12" s="16">
+      <c r="O12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="31"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="12"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="13"/>
       <c r="N13"/>
-      <c r="O13" s="16">
+      <c r="O13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="31"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="13"/>
       <c r="N14"/>
-      <c r="O14" s="16">
+      <c r="O14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="31"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="13"/>
       <c r="N15"/>
-      <c r="O15" s="16">
+      <c r="O15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="31"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="12"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="13"/>
       <c r="N16"/>
-      <c r="O16" s="16">
+      <c r="O16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="59"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="13"/>
       <c r="N17"/>
-      <c r="O17" s="16">
+      <c r="O17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="31"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="13"/>
       <c r="N18"/>
-      <c r="O18" s="16">
+      <c r="O18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="31"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="59"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="13"/>
       <c r="N19"/>
-      <c r="O19" s="16">
+      <c r="O19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="31"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="12"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="13"/>
       <c r="N20"/>
-      <c r="O20" s="16">
+      <c r="O20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="31"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" s="59"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="12"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="13"/>
       <c r="N21"/>
-      <c r="O21" s="16">
+      <c r="O21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B22" s="31"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="13"/>
       <c r="N22"/>
-      <c r="O22" s="16">
+      <c r="O22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="59"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="12"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="13"/>
       <c r="N23"/>
-      <c r="O23" s="16">
+      <c r="O23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="31"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="13"/>
       <c r="N24"/>
-      <c r="O24" s="16">
+      <c r="O24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="59"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="13"/>
       <c r="N25"/>
-      <c r="O25" s="16">
+      <c r="O25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="13"/>
       <c r="N26"/>
-      <c r="O26" s="16">
+      <c r="O26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B27" s="31"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="59"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="13"/>
       <c r="N27"/>
-      <c r="O27" s="16">
+      <c r="O27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B28" s="31"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="13"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="13"/>
       <c r="N28"/>
-      <c r="O28" s="16">
+      <c r="O28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="13"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="59"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="12"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="13"/>
       <c r="N29"/>
-      <c r="O29" s="16">
+      <c r="O29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="16">
+      <c r="Q29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B30" s="31"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="13"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="12"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="13"/>
       <c r="N30"/>
-      <c r="O30" s="16">
+      <c r="O30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="62"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="72"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="41"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16150,6 +16758,16 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E3:E32">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$E3&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L32">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$L3&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8815EA-743A-486D-B881-873E295C97FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7857F651-FE75-40E8-AA10-C7BF94F6BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30975" yWindow="-2910" windowWidth="30135" windowHeight="18180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29520" yWindow="-1155" windowWidth="27060" windowHeight="17895" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -912,24 +912,6 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -949,6 +931,24 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -956,9 +956,11 @@
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="185" formatCode=";;;"/>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -972,43 +974,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1069,69 +1046,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3162,29 +3076,131 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$L$10</c:f>
+              <c:f>合計データ!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>稼働率差異</c:v>
+                  <c:v>仮予約含む稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$M$11:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC86-4A4F-B0E5-AC5AD29C0BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見込み稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3192,7 +3208,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3209,7 +3224,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent2">
                         <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -3259,7 +3274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$L$11:$L$40</c:f>
+              <c:f>合計データ!$K$11:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3268,13 +3283,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-06C6-4747-ABF6-1DFCE5A33B68}"/>
+              <c16:uniqueId val="{00000001-06C6-4747-ABF6-1DFCE5A33B68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>合計データ!$J$10</c:f>
@@ -3385,31 +3400,29 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$K$10</c:f>
+              <c:f>合計データ!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率</c:v>
+                  <c:v>稼働率差異</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3417,6 +3430,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3433,7 +3447,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent5">
                         <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -3483,7 +3497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$K$11:$K$40</c:f>
+              <c:f>合計データ!$L$11:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3492,107 +3506,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06C6-4747-ABF6-1DFCE5A33B68}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>合計データ!$M$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>合計データ!$M$11:$M$40</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="30"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC86-4A4F-B0E5-AC5AD29C0BBA}"/>
+              <c16:uniqueId val="{00000002-06C6-4747-ABF6-1DFCE5A33B68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3616,7 +3530,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4380,29 +4294,215 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ2!$Q$2</c:f>
+              <c:f>合計データ2!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上差異 </c:v>
+                  <c:v> 見込売上+仮（万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0;\-0;;@" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ2!$R$3:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D80A-41D0-8771-E1D77BE60CE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ2!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 見込み売上（万円) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4410,7 +4510,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4427,8 +4526,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4477,7 +4576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ2!$Q$3:$Q$32</c:f>
+              <c:f>合計データ2!$P$3:$P$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4570,13 +4669,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B79-422F-A835-EFDE6C98623B}"/>
+              <c16:uniqueId val="{00000001-7B79-422F-A835-EFDE6C98623B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>合計データ2!$O$2</c:f>
@@ -4771,31 +4870,29 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ2!$P$2</c:f>
+              <c:f>合計データ2!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 見込み売上（万円) </c:v>
+                  <c:v> 売上差異 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4803,6 +4900,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4819,8 +4917,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="50000"/>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4869,7 +4967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ2!$P$3:$P$32</c:f>
+              <c:f>合計データ2!$Q$3:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4962,191 +5060,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B79-422F-A835-EFDE6C98623B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>合計データ2!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> 見込売上+仮（万円) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0;\-0;;@" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>合計データ2!$R$3:$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D80A-41D0-8771-E1D77BE60CE4}"/>
+              <c16:uniqueId val="{00000002-7B79-422F-A835-EFDE6C98623B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5356,29 +5270,215 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ3!$Q$2</c:f>
+              <c:f>合計データ3!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上差異 </c:v>
+                  <c:v> 見込売上+仮（万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0;\-0;;@" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ3!$R$3:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-967F-4C36-94ED-F51257B8463B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ3!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 見込み売上（万円) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5386,7 +5486,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5403,8 +5502,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5453,7 +5552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ3!$Q$3:$Q$32</c:f>
+              <c:f>合計データ3!$P$3:$P$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5546,13 +5645,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5067-4E5A-B734-EF64D4C89D25}"/>
+              <c16:uniqueId val="{00000001-5067-4E5A-B734-EF64D4C89D25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>合計データ3!$O$2</c:f>
@@ -5747,31 +5846,29 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ3!$P$2</c:f>
+              <c:f>合計データ3!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 見込み売上（万円) </c:v>
+                  <c:v> 売上差異 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5779,6 +5876,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5795,8 +5893,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="50000"/>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -5845,7 +5943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ3!$P$3:$P$32</c:f>
+              <c:f>合計データ3!$Q$3:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5938,191 +6036,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5067-4E5A-B734-EF64D4C89D25}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>合計データ3!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> 見込売上+仮（万円) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0;\-0;;@" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>合計データ3!$R$3:$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-967F-4C36-94ED-F51257B8463B}"/>
+              <c16:uniqueId val="{00000002-5067-4E5A-B734-EF64D4C89D25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6332,29 +6246,131 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ2!$L$2</c:f>
+              <c:f>合計データ2!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>稼働率差異</c:v>
+                  <c:v>仮予約含む稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ2!$M$3:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB69-4EF8-AE20-C3E087A4F36A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ2!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見込み稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6362,7 +6378,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6379,7 +6394,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent2">
                         <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -6429,7 +6444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ2!$L$3:$L$32</c:f>
+              <c:f>合計データ2!$K$3:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6438,13 +6453,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D5C7-4447-9AAA-F162B564D047}"/>
+              <c16:uniqueId val="{00000001-D5C7-4447-9AAA-F162B564D047}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>合計データ2!$J$2</c:f>
@@ -6555,31 +6570,29 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ2!$K$2</c:f>
+              <c:f>合計データ2!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率</c:v>
+                  <c:v>稼働率差異</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6587,6 +6600,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6603,7 +6617,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent5">
                         <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -6653,7 +6667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ2!$K$3:$K$32</c:f>
+              <c:f>合計データ2!$L$3:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6662,107 +6676,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D5C7-4447-9AAA-F162B564D047}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>合計データ2!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>合計データ2!$M$3:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="30"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB69-4EF8-AE20-C3E087A4F36A}"/>
+              <c16:uniqueId val="{00000002-D5C7-4447-9AAA-F162B564D047}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6786,7 +6700,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6972,29 +6886,131 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ3!$L$2</c:f>
+              <c:f>合計データ3!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>稼働率差異</c:v>
+                  <c:v>仮予約含む稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ3!$M$3:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCCA-4FA1-ACF6-B4FB909E608A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ3!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見込み稼働率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7002,7 +7018,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7019,7 +7034,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
+                      <a:schemeClr val="accent2">
                         <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -7069,7 +7084,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ3!$L$3:$L$32</c:f>
+              <c:f>合計データ3!$K$3:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -7078,13 +7093,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A40C-45E6-905B-406A55C19CFC}"/>
+              <c16:uniqueId val="{00000001-A40C-45E6-905B-406A55C19CFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>合計データ3!$J$2</c:f>
@@ -7195,31 +7210,29 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ3!$K$2</c:f>
+              <c:f>合計データ3!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率</c:v>
+                  <c:v>稼働率差異</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7227,6 +7240,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7243,7 +7257,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
+                      <a:schemeClr val="accent5">
                         <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -7293,7 +7307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ3!$K$3:$K$32</c:f>
+              <c:f>合計データ3!$L$3:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
@@ -7302,107 +7316,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A40C-45E6-905B-406A55C19CFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>合計データ3!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>合計データ3!$M$3:$M$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="30"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DCCA-4FA1-ACF6-B4FB909E608A}"/>
+              <c16:uniqueId val="{00000002-A40C-45E6-905B-406A55C19CFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7426,7 +7340,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -7612,37 +7526,35 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$Q$10</c:f>
+              <c:f>合計データ!$R$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上差異 </c:v>
+                  <c:v> 見込売上+仮（万円) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent6">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0;\-0;;@" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7657,10 +7569,197 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="75000"/>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>合計データ!$R$11:$R$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F40D-4436-979C-AA99765C1078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>合計データ!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 見込み売上（万円) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -7709,7 +7808,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$Q$11:$Q$40</c:f>
+              <c:f>合計データ!$P$11:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -7802,13 +7901,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F40D-4436-979C-AA99765C1078}"/>
+              <c16:uniqueId val="{00000001-F40D-4436-979C-AA99765C1078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>合計データ!$O$10</c:f>
@@ -8003,31 +8102,29 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>合計データ!$P$10</c:f>
+              <c:f>合計データ!$Q$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 見込み売上（万円) </c:v>
+                  <c:v> 売上差異 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8035,6 +8132,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\);&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -8049,10 +8147,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="50000"/>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -8101,7 +8199,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合計データ!$P$11:$P$40</c:f>
+              <c:f>合計データ!$Q$11:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
@@ -8194,191 +8292,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F40D-4436-979C-AA99765C1078}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>合計データ!$R$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> 見込売上+仮（万円) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="0;\-0;;@" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>合計データ!$R$11:$R$40</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F40D-4436-979C-AA99765C1078}"/>
+              <c16:uniqueId val="{00000000-F40D-4436-979C-AA99765C1078}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14087,18 +14001,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="96" t="str">
+      <c r="A1" s="109" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月26日</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14249,139 +14163,139 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="95"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="95"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="95"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="94" t="str">
+      <c r="C56" s="112" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="95">
+      <c r="A104" s="110">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="95"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="95"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="95"/>
-      <c r="G104" s="95"/>
-      <c r="H104" s="95"/>
-      <c r="I104" s="95"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="110"/>
+      <c r="G104" s="110"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="95"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="95"/>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="95"/>
-      <c r="H105" s="95"/>
-      <c r="I105" s="95"/>
+      <c r="A105" s="110"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="110"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="95"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="95"/>
-      <c r="I106" s="95"/>
+      <c r="A106" s="110"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="110"/>
+      <c r="G106" s="110"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="110"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="94" t="str">
+      <c r="C108" s="112" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="98"/>
-      <c r="E108" s="98"/>
-      <c r="F108" s="98"/>
-      <c r="G108" s="98"/>
+      <c r="D108" s="113"/>
+      <c r="E108" s="113"/>
+      <c r="F108" s="113"/>
+      <c r="G108" s="113"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="95">
+      <c r="A156" s="110">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="95"/>
-      <c r="C156" s="95"/>
-      <c r="D156" s="95"/>
-      <c r="E156" s="95"/>
-      <c r="F156" s="95"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="95"/>
-      <c r="I156" s="95"/>
+      <c r="B156" s="110"/>
+      <c r="C156" s="110"/>
+      <c r="D156" s="110"/>
+      <c r="E156" s="110"/>
+      <c r="F156" s="110"/>
+      <c r="G156" s="110"/>
+      <c r="H156" s="110"/>
+      <c r="I156" s="110"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="95"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="95"/>
-      <c r="D157" s="95"/>
-      <c r="E157" s="95"/>
-      <c r="F157" s="95"/>
-      <c r="G157" s="95"/>
-      <c r="H157" s="95"/>
-      <c r="I157" s="95"/>
+      <c r="A157" s="110"/>
+      <c r="B157" s="110"/>
+      <c r="C157" s="110"/>
+      <c r="D157" s="110"/>
+      <c r="E157" s="110"/>
+      <c r="F157" s="110"/>
+      <c r="G157" s="110"/>
+      <c r="H157" s="110"/>
+      <c r="I157" s="110"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="95"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="95"/>
-      <c r="D158" s="95"/>
-      <c r="E158" s="95"/>
-      <c r="F158" s="95"/>
-      <c r="G158" s="95"/>
-      <c r="H158" s="95"/>
-      <c r="I158" s="95"/>
+      <c r="A158" s="110"/>
+      <c r="B158" s="110"/>
+      <c r="C158" s="110"/>
+      <c r="D158" s="110"/>
+      <c r="E158" s="110"/>
+      <c r="F158" s="110"/>
+      <c r="G158" s="110"/>
+      <c r="H158" s="110"/>
+      <c r="I158" s="110"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="94" t="str">
+      <c r="C160" s="112" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="94"/>
-      <c r="E160" s="94"/>
-      <c r="F160" s="94"/>
-      <c r="G160" s="94"/>
+      <c r="D160" s="112"/>
+      <c r="E160" s="112"/>
+      <c r="F160" s="112"/>
+      <c r="G160" s="112"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="27"/>
@@ -14391,182 +14305,185 @@
       <c r="G161" s="27"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="95">
+      <c r="A208" s="110">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="95"/>
-      <c r="C208" s="95"/>
-      <c r="D208" s="95"/>
-      <c r="E208" s="95"/>
-      <c r="F208" s="95"/>
-      <c r="G208" s="95"/>
-      <c r="H208" s="95"/>
-      <c r="I208" s="95"/>
+      <c r="B208" s="110"/>
+      <c r="C208" s="110"/>
+      <c r="D208" s="110"/>
+      <c r="E208" s="110"/>
+      <c r="F208" s="110"/>
+      <c r="G208" s="110"/>
+      <c r="H208" s="110"/>
+      <c r="I208" s="110"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="95"/>
-      <c r="B209" s="95"/>
-      <c r="C209" s="95"/>
-      <c r="D209" s="95"/>
-      <c r="E209" s="95"/>
-      <c r="F209" s="95"/>
-      <c r="G209" s="95"/>
-      <c r="H209" s="95"/>
-      <c r="I209" s="95"/>
+      <c r="A209" s="110"/>
+      <c r="B209" s="110"/>
+      <c r="C209" s="110"/>
+      <c r="D209" s="110"/>
+      <c r="E209" s="110"/>
+      <c r="F209" s="110"/>
+      <c r="G209" s="110"/>
+      <c r="H209" s="110"/>
+      <c r="I209" s="110"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="95"/>
-      <c r="B210" s="95"/>
-      <c r="C210" s="95"/>
-      <c r="D210" s="95"/>
-      <c r="E210" s="95"/>
-      <c r="F210" s="95"/>
-      <c r="G210" s="95"/>
-      <c r="H210" s="95"/>
-      <c r="I210" s="95"/>
+      <c r="A210" s="110"/>
+      <c r="B210" s="110"/>
+      <c r="C210" s="110"/>
+      <c r="D210" s="110"/>
+      <c r="E210" s="110"/>
+      <c r="F210" s="110"/>
+      <c r="G210" s="110"/>
+      <c r="H210" s="110"/>
+      <c r="I210" s="110"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="97" t="str">
+      <c r="C212" s="111" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="94"/>
-      <c r="E212" s="94"/>
-      <c r="F212" s="94"/>
-      <c r="G212" s="94"/>
+      <c r="D212" s="112"/>
+      <c r="E212" s="112"/>
+      <c r="F212" s="112"/>
+      <c r="G212" s="112"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="95">
+      <c r="A260" s="110">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="95"/>
-      <c r="C260" s="95"/>
-      <c r="D260" s="95"/>
-      <c r="E260" s="95"/>
-      <c r="F260" s="95"/>
-      <c r="G260" s="95"/>
-      <c r="H260" s="95"/>
-      <c r="I260" s="95"/>
+      <c r="B260" s="110"/>
+      <c r="C260" s="110"/>
+      <c r="D260" s="110"/>
+      <c r="E260" s="110"/>
+      <c r="F260" s="110"/>
+      <c r="G260" s="110"/>
+      <c r="H260" s="110"/>
+      <c r="I260" s="110"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="95"/>
-      <c r="B261" s="95"/>
-      <c r="C261" s="95"/>
-      <c r="D261" s="95"/>
-      <c r="E261" s="95"/>
-      <c r="F261" s="95"/>
-      <c r="G261" s="95"/>
-      <c r="H261" s="95"/>
-      <c r="I261" s="95"/>
+      <c r="A261" s="110"/>
+      <c r="B261" s="110"/>
+      <c r="C261" s="110"/>
+      <c r="D261" s="110"/>
+      <c r="E261" s="110"/>
+      <c r="F261" s="110"/>
+      <c r="G261" s="110"/>
+      <c r="H261" s="110"/>
+      <c r="I261" s="110"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="95"/>
-      <c r="B262" s="95"/>
-      <c r="C262" s="95"/>
-      <c r="D262" s="95"/>
-      <c r="E262" s="95"/>
-      <c r="F262" s="95"/>
-      <c r="G262" s="95"/>
-      <c r="H262" s="95"/>
-      <c r="I262" s="95"/>
+      <c r="A262" s="110"/>
+      <c r="B262" s="110"/>
+      <c r="C262" s="110"/>
+      <c r="D262" s="110"/>
+      <c r="E262" s="110"/>
+      <c r="F262" s="110"/>
+      <c r="G262" s="110"/>
+      <c r="H262" s="110"/>
+      <c r="I262" s="110"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="94" t="str">
+      <c r="C264" s="112" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="98"/>
-      <c r="E264" s="98"/>
-      <c r="F264" s="98"/>
-      <c r="G264" s="98"/>
+      <c r="D264" s="113"/>
+      <c r="E264" s="113"/>
+      <c r="F264" s="113"/>
+      <c r="G264" s="113"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="95">
+      <c r="A312" s="110">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="95"/>
-      <c r="C312" s="95"/>
-      <c r="D312" s="95"/>
-      <c r="E312" s="95"/>
-      <c r="F312" s="95"/>
-      <c r="G312" s="95"/>
-      <c r="H312" s="95"/>
-      <c r="I312" s="95"/>
+      <c r="B312" s="110"/>
+      <c r="C312" s="110"/>
+      <c r="D312" s="110"/>
+      <c r="E312" s="110"/>
+      <c r="F312" s="110"/>
+      <c r="G312" s="110"/>
+      <c r="H312" s="110"/>
+      <c r="I312" s="110"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="95"/>
-      <c r="B313" s="95"/>
-      <c r="C313" s="95"/>
-      <c r="D313" s="95"/>
-      <c r="E313" s="95"/>
-      <c r="F313" s="95"/>
-      <c r="G313" s="95"/>
-      <c r="H313" s="95"/>
-      <c r="I313" s="95"/>
+      <c r="A313" s="110"/>
+      <c r="B313" s="110"/>
+      <c r="C313" s="110"/>
+      <c r="D313" s="110"/>
+      <c r="E313" s="110"/>
+      <c r="F313" s="110"/>
+      <c r="G313" s="110"/>
+      <c r="H313" s="110"/>
+      <c r="I313" s="110"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="95"/>
-      <c r="B314" s="95"/>
-      <c r="C314" s="95"/>
-      <c r="D314" s="95"/>
-      <c r="E314" s="95"/>
-      <c r="F314" s="95"/>
-      <c r="G314" s="95"/>
-      <c r="H314" s="95"/>
-      <c r="I314" s="95"/>
+      <c r="A314" s="110"/>
+      <c r="B314" s="110"/>
+      <c r="C314" s="110"/>
+      <c r="D314" s="110"/>
+      <c r="E314" s="110"/>
+      <c r="F314" s="110"/>
+      <c r="G314" s="110"/>
+      <c r="H314" s="110"/>
+      <c r="I314" s="110"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="97" t="str">
+      <c r="C316" s="111" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="98"/>
-      <c r="E316" s="98"/>
-      <c r="F316" s="98"/>
-      <c r="G316" s="98"/>
+      <c r="D316" s="113"/>
+      <c r="E316" s="113"/>
+      <c r="F316" s="113"/>
+      <c r="G316" s="113"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="95">
+      <c r="A365" s="110">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="95"/>
-      <c r="C365" s="95"/>
-      <c r="D365" s="95"/>
-      <c r="E365" s="95"/>
-      <c r="F365" s="95"/>
-      <c r="G365" s="95"/>
-      <c r="H365" s="95"/>
-      <c r="I365" s="95"/>
+      <c r="B365" s="110"/>
+      <c r="C365" s="110"/>
+      <c r="D365" s="110"/>
+      <c r="E365" s="110"/>
+      <c r="F365" s="110"/>
+      <c r="G365" s="110"/>
+      <c r="H365" s="110"/>
+      <c r="I365" s="110"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="95"/>
-      <c r="B366" s="95"/>
-      <c r="C366" s="95"/>
-      <c r="D366" s="95"/>
-      <c r="E366" s="95"/>
-      <c r="F366" s="95"/>
-      <c r="G366" s="95"/>
-      <c r="H366" s="95"/>
-      <c r="I366" s="95"/>
+      <c r="A366" s="110"/>
+      <c r="B366" s="110"/>
+      <c r="C366" s="110"/>
+      <c r="D366" s="110"/>
+      <c r="E366" s="110"/>
+      <c r="F366" s="110"/>
+      <c r="G366" s="110"/>
+      <c r="H366" s="110"/>
+      <c r="I366" s="110"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="95"/>
-      <c r="B367" s="95"/>
-      <c r="C367" s="95"/>
-      <c r="D367" s="95"/>
-      <c r="E367" s="95"/>
-      <c r="F367" s="95"/>
-      <c r="G367" s="95"/>
-      <c r="H367" s="95"/>
-      <c r="I367" s="95"/>
+      <c r="A367" s="110"/>
+      <c r="B367" s="110"/>
+      <c r="C367" s="110"/>
+      <c r="D367" s="110"/>
+      <c r="E367" s="110"/>
+      <c r="F367" s="110"/>
+      <c r="G367" s="110"/>
+      <c r="H367" s="110"/>
+      <c r="I367" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A365:I367"/>
+    <mergeCell ref="A156:I158"/>
+    <mergeCell ref="C316:G316"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A52:I54"/>
     <mergeCell ref="A208:I210"/>
@@ -14578,24 +14495,21 @@
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="A104:I106"/>
     <mergeCell ref="A260:I262"/>
-    <mergeCell ref="A365:I367"/>
-    <mergeCell ref="A156:I158"/>
-    <mergeCell ref="C316:G316"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C48:H48">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:H51">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15064,21 +14978,21 @@
       <c r="AB8" s="12"/>
     </row>
     <row r="9" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="99" t="str">
+      <c r="A9" s="114" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="99" t="str">
+      <c r="H9" s="114" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -15098,7 +15012,7 @@
       <c r="E10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="101" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="41"/>
@@ -15117,7 +15031,7 @@
       <c r="L10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="116" t="s">
+      <c r="M10" s="108" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -15139,14 +15053,14 @@
       <c r="C11" s="85"/>
       <c r="D11" s="86"/>
       <c r="E11" s="87"/>
-      <c r="F11" s="110"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="11"/>
       <c r="H11" s="56"/>
       <c r="I11" s="49"/>
       <c r="J11" s="57"/>
       <c r="K11" s="80"/>
       <c r="L11" s="75"/>
-      <c r="M11" s="113"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="11"/>
       <c r="O11" s="13">
         <f>C11/10000</f>
@@ -15171,13 +15085,13 @@
       <c r="C12" s="88"/>
       <c r="D12" s="89"/>
       <c r="E12" s="90"/>
-      <c r="F12" s="107"/>
+      <c r="F12" s="99"/>
       <c r="H12" s="50"/>
       <c r="I12" s="51"/>
       <c r="J12" s="59"/>
       <c r="K12" s="81"/>
       <c r="L12" s="76"/>
-      <c r="M12" s="112"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="10"/>
       <c r="O12" s="13">
         <f t="shared" ref="O12:O38" si="6">C12/10000</f>
@@ -15192,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="13" t="str">
-        <f t="shared" ref="R12:S38" si="9">IF(OR(F12="",F12=0),"",(D12+F12)/10000)</f>
+        <f t="shared" ref="R12:R38" si="9">IF(OR(F12="",F12=0),"",(D12+F12)/10000)</f>
         <v/>
       </c>
     </row>
@@ -15202,13 +15116,13 @@
       <c r="C13" s="91"/>
       <c r="D13" s="92"/>
       <c r="E13" s="87"/>
-      <c r="F13" s="110"/>
+      <c r="F13" s="102"/>
       <c r="H13" s="52"/>
       <c r="I13" s="49"/>
       <c r="J13" s="61"/>
       <c r="K13" s="82"/>
       <c r="L13" s="77"/>
-      <c r="M13" s="114"/>
+      <c r="M13" s="106"/>
       <c r="N13" s="10"/>
       <c r="O13" s="13">
         <f t="shared" si="6"/>
@@ -15233,13 +15147,13 @@
       <c r="C14" s="88"/>
       <c r="D14" s="89"/>
       <c r="E14" s="90"/>
-      <c r="F14" s="107"/>
+      <c r="F14" s="99"/>
       <c r="H14" s="50"/>
       <c r="I14" s="51"/>
       <c r="J14" s="59"/>
       <c r="K14" s="81"/>
       <c r="L14" s="76"/>
-      <c r="M14" s="112"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="10"/>
       <c r="O14" s="13">
         <f t="shared" si="6"/>
@@ -15264,13 +15178,13 @@
       <c r="C15" s="91"/>
       <c r="D15" s="92"/>
       <c r="E15" s="87"/>
-      <c r="F15" s="110"/>
+      <c r="F15" s="102"/>
       <c r="H15" s="52"/>
       <c r="I15" s="49"/>
       <c r="J15" s="61"/>
       <c r="K15" s="82"/>
       <c r="L15" s="77"/>
-      <c r="M15" s="114"/>
+      <c r="M15" s="106"/>
       <c r="N15"/>
       <c r="O15" s="13">
         <f t="shared" si="6"/>
@@ -15295,13 +15209,13 @@
       <c r="C16" s="88"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
-      <c r="F16" s="107"/>
+      <c r="F16" s="99"/>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
       <c r="J16" s="59"/>
       <c r="K16" s="81"/>
       <c r="L16" s="76"/>
-      <c r="M16" s="112"/>
+      <c r="M16" s="104"/>
       <c r="N16"/>
       <c r="O16" s="13">
         <f t="shared" si="6"/>
@@ -15326,13 +15240,13 @@
       <c r="C17" s="91"/>
       <c r="D17" s="92"/>
       <c r="E17" s="87"/>
-      <c r="F17" s="110"/>
+      <c r="F17" s="102"/>
       <c r="H17" s="52"/>
       <c r="I17" s="49"/>
       <c r="J17" s="61"/>
       <c r="K17" s="82"/>
       <c r="L17" s="77"/>
-      <c r="M17" s="114"/>
+      <c r="M17" s="106"/>
       <c r="N17"/>
       <c r="O17" s="13">
         <f t="shared" si="6"/>
@@ -15357,13 +15271,13 @@
       <c r="C18" s="88"/>
       <c r="D18" s="89"/>
       <c r="E18" s="90"/>
-      <c r="F18" s="107"/>
+      <c r="F18" s="99"/>
       <c r="H18" s="50"/>
       <c r="I18" s="51"/>
       <c r="J18" s="59"/>
       <c r="K18" s="81"/>
       <c r="L18" s="76"/>
-      <c r="M18" s="112"/>
+      <c r="M18" s="104"/>
       <c r="N18"/>
       <c r="O18" s="13">
         <f t="shared" si="6"/>
@@ -15388,13 +15302,13 @@
       <c r="C19" s="91"/>
       <c r="D19" s="92"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="110"/>
+      <c r="F19" s="102"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="61"/>
       <c r="K19" s="82"/>
       <c r="L19" s="77"/>
-      <c r="M19" s="114"/>
+      <c r="M19" s="106"/>
       <c r="N19"/>
       <c r="O19" s="13">
         <f t="shared" si="6"/>
@@ -15419,13 +15333,13 @@
       <c r="C20" s="88"/>
       <c r="D20" s="89"/>
       <c r="E20" s="90"/>
-      <c r="F20" s="107"/>
+      <c r="F20" s="99"/>
       <c r="H20" s="50"/>
       <c r="I20" s="51"/>
       <c r="J20" s="59"/>
       <c r="K20" s="81"/>
       <c r="L20" s="76"/>
-      <c r="M20" s="112"/>
+      <c r="M20" s="104"/>
       <c r="N20"/>
       <c r="O20" s="13">
         <f t="shared" si="6"/>
@@ -15450,13 +15364,13 @@
       <c r="C21" s="91"/>
       <c r="D21" s="92"/>
       <c r="E21" s="87"/>
-      <c r="F21" s="110"/>
+      <c r="F21" s="102"/>
       <c r="H21" s="52"/>
       <c r="I21" s="49"/>
       <c r="J21" s="61"/>
       <c r="K21" s="82"/>
       <c r="L21" s="77"/>
-      <c r="M21" s="114"/>
+      <c r="M21" s="106"/>
       <c r="N21"/>
       <c r="O21" s="13">
         <f t="shared" si="6"/>
@@ -15481,13 +15395,13 @@
       <c r="C22" s="88"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
-      <c r="F22" s="107"/>
+      <c r="F22" s="99"/>
       <c r="H22" s="50"/>
       <c r="I22" s="51"/>
       <c r="J22" s="59"/>
       <c r="K22" s="81"/>
       <c r="L22" s="76"/>
-      <c r="M22" s="112"/>
+      <c r="M22" s="104"/>
       <c r="N22"/>
       <c r="O22" s="13">
         <f t="shared" si="6"/>
@@ -15512,13 +15426,13 @@
       <c r="C23" s="91"/>
       <c r="D23" s="92"/>
       <c r="E23" s="87"/>
-      <c r="F23" s="110"/>
+      <c r="F23" s="102"/>
       <c r="H23" s="52"/>
       <c r="I23" s="49"/>
       <c r="J23" s="61"/>
       <c r="K23" s="82"/>
       <c r="L23" s="77"/>
-      <c r="M23" s="114"/>
+      <c r="M23" s="106"/>
       <c r="N23"/>
       <c r="O23" s="13">
         <f t="shared" si="6"/>
@@ -15543,13 +15457,13 @@
       <c r="C24" s="88"/>
       <c r="D24" s="89"/>
       <c r="E24" s="90"/>
-      <c r="F24" s="107"/>
+      <c r="F24" s="99"/>
       <c r="H24" s="50"/>
       <c r="I24" s="51"/>
       <c r="J24" s="59"/>
       <c r="K24" s="81"/>
       <c r="L24" s="76"/>
-      <c r="M24" s="112"/>
+      <c r="M24" s="104"/>
       <c r="N24"/>
       <c r="O24" s="13">
         <f t="shared" si="6"/>
@@ -15574,13 +15488,13 @@
       <c r="C25" s="91"/>
       <c r="D25" s="92"/>
       <c r="E25" s="87"/>
-      <c r="F25" s="110"/>
+      <c r="F25" s="102"/>
       <c r="H25" s="52"/>
       <c r="I25" s="49"/>
       <c r="J25" s="61"/>
       <c r="K25" s="82"/>
       <c r="L25" s="77"/>
-      <c r="M25" s="114"/>
+      <c r="M25" s="106"/>
       <c r="N25"/>
       <c r="O25" s="13">
         <f t="shared" si="6"/>
@@ -15605,14 +15519,14 @@
       <c r="C26" s="88"/>
       <c r="D26" s="89"/>
       <c r="E26" s="90"/>
-      <c r="F26" s="107"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="11"/>
       <c r="H26" s="50"/>
       <c r="I26" s="51"/>
       <c r="J26" s="59"/>
       <c r="K26" s="81"/>
       <c r="L26" s="76"/>
-      <c r="M26" s="112"/>
+      <c r="M26" s="104"/>
       <c r="N26"/>
       <c r="O26" s="13">
         <f t="shared" si="6"/>
@@ -15637,13 +15551,13 @@
       <c r="C27" s="91"/>
       <c r="D27" s="92"/>
       <c r="E27" s="87"/>
-      <c r="F27" s="110"/>
+      <c r="F27" s="102"/>
       <c r="H27" s="52"/>
       <c r="I27" s="49"/>
       <c r="J27" s="61"/>
       <c r="K27" s="82"/>
       <c r="L27" s="77"/>
-      <c r="M27" s="114"/>
+      <c r="M27" s="106"/>
       <c r="N27"/>
       <c r="O27" s="13">
         <f t="shared" si="6"/>
@@ -15668,13 +15582,13 @@
       <c r="C28" s="88"/>
       <c r="D28" s="89"/>
       <c r="E28" s="90"/>
-      <c r="F28" s="107"/>
+      <c r="F28" s="99"/>
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
       <c r="J28" s="59"/>
       <c r="K28" s="81"/>
       <c r="L28" s="76"/>
-      <c r="M28" s="112"/>
+      <c r="M28" s="104"/>
       <c r="N28"/>
       <c r="O28" s="13">
         <f t="shared" si="6"/>
@@ -15699,13 +15613,13 @@
       <c r="C29" s="91"/>
       <c r="D29" s="92"/>
       <c r="E29" s="87"/>
-      <c r="F29" s="110"/>
+      <c r="F29" s="102"/>
       <c r="H29" s="52"/>
       <c r="I29" s="49"/>
       <c r="J29" s="61"/>
       <c r="K29" s="82"/>
       <c r="L29" s="77"/>
-      <c r="M29" s="114"/>
+      <c r="M29" s="106"/>
       <c r="N29"/>
       <c r="O29" s="13">
         <f t="shared" si="6"/>
@@ -15730,13 +15644,13 @@
       <c r="C30" s="88"/>
       <c r="D30" s="89"/>
       <c r="E30" s="90"/>
-      <c r="F30" s="107"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="50"/>
       <c r="I30" s="51"/>
       <c r="J30" s="59"/>
       <c r="K30" s="81"/>
       <c r="L30" s="76"/>
-      <c r="M30" s="112"/>
+      <c r="M30" s="104"/>
       <c r="N30"/>
       <c r="O30" s="13">
         <f t="shared" si="6"/>
@@ -15761,13 +15675,13 @@
       <c r="C31" s="91"/>
       <c r="D31" s="92"/>
       <c r="E31" s="87"/>
-      <c r="F31" s="110"/>
+      <c r="F31" s="102"/>
       <c r="H31" s="52"/>
       <c r="I31" s="49"/>
       <c r="J31" s="61"/>
       <c r="K31" s="82"/>
       <c r="L31" s="77"/>
-      <c r="M31" s="114"/>
+      <c r="M31" s="106"/>
       <c r="N31"/>
       <c r="O31" s="13">
         <f t="shared" si="6"/>
@@ -15792,13 +15706,13 @@
       <c r="C32" s="88"/>
       <c r="D32" s="89"/>
       <c r="E32" s="90"/>
-      <c r="F32" s="107"/>
+      <c r="F32" s="99"/>
       <c r="H32" s="50"/>
       <c r="I32" s="51"/>
       <c r="J32" s="59"/>
       <c r="K32" s="81"/>
       <c r="L32" s="76"/>
-      <c r="M32" s="112"/>
+      <c r="M32" s="104"/>
       <c r="N32"/>
       <c r="O32" s="13">
         <f t="shared" si="6"/>
@@ -15823,13 +15737,13 @@
       <c r="C33" s="91"/>
       <c r="D33" s="92"/>
       <c r="E33" s="87"/>
-      <c r="F33" s="110"/>
+      <c r="F33" s="102"/>
       <c r="H33" s="52"/>
       <c r="I33" s="49"/>
       <c r="J33" s="61"/>
       <c r="K33" s="82"/>
       <c r="L33" s="77"/>
-      <c r="M33" s="114"/>
+      <c r="M33" s="106"/>
       <c r="N33"/>
       <c r="O33" s="13">
         <f t="shared" si="6"/>
@@ -15854,13 +15768,13 @@
       <c r="C34" s="88"/>
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
-      <c r="F34" s="107"/>
+      <c r="F34" s="99"/>
       <c r="H34" s="50"/>
       <c r="I34" s="51"/>
       <c r="J34" s="59"/>
       <c r="K34" s="81"/>
       <c r="L34" s="76"/>
-      <c r="M34" s="112"/>
+      <c r="M34" s="104"/>
       <c r="N34"/>
       <c r="O34" s="13">
         <f t="shared" si="6"/>
@@ -15885,13 +15799,13 @@
       <c r="C35" s="91"/>
       <c r="D35" s="92"/>
       <c r="E35" s="87"/>
-      <c r="F35" s="110"/>
+      <c r="F35" s="102"/>
       <c r="H35" s="52"/>
       <c r="I35" s="49"/>
       <c r="J35" s="61"/>
       <c r="K35" s="82"/>
       <c r="L35" s="77"/>
-      <c r="M35" s="114"/>
+      <c r="M35" s="106"/>
       <c r="N35"/>
       <c r="O35" s="13">
         <f t="shared" si="6"/>
@@ -15916,13 +15830,13 @@
       <c r="C36" s="88"/>
       <c r="D36" s="89"/>
       <c r="E36" s="90"/>
-      <c r="F36" s="107"/>
+      <c r="F36" s="99"/>
       <c r="H36" s="50"/>
       <c r="I36" s="51"/>
       <c r="J36" s="59"/>
       <c r="K36" s="81"/>
       <c r="L36" s="76"/>
-      <c r="M36" s="112"/>
+      <c r="M36" s="104"/>
       <c r="N36"/>
       <c r="O36" s="13">
         <f t="shared" si="6"/>
@@ -15947,13 +15861,13 @@
       <c r="C37" s="91"/>
       <c r="D37" s="92"/>
       <c r="E37" s="87"/>
-      <c r="F37" s="110"/>
+      <c r="F37" s="102"/>
       <c r="H37" s="52"/>
       <c r="I37" s="49"/>
       <c r="J37" s="61"/>
       <c r="K37" s="82"/>
       <c r="L37" s="77"/>
-      <c r="M37" s="114"/>
+      <c r="M37" s="106"/>
       <c r="N37"/>
       <c r="O37" s="13">
         <f t="shared" si="6"/>
@@ -15978,13 +15892,13 @@
       <c r="C38" s="88"/>
       <c r="D38" s="89"/>
       <c r="E38" s="90"/>
-      <c r="F38" s="107"/>
+      <c r="F38" s="99"/>
       <c r="H38" s="50"/>
       <c r="I38" s="51"/>
       <c r="J38" s="59"/>
       <c r="K38" s="81"/>
       <c r="L38" s="76"/>
-      <c r="M38" s="112"/>
+      <c r="M38" s="104"/>
       <c r="N38"/>
       <c r="O38" s="13">
         <f t="shared" si="6"/>
@@ -16009,13 +15923,13 @@
       <c r="C39" s="67"/>
       <c r="D39" s="72"/>
       <c r="E39" s="69"/>
-      <c r="F39" s="111"/>
+      <c r="F39" s="103"/>
       <c r="H39" s="63"/>
       <c r="I39" s="52"/>
       <c r="J39" s="63"/>
       <c r="K39" s="83"/>
       <c r="L39" s="78"/>
-      <c r="M39" s="115"/>
+      <c r="M39" s="107"/>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="34"/>
@@ -16023,7 +15937,7 @@
       <c r="C40" s="43"/>
       <c r="D40" s="73"/>
       <c r="E40" s="70"/>
-      <c r="F40" s="108"/>
+      <c r="F40" s="100"/>
       <c r="H40" s="65"/>
       <c r="I40" s="55"/>
       <c r="J40" s="65"/>
@@ -16038,38 +15952,38 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>$E39&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L40">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$L39&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AB3">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:AB5">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$L11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16111,20 +16025,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="114" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="H1" s="101" t="str">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="H1" s="116" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -16145,7 +16059,7 @@
       <c r="E2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="101" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="41"/>
@@ -16164,7 +16078,7 @@
       <c r="L2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="108" t="s">
         <v>42</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -16186,15 +16100,15 @@
       <c r="B3" s="49"/>
       <c r="C3" s="56"/>
       <c r="D3" s="86"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="110"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="102"/>
       <c r="G3" s="11"/>
       <c r="H3" s="56"/>
       <c r="I3" s="49"/>
       <c r="J3" s="57"/>
       <c r="K3" s="80"/>
       <c r="L3" s="58"/>
-      <c r="M3" s="113"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="11"/>
       <c r="O3" s="13">
         <f>C3/10000</f>
@@ -16217,16 +16131,16 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
-      <c r="C4" s="103"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="89"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="99"/>
       <c r="H4" s="50"/>
       <c r="I4" s="51"/>
       <c r="J4" s="59"/>
       <c r="K4" s="81"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="112"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="10"/>
       <c r="O4" s="13">
         <f t="shared" ref="O4:O30" si="0">C4/10000</f>
@@ -16237,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="13">
-        <f t="shared" ref="Q4:R30" si="2">E4/10000</f>
+        <f t="shared" ref="Q4:Q30" si="2">E4/10000</f>
         <v>0</v>
       </c>
       <c r="R4" s="13" t="str">
@@ -16251,14 +16165,14 @@
       <c r="B5" s="49"/>
       <c r="C5" s="56"/>
       <c r="D5" s="92"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="110"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="102"/>
       <c r="H5" s="52"/>
       <c r="I5" s="49"/>
       <c r="J5" s="61"/>
       <c r="K5" s="82"/>
       <c r="L5" s="62"/>
-      <c r="M5" s="114"/>
+      <c r="M5" s="106"/>
       <c r="N5" s="10"/>
       <c r="O5" s="13">
         <f t="shared" si="0"/>
@@ -16281,16 +16195,16 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="103"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="89"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="99"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
       <c r="J6" s="59"/>
       <c r="K6" s="81"/>
       <c r="L6" s="60"/>
-      <c r="M6" s="112"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="10"/>
       <c r="O6" s="13">
         <f t="shared" si="0"/>
@@ -16315,14 +16229,14 @@
       <c r="B7" s="49"/>
       <c r="C7" s="56"/>
       <c r="D7" s="92"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="110"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="52"/>
       <c r="I7" s="49"/>
       <c r="J7" s="61"/>
       <c r="K7" s="82"/>
       <c r="L7" s="62"/>
-      <c r="M7" s="114"/>
+      <c r="M7" s="106"/>
       <c r="N7"/>
       <c r="O7" s="13">
         <f t="shared" si="0"/>
@@ -16345,16 +16259,16 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
-      <c r="C8" s="103"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="107"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="99"/>
       <c r="H8" s="50"/>
       <c r="I8" s="51"/>
       <c r="J8" s="59"/>
       <c r="K8" s="81"/>
       <c r="L8" s="60"/>
-      <c r="M8" s="112"/>
+      <c r="M8" s="104"/>
       <c r="N8"/>
       <c r="O8" s="13">
         <f t="shared" si="0"/>
@@ -16379,14 +16293,14 @@
       <c r="B9" s="49"/>
       <c r="C9" s="56"/>
       <c r="D9" s="92"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="110"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="102"/>
       <c r="H9" s="52"/>
       <c r="I9" s="49"/>
       <c r="J9" s="61"/>
       <c r="K9" s="82"/>
       <c r="L9" s="62"/>
-      <c r="M9" s="114"/>
+      <c r="M9" s="106"/>
       <c r="N9"/>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
@@ -16409,16 +16323,16 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="50"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="89"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="107"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="99"/>
       <c r="H10" s="50"/>
       <c r="I10" s="51"/>
       <c r="J10" s="59"/>
       <c r="K10" s="81"/>
       <c r="L10" s="60"/>
-      <c r="M10" s="112"/>
+      <c r="M10" s="104"/>
       <c r="N10"/>
       <c r="O10" s="13">
         <f t="shared" si="0"/>
@@ -16443,14 +16357,14 @@
       <c r="B11" s="49"/>
       <c r="C11" s="56"/>
       <c r="D11" s="92"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="110"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="102"/>
       <c r="H11" s="52"/>
       <c r="I11" s="49"/>
       <c r="J11" s="61"/>
       <c r="K11" s="82"/>
       <c r="L11" s="62"/>
-      <c r="M11" s="114"/>
+      <c r="M11" s="106"/>
       <c r="N11"/>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
@@ -16473,16 +16387,16 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="89"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="107"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="99"/>
       <c r="H12" s="50"/>
       <c r="I12" s="51"/>
       <c r="J12" s="59"/>
       <c r="K12" s="81"/>
       <c r="L12" s="60"/>
-      <c r="M12" s="112"/>
+      <c r="M12" s="104"/>
       <c r="N12"/>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
@@ -16507,14 +16421,14 @@
       <c r="B13" s="49"/>
       <c r="C13" s="56"/>
       <c r="D13" s="92"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="110"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="102"/>
       <c r="H13" s="52"/>
       <c r="I13" s="49"/>
       <c r="J13" s="61"/>
       <c r="K13" s="82"/>
       <c r="L13" s="62"/>
-      <c r="M13" s="114"/>
+      <c r="M13" s="106"/>
       <c r="N13"/>
       <c r="O13" s="13">
         <f t="shared" si="0"/>
@@ -16537,16 +16451,16 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="50"/>
       <c r="B14" s="51"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="89"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="107"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="99"/>
       <c r="H14" s="50"/>
       <c r="I14" s="51"/>
       <c r="J14" s="59"/>
       <c r="K14" s="81"/>
       <c r="L14" s="60"/>
-      <c r="M14" s="112"/>
+      <c r="M14" s="104"/>
       <c r="N14"/>
       <c r="O14" s="13">
         <f t="shared" si="0"/>
@@ -16571,14 +16485,14 @@
       <c r="B15" s="49"/>
       <c r="C15" s="56"/>
       <c r="D15" s="92"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="110"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="102"/>
       <c r="H15" s="52"/>
       <c r="I15" s="49"/>
       <c r="J15" s="61"/>
       <c r="K15" s="82"/>
       <c r="L15" s="62"/>
-      <c r="M15" s="114"/>
+      <c r="M15" s="106"/>
       <c r="N15"/>
       <c r="O15" s="13">
         <f t="shared" si="0"/>
@@ -16601,16 +16515,16 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
-      <c r="C16" s="103"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="107"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="99"/>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
       <c r="J16" s="59"/>
       <c r="K16" s="81"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="112"/>
+      <c r="M16" s="104"/>
       <c r="N16"/>
       <c r="O16" s="13">
         <f t="shared" si="0"/>
@@ -16635,14 +16549,14 @@
       <c r="B17" s="49"/>
       <c r="C17" s="56"/>
       <c r="D17" s="92"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="102"/>
       <c r="H17" s="52"/>
       <c r="I17" s="49"/>
       <c r="J17" s="61"/>
       <c r="K17" s="82"/>
       <c r="L17" s="62"/>
-      <c r="M17" s="114"/>
+      <c r="M17" s="106"/>
       <c r="N17"/>
       <c r="O17" s="13">
         <f t="shared" si="0"/>
@@ -16665,16 +16579,16 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
-      <c r="C18" s="103"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="89"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="107"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="99"/>
       <c r="H18" s="50"/>
       <c r="I18" s="51"/>
       <c r="J18" s="59"/>
       <c r="K18" s="81"/>
       <c r="L18" s="60"/>
-      <c r="M18" s="112"/>
+      <c r="M18" s="104"/>
       <c r="N18"/>
       <c r="O18" s="13">
         <f t="shared" si="0"/>
@@ -16699,14 +16613,14 @@
       <c r="B19" s="49"/>
       <c r="C19" s="56"/>
       <c r="D19" s="92"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="110"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="102"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="61"/>
       <c r="K19" s="82"/>
       <c r="L19" s="62"/>
-      <c r="M19" s="114"/>
+      <c r="M19" s="106"/>
       <c r="N19"/>
       <c r="O19" s="13">
         <f t="shared" si="0"/>
@@ -16729,16 +16643,16 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
-      <c r="C20" s="103"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="89"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="107"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="99"/>
       <c r="H20" s="50"/>
       <c r="I20" s="51"/>
       <c r="J20" s="59"/>
       <c r="K20" s="81"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="112"/>
+      <c r="M20" s="104"/>
       <c r="N20"/>
       <c r="O20" s="13">
         <f t="shared" si="0"/>
@@ -16763,14 +16677,14 @@
       <c r="B21" s="49"/>
       <c r="C21" s="56"/>
       <c r="D21" s="92"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="102"/>
       <c r="H21" s="52"/>
       <c r="I21" s="49"/>
       <c r="J21" s="61"/>
       <c r="K21" s="82"/>
       <c r="L21" s="62"/>
-      <c r="M21" s="114"/>
+      <c r="M21" s="106"/>
       <c r="N21"/>
       <c r="O21" s="13">
         <f t="shared" si="0"/>
@@ -16793,16 +16707,16 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
-      <c r="C22" s="103"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="89"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="107"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="99"/>
       <c r="H22" s="50"/>
       <c r="I22" s="51"/>
       <c r="J22" s="59"/>
       <c r="K22" s="81"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="112"/>
+      <c r="M22" s="104"/>
       <c r="N22"/>
       <c r="O22" s="13">
         <f t="shared" si="0"/>
@@ -16827,14 +16741,14 @@
       <c r="B23" s="49"/>
       <c r="C23" s="56"/>
       <c r="D23" s="92"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="110"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="102"/>
       <c r="H23" s="52"/>
       <c r="I23" s="49"/>
       <c r="J23" s="61"/>
       <c r="K23" s="82"/>
       <c r="L23" s="62"/>
-      <c r="M23" s="114"/>
+      <c r="M23" s="106"/>
       <c r="N23"/>
       <c r="O23" s="13">
         <f t="shared" si="0"/>
@@ -16857,16 +16771,16 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="50"/>
       <c r="B24" s="51"/>
-      <c r="C24" s="103"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="89"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="107"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="99"/>
       <c r="H24" s="50"/>
       <c r="I24" s="51"/>
       <c r="J24" s="59"/>
       <c r="K24" s="81"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="112"/>
+      <c r="M24" s="104"/>
       <c r="N24"/>
       <c r="O24" s="13">
         <f t="shared" si="0"/>
@@ -16891,14 +16805,14 @@
       <c r="B25" s="49"/>
       <c r="C25" s="56"/>
       <c r="D25" s="92"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="110"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="102"/>
       <c r="H25" s="52"/>
       <c r="I25" s="49"/>
       <c r="J25" s="61"/>
       <c r="K25" s="82"/>
       <c r="L25" s="62"/>
-      <c r="M25" s="114"/>
+      <c r="M25" s="106"/>
       <c r="N25"/>
       <c r="O25" s="13">
         <f t="shared" si="0"/>
@@ -16921,16 +16835,16 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="50"/>
       <c r="B26" s="51"/>
-      <c r="C26" s="103"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="107"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="99"/>
       <c r="H26" s="50"/>
       <c r="I26" s="51"/>
       <c r="J26" s="59"/>
       <c r="K26" s="81"/>
       <c r="L26" s="60"/>
-      <c r="M26" s="112"/>
+      <c r="M26" s="104"/>
       <c r="N26"/>
       <c r="O26" s="13">
         <f t="shared" si="0"/>
@@ -16955,14 +16869,14 @@
       <c r="B27" s="49"/>
       <c r="C27" s="56"/>
       <c r="D27" s="92"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="110"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="102"/>
       <c r="H27" s="52"/>
       <c r="I27" s="49"/>
       <c r="J27" s="61"/>
       <c r="K27" s="82"/>
       <c r="L27" s="62"/>
-      <c r="M27" s="114"/>
+      <c r="M27" s="106"/>
       <c r="N27"/>
       <c r="O27" s="13">
         <f t="shared" si="0"/>
@@ -16985,16 +16899,16 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
-      <c r="C28" s="103"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="89"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="107"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="99"/>
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
       <c r="J28" s="59"/>
       <c r="K28" s="81"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="112"/>
+      <c r="M28" s="104"/>
       <c r="N28"/>
       <c r="O28" s="13">
         <f t="shared" si="0"/>
@@ -17019,14 +16933,14 @@
       <c r="B29" s="49"/>
       <c r="C29" s="56"/>
       <c r="D29" s="92"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="110"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="102"/>
       <c r="H29" s="52"/>
       <c r="I29" s="49"/>
       <c r="J29" s="61"/>
       <c r="K29" s="82"/>
       <c r="L29" s="62"/>
-      <c r="M29" s="114"/>
+      <c r="M29" s="106"/>
       <c r="N29"/>
       <c r="O29" s="13">
         <f t="shared" si="0"/>
@@ -17049,16 +16963,16 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="50"/>
       <c r="B30" s="51"/>
-      <c r="C30" s="103"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="89"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="107"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="50"/>
       <c r="I30" s="51"/>
       <c r="J30" s="59"/>
       <c r="K30" s="81"/>
       <c r="L30" s="60"/>
-      <c r="M30" s="112"/>
+      <c r="M30" s="104"/>
       <c r="N30"/>
       <c r="O30" s="13">
         <f t="shared" si="0"/>
@@ -17084,13 +16998,13 @@
       <c r="C31" s="53"/>
       <c r="D31" s="72"/>
       <c r="E31" s="54"/>
-      <c r="F31" s="111"/>
+      <c r="F31" s="103"/>
       <c r="H31" s="52"/>
       <c r="I31" s="63"/>
       <c r="J31" s="52"/>
       <c r="K31" s="83"/>
       <c r="L31" s="64"/>
-      <c r="M31" s="115"/>
+      <c r="M31" s="107"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="55"/>
@@ -17098,7 +17012,7 @@
       <c r="C32" s="43"/>
       <c r="D32" s="73"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="108"/>
+      <c r="F32" s="100"/>
       <c r="H32" s="55"/>
       <c r="I32" s="65"/>
       <c r="J32" s="55"/>
@@ -17113,22 +17027,22 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$E31&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L32">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$L31&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L30">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$L3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17170,20 +17084,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="114" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="H1" s="101" t="str">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="H1" s="116" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17204,7 +17118,7 @@
       <c r="E2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="101" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="41"/>
@@ -17223,7 +17137,7 @@
       <c r="L2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="108" t="s">
         <v>42</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -17245,15 +17159,15 @@
       <c r="B3" s="49"/>
       <c r="C3" s="56"/>
       <c r="D3" s="86"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="110"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="102"/>
       <c r="G3" s="11"/>
       <c r="H3" s="56"/>
       <c r="I3" s="49"/>
       <c r="J3" s="57"/>
       <c r="K3" s="80"/>
       <c r="L3" s="58"/>
-      <c r="M3" s="113"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="11"/>
       <c r="O3" s="13">
         <f>C3/10000</f>
@@ -17276,16 +17190,16 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
-      <c r="C4" s="103"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="89"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="99"/>
       <c r="H4" s="50"/>
       <c r="I4" s="51"/>
       <c r="J4" s="59"/>
       <c r="K4" s="81"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="112"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="10"/>
       <c r="O4" s="13">
         <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
@@ -17310,14 +17224,14 @@
       <c r="B5" s="49"/>
       <c r="C5" s="56"/>
       <c r="D5" s="92"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="110"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="102"/>
       <c r="H5" s="52"/>
       <c r="I5" s="49"/>
       <c r="J5" s="61"/>
       <c r="K5" s="82"/>
       <c r="L5" s="62"/>
-      <c r="M5" s="114"/>
+      <c r="M5" s="106"/>
       <c r="N5" s="10"/>
       <c r="O5" s="13">
         <f t="shared" si="0"/>
@@ -17340,16 +17254,16 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="103"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="89"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="99"/>
       <c r="H6" s="50"/>
       <c r="I6" s="51"/>
       <c r="J6" s="59"/>
       <c r="K6" s="81"/>
       <c r="L6" s="60"/>
-      <c r="M6" s="112"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="10"/>
       <c r="O6" s="13">
         <f t="shared" si="0"/>
@@ -17374,14 +17288,14 @@
       <c r="B7" s="49"/>
       <c r="C7" s="56"/>
       <c r="D7" s="92"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="110"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="52"/>
       <c r="I7" s="49"/>
       <c r="J7" s="61"/>
       <c r="K7" s="82"/>
       <c r="L7" s="62"/>
-      <c r="M7" s="114"/>
+      <c r="M7" s="106"/>
       <c r="N7"/>
       <c r="O7" s="13">
         <f t="shared" si="0"/>
@@ -17404,16 +17318,16 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
-      <c r="C8" s="103"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="89"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="107"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="99"/>
       <c r="H8" s="50"/>
       <c r="I8" s="51"/>
       <c r="J8" s="59"/>
       <c r="K8" s="81"/>
       <c r="L8" s="60"/>
-      <c r="M8" s="112"/>
+      <c r="M8" s="104"/>
       <c r="N8"/>
       <c r="O8" s="13">
         <f t="shared" si="0"/>
@@ -17438,14 +17352,14 @@
       <c r="B9" s="49"/>
       <c r="C9" s="56"/>
       <c r="D9" s="92"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="110"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="102"/>
       <c r="H9" s="52"/>
       <c r="I9" s="49"/>
       <c r="J9" s="61"/>
       <c r="K9" s="82"/>
       <c r="L9" s="62"/>
-      <c r="M9" s="114"/>
+      <c r="M9" s="106"/>
       <c r="N9"/>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
@@ -17468,16 +17382,16 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="50"/>
       <c r="B10" s="51"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="89"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="107"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="99"/>
       <c r="H10" s="50"/>
       <c r="I10" s="51"/>
       <c r="J10" s="59"/>
       <c r="K10" s="81"/>
       <c r="L10" s="60"/>
-      <c r="M10" s="112"/>
+      <c r="M10" s="104"/>
       <c r="N10"/>
       <c r="O10" s="13">
         <f t="shared" si="0"/>
@@ -17502,14 +17416,14 @@
       <c r="B11" s="49"/>
       <c r="C11" s="56"/>
       <c r="D11" s="92"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="110"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="102"/>
       <c r="H11" s="52"/>
       <c r="I11" s="49"/>
       <c r="J11" s="61"/>
       <c r="K11" s="82"/>
       <c r="L11" s="62"/>
-      <c r="M11" s="114"/>
+      <c r="M11" s="106"/>
       <c r="N11"/>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
@@ -17532,16 +17446,16 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="89"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="107"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="99"/>
       <c r="H12" s="50"/>
       <c r="I12" s="51"/>
       <c r="J12" s="59"/>
       <c r="K12" s="81"/>
       <c r="L12" s="60"/>
-      <c r="M12" s="112"/>
+      <c r="M12" s="104"/>
       <c r="N12"/>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
@@ -17566,14 +17480,14 @@
       <c r="B13" s="49"/>
       <c r="C13" s="56"/>
       <c r="D13" s="92"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="110"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="102"/>
       <c r="H13" s="52"/>
       <c r="I13" s="49"/>
       <c r="J13" s="61"/>
       <c r="K13" s="82"/>
       <c r="L13" s="62"/>
-      <c r="M13" s="114"/>
+      <c r="M13" s="106"/>
       <c r="N13"/>
       <c r="O13" s="13">
         <f t="shared" si="0"/>
@@ -17596,16 +17510,16 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="50"/>
       <c r="B14" s="51"/>
-      <c r="C14" s="103"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="89"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="107"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="99"/>
       <c r="H14" s="50"/>
       <c r="I14" s="51"/>
       <c r="J14" s="59"/>
       <c r="K14" s="81"/>
       <c r="L14" s="60"/>
-      <c r="M14" s="112"/>
+      <c r="M14" s="104"/>
       <c r="N14"/>
       <c r="O14" s="13">
         <f t="shared" si="0"/>
@@ -17630,14 +17544,14 @@
       <c r="B15" s="49"/>
       <c r="C15" s="56"/>
       <c r="D15" s="92"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="110"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="102"/>
       <c r="H15" s="52"/>
       <c r="I15" s="49"/>
       <c r="J15" s="61"/>
       <c r="K15" s="82"/>
       <c r="L15" s="62"/>
-      <c r="M15" s="114"/>
+      <c r="M15" s="106"/>
       <c r="N15"/>
       <c r="O15" s="13">
         <f t="shared" si="0"/>
@@ -17660,16 +17574,16 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
-      <c r="C16" s="103"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="107"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="99"/>
       <c r="H16" s="50"/>
       <c r="I16" s="51"/>
       <c r="J16" s="59"/>
       <c r="K16" s="81"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="112"/>
+      <c r="M16" s="104"/>
       <c r="N16"/>
       <c r="O16" s="13">
         <f t="shared" si="0"/>
@@ -17694,14 +17608,14 @@
       <c r="B17" s="49"/>
       <c r="C17" s="56"/>
       <c r="D17" s="92"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="102"/>
       <c r="H17" s="52"/>
       <c r="I17" s="49"/>
       <c r="J17" s="61"/>
       <c r="K17" s="82"/>
       <c r="L17" s="62"/>
-      <c r="M17" s="114"/>
+      <c r="M17" s="106"/>
       <c r="N17"/>
       <c r="O17" s="13">
         <f t="shared" si="0"/>
@@ -17724,16 +17638,16 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="50"/>
       <c r="B18" s="51"/>
-      <c r="C18" s="103"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="89"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="107"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="99"/>
       <c r="H18" s="50"/>
       <c r="I18" s="51"/>
       <c r="J18" s="59"/>
       <c r="K18" s="81"/>
       <c r="L18" s="60"/>
-      <c r="M18" s="112"/>
+      <c r="M18" s="104"/>
       <c r="N18"/>
       <c r="O18" s="13">
         <f t="shared" si="0"/>
@@ -17758,14 +17672,14 @@
       <c r="B19" s="49"/>
       <c r="C19" s="56"/>
       <c r="D19" s="92"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="110"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="102"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="61"/>
       <c r="K19" s="82"/>
       <c r="L19" s="62"/>
-      <c r="M19" s="114"/>
+      <c r="M19" s="106"/>
       <c r="N19"/>
       <c r="O19" s="13">
         <f t="shared" si="0"/>
@@ -17788,16 +17702,16 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
-      <c r="C20" s="103"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="89"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="107"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="99"/>
       <c r="H20" s="50"/>
       <c r="I20" s="51"/>
       <c r="J20" s="59"/>
       <c r="K20" s="81"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="112"/>
+      <c r="M20" s="104"/>
       <c r="N20"/>
       <c r="O20" s="13">
         <f t="shared" si="0"/>
@@ -17822,14 +17736,14 @@
       <c r="B21" s="49"/>
       <c r="C21" s="56"/>
       <c r="D21" s="92"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="102"/>
       <c r="H21" s="52"/>
       <c r="I21" s="49"/>
       <c r="J21" s="61"/>
       <c r="K21" s="82"/>
       <c r="L21" s="62"/>
-      <c r="M21" s="114"/>
+      <c r="M21" s="106"/>
       <c r="N21"/>
       <c r="O21" s="13">
         <f t="shared" si="0"/>
@@ -17852,16 +17766,16 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
-      <c r="C22" s="103"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="89"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="107"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="99"/>
       <c r="H22" s="50"/>
       <c r="I22" s="51"/>
       <c r="J22" s="59"/>
       <c r="K22" s="81"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="112"/>
+      <c r="M22" s="104"/>
       <c r="N22"/>
       <c r="O22" s="13">
         <f t="shared" si="0"/>
@@ -17886,14 +17800,14 @@
       <c r="B23" s="49"/>
       <c r="C23" s="56"/>
       <c r="D23" s="92"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="110"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="102"/>
       <c r="H23" s="52"/>
       <c r="I23" s="49"/>
       <c r="J23" s="61"/>
       <c r="K23" s="82"/>
       <c r="L23" s="62"/>
-      <c r="M23" s="114"/>
+      <c r="M23" s="106"/>
       <c r="N23"/>
       <c r="O23" s="13">
         <f t="shared" si="0"/>
@@ -17916,16 +17830,16 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="50"/>
       <c r="B24" s="51"/>
-      <c r="C24" s="103"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="89"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="107"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="99"/>
       <c r="H24" s="50"/>
       <c r="I24" s="51"/>
       <c r="J24" s="59"/>
       <c r="K24" s="81"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="112"/>
+      <c r="M24" s="104"/>
       <c r="N24"/>
       <c r="O24" s="13">
         <f t="shared" si="0"/>
@@ -17950,14 +17864,14 @@
       <c r="B25" s="49"/>
       <c r="C25" s="56"/>
       <c r="D25" s="92"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="110"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="102"/>
       <c r="H25" s="52"/>
       <c r="I25" s="49"/>
       <c r="J25" s="61"/>
       <c r="K25" s="82"/>
       <c r="L25" s="62"/>
-      <c r="M25" s="114"/>
+      <c r="M25" s="106"/>
       <c r="N25"/>
       <c r="O25" s="13">
         <f t="shared" si="0"/>
@@ -17980,16 +17894,16 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="50"/>
       <c r="B26" s="51"/>
-      <c r="C26" s="103"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="89"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="107"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="99"/>
       <c r="H26" s="50"/>
       <c r="I26" s="51"/>
       <c r="J26" s="59"/>
       <c r="K26" s="81"/>
       <c r="L26" s="60"/>
-      <c r="M26" s="112"/>
+      <c r="M26" s="104"/>
       <c r="N26"/>
       <c r="O26" s="13">
         <f t="shared" si="0"/>
@@ -18014,14 +17928,14 @@
       <c r="B27" s="49"/>
       <c r="C27" s="56"/>
       <c r="D27" s="92"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="110"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="102"/>
       <c r="H27" s="52"/>
       <c r="I27" s="49"/>
       <c r="J27" s="61"/>
       <c r="K27" s="82"/>
       <c r="L27" s="62"/>
-      <c r="M27" s="114"/>
+      <c r="M27" s="106"/>
       <c r="N27"/>
       <c r="O27" s="13">
         <f t="shared" si="0"/>
@@ -18044,16 +17958,16 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="50"/>
       <c r="B28" s="51"/>
-      <c r="C28" s="103"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="89"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="107"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="99"/>
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
       <c r="J28" s="59"/>
       <c r="K28" s="81"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="112"/>
+      <c r="M28" s="104"/>
       <c r="N28"/>
       <c r="O28" s="13">
         <f t="shared" si="0"/>
@@ -18078,14 +17992,14 @@
       <c r="B29" s="49"/>
       <c r="C29" s="56"/>
       <c r="D29" s="92"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="110"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="102"/>
       <c r="H29" s="52"/>
       <c r="I29" s="49"/>
       <c r="J29" s="61"/>
       <c r="K29" s="82"/>
       <c r="L29" s="62"/>
-      <c r="M29" s="114"/>
+      <c r="M29" s="106"/>
       <c r="N29"/>
       <c r="O29" s="13">
         <f t="shared" si="0"/>
@@ -18108,16 +18022,16 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="50"/>
       <c r="B30" s="51"/>
-      <c r="C30" s="103"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="89"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="107"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="99"/>
       <c r="H30" s="50"/>
       <c r="I30" s="51"/>
       <c r="J30" s="59"/>
       <c r="K30" s="81"/>
       <c r="L30" s="60"/>
-      <c r="M30" s="112"/>
+      <c r="M30" s="104"/>
       <c r="N30"/>
       <c r="O30" s="13">
         <f t="shared" si="0"/>
@@ -18143,13 +18057,13 @@
       <c r="C31" s="53"/>
       <c r="D31" s="72"/>
       <c r="E31" s="54"/>
-      <c r="F31" s="111"/>
+      <c r="F31" s="103"/>
       <c r="H31" s="52"/>
       <c r="I31" s="63"/>
       <c r="J31" s="52"/>
       <c r="K31" s="83"/>
       <c r="L31" s="64"/>
-      <c r="M31" s="115"/>
+      <c r="M31" s="107"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="55"/>
@@ -18157,7 +18071,7 @@
       <c r="C32" s="43"/>
       <c r="D32" s="73"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="108"/>
+      <c r="F32" s="100"/>
       <c r="H32" s="55"/>
       <c r="I32" s="65"/>
       <c r="J32" s="55"/>
@@ -18172,22 +18086,22 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$E31&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L32">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$L31&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L30">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7857F651-FE75-40E8-AA10-C7BF94F6BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973ECC8C-C0B7-4AFE-B4E5-38DCEA4FC2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29520" yWindow="-1155" windowWidth="27060" windowHeight="17895" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37155" yWindow="-2550" windowWidth="27375" windowHeight="17475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>月度</t>
   </si>
@@ -150,14 +150,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>売上</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>稼働率</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>前日稼働率</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -200,16 +192,6 @@
     <t>RevPAR計画</t>
     <rPh sb="6" eb="8">
       <t>ケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>稼働率（仮予約含む）</t>
-    <rPh sb="4" eb="7">
-      <t>カリヨヤク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -560,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -774,6 +756,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +778,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -791,9 +786,6 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -818,14 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -931,24 +915,48 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -2289,7 +2297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>稼働率</c:v>
+                  <c:v>見込み稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3104,7 +3112,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3852,7 +3860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>稼働率</c:v>
+                  <c:v>見込み稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3965,7 +3973,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>稼働率（仮予約含む）</c:v>
+                  <c:v>仮予約含む稼働率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6274,7 +6282,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6914,7 +6922,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.0%;\-0.0%;&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13991,7 +13999,7 @@
   </sheetPr>
   <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -14001,483 +14009,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="105" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月26日</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B46" s="14"/>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="G46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="H46" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="17">
         <f>合計データ!W2</f>
         <v>0</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="17">
         <f>合計データ!X2</f>
         <v>0</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="17">
         <f>合計データ!Y2</f>
         <v>0</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="17">
         <f>合計データ!Z2</f>
         <v>0</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="17">
         <f>合計データ!AA2</f>
         <v>0</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="17">
         <f>合計データ!AB2</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="25">
+      <c r="B48" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="22">
         <f>合計データ!W3</f>
         <v>0</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="22">
         <f>合計データ!X3</f>
         <v>0</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="22">
         <f>合計データ!Y3</f>
         <v>0</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="22">
         <f>合計データ!Z3</f>
         <v>0</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="22">
         <f>合計データ!AA3</f>
         <v>0</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="22">
         <f>合計データ!AB3</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="17">
         <f>合計データ!W4</f>
         <v>0</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="17">
         <f>合計データ!X4</f>
         <v>0</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="17">
         <f>合計データ!Y4</f>
         <v>0</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="17">
         <f>合計データ!Z4</f>
         <v>0</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="17">
         <f>合計データ!AA4</f>
         <v>0</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="17">
         <f>合計データ!AB4</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B50" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="25">
+      <c r="B50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="22">
         <f>合計データ!W5</f>
         <v>0</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="22">
         <f>合計データ!X5</f>
         <v>0</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="22">
         <f>合計データ!Y5</f>
         <v>0</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="22">
         <f>合計データ!Z5</f>
         <v>0</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="22">
         <f>合計データ!AA5</f>
         <v>0</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="22">
         <f>合計データ!AB5</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B51" s="18"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="110"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="110"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="110"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="112" t="str">
+      <c r="C56" s="106" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="110">
+      <c r="A104" s="102">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="110"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
-      <c r="F104" s="110"/>
-      <c r="G104" s="110"/>
-      <c r="H104" s="110"/>
-      <c r="I104" s="110"/>
+      <c r="B104" s="102"/>
+      <c r="C104" s="102"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="102"/>
+      <c r="G104" s="102"/>
+      <c r="H104" s="102"/>
+      <c r="I104" s="102"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="110"/>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
-      <c r="F105" s="110"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="110"/>
-      <c r="I105" s="110"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="102"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="102"/>
+      <c r="G105" s="102"/>
+      <c r="H105" s="102"/>
+      <c r="I105" s="102"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="110"/>
-      <c r="B106" s="110"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="110"/>
-      <c r="F106" s="110"/>
-      <c r="G106" s="110"/>
-      <c r="H106" s="110"/>
-      <c r="I106" s="110"/>
+      <c r="A106" s="102"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="102"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="112" t="str">
+      <c r="C108" s="106" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="113"/>
-      <c r="E108" s="113"/>
-      <c r="F108" s="113"/>
-      <c r="G108" s="113"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="104"/>
+      <c r="F108" s="104"/>
+      <c r="G108" s="104"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="110">
+      <c r="A156" s="102">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="110"/>
-      <c r="C156" s="110"/>
-      <c r="D156" s="110"/>
-      <c r="E156" s="110"/>
-      <c r="F156" s="110"/>
-      <c r="G156" s="110"/>
-      <c r="H156" s="110"/>
-      <c r="I156" s="110"/>
+      <c r="B156" s="102"/>
+      <c r="C156" s="102"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="102"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="102"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="110"/>
-      <c r="B157" s="110"/>
-      <c r="C157" s="110"/>
-      <c r="D157" s="110"/>
-      <c r="E157" s="110"/>
-      <c r="F157" s="110"/>
-      <c r="G157" s="110"/>
-      <c r="H157" s="110"/>
-      <c r="I157" s="110"/>
+      <c r="A157" s="102"/>
+      <c r="B157" s="102"/>
+      <c r="C157" s="102"/>
+      <c r="D157" s="102"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="102"/>
+      <c r="H157" s="102"/>
+      <c r="I157" s="102"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="110"/>
-      <c r="B158" s="110"/>
-      <c r="C158" s="110"/>
-      <c r="D158" s="110"/>
-      <c r="E158" s="110"/>
-      <c r="F158" s="110"/>
-      <c r="G158" s="110"/>
-      <c r="H158" s="110"/>
-      <c r="I158" s="110"/>
+      <c r="A158" s="102"/>
+      <c r="B158" s="102"/>
+      <c r="C158" s="102"/>
+      <c r="D158" s="102"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="102"/>
+      <c r="H158" s="102"/>
+      <c r="I158" s="102"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="112" t="str">
+      <c r="C160" s="106" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="112"/>
-      <c r="E160" s="112"/>
-      <c r="F160" s="112"/>
-      <c r="G160" s="112"/>
+      <c r="D160" s="106"/>
+      <c r="E160" s="106"/>
+      <c r="F160" s="106"/>
+      <c r="G160" s="106"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="110">
+      <c r="A208" s="102">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="110"/>
-      <c r="C208" s="110"/>
-      <c r="D208" s="110"/>
-      <c r="E208" s="110"/>
-      <c r="F208" s="110"/>
-      <c r="G208" s="110"/>
-      <c r="H208" s="110"/>
-      <c r="I208" s="110"/>
+      <c r="B208" s="102"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="102"/>
+      <c r="E208" s="102"/>
+      <c r="F208" s="102"/>
+      <c r="G208" s="102"/>
+      <c r="H208" s="102"/>
+      <c r="I208" s="102"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="110"/>
-      <c r="B209" s="110"/>
-      <c r="C209" s="110"/>
-      <c r="D209" s="110"/>
-      <c r="E209" s="110"/>
-      <c r="F209" s="110"/>
-      <c r="G209" s="110"/>
-      <c r="H209" s="110"/>
-      <c r="I209" s="110"/>
+      <c r="A209" s="102"/>
+      <c r="B209" s="102"/>
+      <c r="C209" s="102"/>
+      <c r="D209" s="102"/>
+      <c r="E209" s="102"/>
+      <c r="F209" s="102"/>
+      <c r="G209" s="102"/>
+      <c r="H209" s="102"/>
+      <c r="I209" s="102"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="110"/>
-      <c r="B210" s="110"/>
-      <c r="C210" s="110"/>
-      <c r="D210" s="110"/>
-      <c r="E210" s="110"/>
-      <c r="F210" s="110"/>
-      <c r="G210" s="110"/>
-      <c r="H210" s="110"/>
-      <c r="I210" s="110"/>
+      <c r="A210" s="102"/>
+      <c r="B210" s="102"/>
+      <c r="C210" s="102"/>
+      <c r="D210" s="102"/>
+      <c r="E210" s="102"/>
+      <c r="F210" s="102"/>
+      <c r="G210" s="102"/>
+      <c r="H210" s="102"/>
+      <c r="I210" s="102"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="111" t="str">
+      <c r="C212" s="103" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="112"/>
-      <c r="E212" s="112"/>
-      <c r="F212" s="112"/>
-      <c r="G212" s="112"/>
+      <c r="D212" s="106"/>
+      <c r="E212" s="106"/>
+      <c r="F212" s="106"/>
+      <c r="G212" s="106"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="110">
+      <c r="A260" s="102">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="110"/>
-      <c r="C260" s="110"/>
-      <c r="D260" s="110"/>
-      <c r="E260" s="110"/>
-      <c r="F260" s="110"/>
-      <c r="G260" s="110"/>
-      <c r="H260" s="110"/>
-      <c r="I260" s="110"/>
+      <c r="B260" s="102"/>
+      <c r="C260" s="102"/>
+      <c r="D260" s="102"/>
+      <c r="E260" s="102"/>
+      <c r="F260" s="102"/>
+      <c r="G260" s="102"/>
+      <c r="H260" s="102"/>
+      <c r="I260" s="102"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="110"/>
-      <c r="B261" s="110"/>
-      <c r="C261" s="110"/>
-      <c r="D261" s="110"/>
-      <c r="E261" s="110"/>
-      <c r="F261" s="110"/>
-      <c r="G261" s="110"/>
-      <c r="H261" s="110"/>
-      <c r="I261" s="110"/>
+      <c r="A261" s="102"/>
+      <c r="B261" s="102"/>
+      <c r="C261" s="102"/>
+      <c r="D261" s="102"/>
+      <c r="E261" s="102"/>
+      <c r="F261" s="102"/>
+      <c r="G261" s="102"/>
+      <c r="H261" s="102"/>
+      <c r="I261" s="102"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="110"/>
-      <c r="B262" s="110"/>
-      <c r="C262" s="110"/>
-      <c r="D262" s="110"/>
-      <c r="E262" s="110"/>
-      <c r="F262" s="110"/>
-      <c r="G262" s="110"/>
-      <c r="H262" s="110"/>
-      <c r="I262" s="110"/>
+      <c r="A262" s="102"/>
+      <c r="B262" s="102"/>
+      <c r="C262" s="102"/>
+      <c r="D262" s="102"/>
+      <c r="E262" s="102"/>
+      <c r="F262" s="102"/>
+      <c r="G262" s="102"/>
+      <c r="H262" s="102"/>
+      <c r="I262" s="102"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="112" t="str">
+      <c r="C264" s="106" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="113"/>
-      <c r="E264" s="113"/>
-      <c r="F264" s="113"/>
-      <c r="G264" s="113"/>
+      <c r="D264" s="104"/>
+      <c r="E264" s="104"/>
+      <c r="F264" s="104"/>
+      <c r="G264" s="104"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="110">
+      <c r="A312" s="102">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="110"/>
-      <c r="C312" s="110"/>
-      <c r="D312" s="110"/>
-      <c r="E312" s="110"/>
-      <c r="F312" s="110"/>
-      <c r="G312" s="110"/>
-      <c r="H312" s="110"/>
-      <c r="I312" s="110"/>
+      <c r="B312" s="102"/>
+      <c r="C312" s="102"/>
+      <c r="D312" s="102"/>
+      <c r="E312" s="102"/>
+      <c r="F312" s="102"/>
+      <c r="G312" s="102"/>
+      <c r="H312" s="102"/>
+      <c r="I312" s="102"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="110"/>
-      <c r="B313" s="110"/>
-      <c r="C313" s="110"/>
-      <c r="D313" s="110"/>
-      <c r="E313" s="110"/>
-      <c r="F313" s="110"/>
-      <c r="G313" s="110"/>
-      <c r="H313" s="110"/>
-      <c r="I313" s="110"/>
+      <c r="A313" s="102"/>
+      <c r="B313" s="102"/>
+      <c r="C313" s="102"/>
+      <c r="D313" s="102"/>
+      <c r="E313" s="102"/>
+      <c r="F313" s="102"/>
+      <c r="G313" s="102"/>
+      <c r="H313" s="102"/>
+      <c r="I313" s="102"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="110"/>
-      <c r="B314" s="110"/>
-      <c r="C314" s="110"/>
-      <c r="D314" s="110"/>
-      <c r="E314" s="110"/>
-      <c r="F314" s="110"/>
-      <c r="G314" s="110"/>
-      <c r="H314" s="110"/>
-      <c r="I314" s="110"/>
+      <c r="A314" s="102"/>
+      <c r="B314" s="102"/>
+      <c r="C314" s="102"/>
+      <c r="D314" s="102"/>
+      <c r="E314" s="102"/>
+      <c r="F314" s="102"/>
+      <c r="G314" s="102"/>
+      <c r="H314" s="102"/>
+      <c r="I314" s="102"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="111" t="str">
+      <c r="C316" s="103" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="113"/>
-      <c r="E316" s="113"/>
-      <c r="F316" s="113"/>
-      <c r="G316" s="113"/>
+      <c r="D316" s="104"/>
+      <c r="E316" s="104"/>
+      <c r="F316" s="104"/>
+      <c r="G316" s="104"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="110">
+      <c r="A365" s="102">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="110"/>
-      <c r="C365" s="110"/>
-      <c r="D365" s="110"/>
-      <c r="E365" s="110"/>
-      <c r="F365" s="110"/>
-      <c r="G365" s="110"/>
-      <c r="H365" s="110"/>
-      <c r="I365" s="110"/>
+      <c r="B365" s="102"/>
+      <c r="C365" s="102"/>
+      <c r="D365" s="102"/>
+      <c r="E365" s="102"/>
+      <c r="F365" s="102"/>
+      <c r="G365" s="102"/>
+      <c r="H365" s="102"/>
+      <c r="I365" s="102"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="110"/>
-      <c r="B366" s="110"/>
-      <c r="C366" s="110"/>
-      <c r="D366" s="110"/>
-      <c r="E366" s="110"/>
-      <c r="F366" s="110"/>
-      <c r="G366" s="110"/>
-      <c r="H366" s="110"/>
-      <c r="I366" s="110"/>
+      <c r="A366" s="102"/>
+      <c r="B366" s="102"/>
+      <c r="C366" s="102"/>
+      <c r="D366" s="102"/>
+      <c r="E366" s="102"/>
+      <c r="F366" s="102"/>
+      <c r="G366" s="102"/>
+      <c r="H366" s="102"/>
+      <c r="I366" s="102"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="110"/>
-      <c r="B367" s="110"/>
-      <c r="C367" s="110"/>
-      <c r="D367" s="110"/>
-      <c r="E367" s="110"/>
-      <c r="F367" s="110"/>
-      <c r="G367" s="110"/>
-      <c r="H367" s="110"/>
-      <c r="I367" s="110"/>
+      <c r="A367" s="102"/>
+      <c r="B367" s="102"/>
+      <c r="C367" s="102"/>
+      <c r="D367" s="102"/>
+      <c r="E367" s="102"/>
+      <c r="F367" s="102"/>
+      <c r="G367" s="102"/>
+      <c r="H367" s="102"/>
+      <c r="I367" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -14559,56 +14567,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="K1" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="110" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>5</v>
@@ -14619,44 +14627,44 @@
       <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Z1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AA1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AB1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6">
+      <c r="A2" s="96"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="111">
         <f t="shared" ref="O2:Q7" si="0">B2/1000000</f>
         <v>0</v>
       </c>
@@ -14680,32 +14688,32 @@
         <f t="shared" ref="T2:T7" si="3">F2-J2</f>
         <v>0</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="6">
+      <c r="A3" s="93"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14729,50 +14737,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="17">
+      <c r="V3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="14">
         <f t="shared" ref="W3:AB3" si="4">W2-W7</f>
         <v>0</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="6">
+      <c r="A4" s="96"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14796,32 +14804,32 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="6">
+      <c r="A5" s="93"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14845,50 +14853,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="17">
+      <c r="V5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="14">
         <f t="shared" ref="W5:AB5" si="5">W4-W8</f>
         <v>0</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="6">
+      <c r="A6" s="96"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14914,21 +14922,21 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="6">
+      <c r="A7" s="93"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14953,14 +14961,14 @@
         <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="H8" s="1"/>
@@ -14968,982 +14976,982 @@
       <c r="J8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="V8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="114" t="str">
+      <c r="A9" s="107" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="114" t="str">
+      <c r="H9" s="107" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:31" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="68" t="s">
+      <c r="D10" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="44" t="s">
+      <c r="F10" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="46" t="s">
+      <c r="I10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="74" t="s">
+      <c r="K10" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="108" t="s">
-        <v>42</v>
+      <c r="M10" s="101" t="s">
+        <v>39</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="13">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="10">
         <f>C11/10000</f>
         <v>0</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <f>D11/10000</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="10">
         <f>E11/10000</f>
         <v>0</v>
       </c>
-      <c r="R11" s="13" t="str">
+      <c r="R11" s="10" t="str">
         <f>IF(OR(F11="",F11=0),"",(D11+F11)/10000)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="99"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="13">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="92"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="10">
         <f t="shared" ref="O12:O38" si="6">C12/10000</f>
         <v>0</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <f t="shared" ref="P12:P38" si="7">D12/10000</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="10">
         <f t="shared" ref="Q12:Q38" si="8">E12/10000</f>
         <v>0</v>
       </c>
-      <c r="R12" s="13" t="str">
+      <c r="R12" s="10" t="str">
         <f t="shared" ref="R12:R38" si="9">IF(OR(F12="",F12=0),"",(D12+F12)/10000)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="102"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="13">
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="95"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R13" s="13" t="str">
+      <c r="R13" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="99"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="13">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="92"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R14" s="13" t="str">
+      <c r="R14" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A15" s="36"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="102"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="106"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="95"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="99"/>
       <c r="N15"/>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R15" s="13" t="str">
+      <c r="R15" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="99"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="104"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="92"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="97"/>
       <c r="N16"/>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R16" s="13" t="str">
+      <c r="R16" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="102"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="106"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="95"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="99"/>
       <c r="N17"/>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="str">
+      <c r="R17" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="99"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="104"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="92"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="97"/>
       <c r="N18"/>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R18" s="13" t="str">
+      <c r="R18" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="102"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="106"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="95"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="99"/>
       <c r="N19"/>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="str">
+      <c r="R19" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="99"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="104"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="92"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="97"/>
       <c r="N20"/>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R20" s="13" t="str">
+      <c r="R20" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" s="36"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="102"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="106"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="95"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="99"/>
       <c r="N21"/>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R21" s="13" t="str">
+      <c r="R21" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="99"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="104"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="92"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="97"/>
       <c r="N22"/>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="13" t="str">
+      <c r="R22" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="102"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="106"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="95"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="99"/>
       <c r="N23"/>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="13" t="str">
+      <c r="R23" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="99"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="104"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="92"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="97"/>
       <c r="N24"/>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="13" t="str">
+      <c r="R24" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="102"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="106"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="95"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="99"/>
       <c r="N25"/>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="13" t="str">
+      <c r="R25" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="104"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="97"/>
       <c r="N26"/>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="13" t="str">
+      <c r="R26" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="102"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="106"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="95"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="99"/>
       <c r="N27"/>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="str">
+      <c r="R27" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="99"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="104"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="92"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="97"/>
       <c r="N28"/>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R28" s="13" t="str">
+      <c r="R28" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="102"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="106"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="95"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="99"/>
       <c r="N29"/>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R29" s="13" t="str">
+      <c r="R29" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="99"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="104"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="92"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="97"/>
       <c r="N30"/>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R30" s="13" t="str">
+      <c r="R30" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" s="36"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="102"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="106"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="95"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="99"/>
       <c r="N31"/>
-      <c r="O31" s="13">
+      <c r="O31" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R31" s="13" t="str">
+      <c r="R31" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="99"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="104"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="92"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="97"/>
       <c r="N32"/>
-      <c r="O32" s="13">
+      <c r="O32" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R32" s="13" t="str">
+      <c r="R32" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="36"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="102"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="106"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="95"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="99"/>
       <c r="N33"/>
-      <c r="O33" s="13">
+      <c r="O33" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R33" s="13" t="str">
+      <c r="R33" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="99"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="104"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="92"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="97"/>
       <c r="N34"/>
-      <c r="O34" s="13">
+      <c r="O34" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R34" s="13" t="str">
+      <c r="R34" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" s="36"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="102"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="106"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="95"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="99"/>
       <c r="N35"/>
-      <c r="O35" s="13">
+      <c r="O35" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R35" s="13" t="str">
+      <c r="R35" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="99"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="104"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="92"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="97"/>
       <c r="N36"/>
-      <c r="O36" s="13">
+      <c r="O36" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R36" s="13" t="str">
+      <c r="R36" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="36"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="102"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="106"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="95"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="99"/>
       <c r="N37"/>
-      <c r="O37" s="13">
+      <c r="O37" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R37" s="13" t="str">
+      <c r="R37" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="99"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="104"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="92"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="97"/>
       <c r="N38"/>
-      <c r="O38" s="13">
+      <c r="O38" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R38" s="13" t="str">
+      <c r="R38" s="10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="103"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="107"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="96"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="100"/>
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="34"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="100"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="38"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="93"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15952,28 +15960,28 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$E39&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L40">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$L39&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AB3">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:AB5">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16025,1000 +16033,1000 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="114" t="str">
+      <c r="A1" s="107" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="H1" s="116" t="str">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="H1" s="109" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="108" t="s">
-        <v>42</v>
+      <c r="M2" s="101" t="s">
+        <v>39</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="13">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10">
         <f>C3/10000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
         <f>D3/10000</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="10">
         <f>E3/10000</f>
         <v>0</v>
       </c>
-      <c r="R3" s="13" t="str">
+      <c r="R3" s="10" t="str">
         <f>IF(OR(F3="",F3=0),"",(D3+F3)/10000)</f>
         <v/>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="13">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="92"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="10">
         <f t="shared" ref="O4:O30" si="0">C4/10000</f>
         <v>0</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="10">
         <f t="shared" ref="P4:P30" si="1">D4/10000</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="10">
         <f t="shared" ref="Q4:Q30" si="2">E4/10000</f>
         <v>0</v>
       </c>
-      <c r="R4" s="13" t="str">
+      <c r="R4" s="10" t="str">
         <f t="shared" ref="R4:R30" si="3">IF(OR(F4="",F4=0),"",(D4+F4)/10000)</f>
         <v/>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="52"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13">
+      <c r="A5" s="45"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="95"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="13" t="str">
+      <c r="R5" s="10" t="str">
         <f>IF(OR(F5="",F5=0),"",(D5+F5)/10000)</f>
         <v/>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="99"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="92"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="102"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="106"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="95"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="99"/>
       <c r="N7"/>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="99"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="104"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="92"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="97"/>
       <c r="N8"/>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="13" t="str">
+      <c r="R8" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="52"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="102"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="106"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="95"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="99"/>
       <c r="N9"/>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="99"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="104"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="92"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="97"/>
       <c r="N10"/>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="52"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="102"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="106"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="95"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="99"/>
       <c r="N11"/>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R11" s="13" t="str">
+      <c r="R11" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="99"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="104"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="92"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="97"/>
       <c r="N12"/>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R12" s="13" t="str">
+      <c r="R12" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="52"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="102"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="106"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="95"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="99"/>
       <c r="N13"/>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="13" t="str">
+      <c r="R13" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="99"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="104"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="92"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="97"/>
       <c r="N14"/>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14" s="13" t="str">
+      <c r="R14" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="102"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="106"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="95"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="99"/>
       <c r="N15"/>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="13" t="str">
+      <c r="R15" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="99"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="104"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="92"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="97"/>
       <c r="N16"/>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="13" t="str">
+      <c r="R16" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="102"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="106"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="95"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="99"/>
       <c r="N17"/>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="str">
+      <c r="R17" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="99"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="104"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="92"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="97"/>
       <c r="N18"/>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="13" t="str">
+      <c r="R18" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="52"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="102"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="106"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="95"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="99"/>
       <c r="N19"/>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="str">
+      <c r="R19" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="99"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="104"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="92"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="97"/>
       <c r="N20"/>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="13" t="str">
+      <c r="R20" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="52"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="102"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="106"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="95"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="99"/>
       <c r="N21"/>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="13" t="str">
+      <c r="R21" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="99"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="104"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="92"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="97"/>
       <c r="N22"/>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="13" t="str">
+      <c r="R22" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="52"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="102"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="106"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="95"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="99"/>
       <c r="N23"/>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="13" t="str">
+      <c r="R23" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="99"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="104"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="92"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="97"/>
       <c r="N24"/>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R24" s="13" t="str">
+      <c r="R24" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="52"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="102"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="106"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="95"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="99"/>
       <c r="N25"/>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R25" s="13" t="str">
+      <c r="R25" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="99"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="104"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="92"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="97"/>
       <c r="N26"/>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26" s="13" t="str">
+      <c r="R26" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="52"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="102"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="106"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="95"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="99"/>
       <c r="N27"/>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="str">
+      <c r="R27" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="99"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="104"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="92"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="97"/>
       <c r="N28"/>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R28" s="13" t="str">
+      <c r="R28" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="52"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="102"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="106"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="95"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="99"/>
       <c r="N29"/>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R29" s="13" t="str">
+      <c r="R29" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="99"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="104"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="92"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="97"/>
       <c r="N30"/>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R30" s="13" t="str">
+      <c r="R30" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="103"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="107"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="96"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="100"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="100"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="93"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17027,12 +17035,12 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$E31&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L32">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$L31&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17084,1000 +17092,1000 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="114" t="str">
+      <c r="A1" s="107" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="H1" s="116" t="str">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="H1" s="109" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="D2" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="44" t="s">
+      <c r="F2" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="108" t="s">
-        <v>42</v>
+      <c r="M2" s="101" t="s">
+        <v>39</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="13">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10">
         <f>C3/10000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
         <f>D3/10000</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="10">
         <f>E3/10000</f>
         <v>0</v>
       </c>
-      <c r="R3" s="13" t="str">
+      <c r="R3" s="10" t="str">
         <f>IF(OR(F3="",F3=0),"",(D3+F3)/10000)</f>
         <v/>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="13">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="92"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="10">
         <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
         <v>0</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="13" t="str">
+      <c r="R4" s="10" t="str">
         <f t="shared" ref="R4:R30" si="1">IF(OR(F4="",F4=0),"",(D4+F4)/10000)</f>
         <v/>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="52"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13">
+      <c r="A5" s="45"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="95"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="13" t="str">
+      <c r="R5" s="10" t="str">
         <f>IF(OR(F5="",F5=0),"",(D5+F5)/10000)</f>
         <v/>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="99"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="92"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="102"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="106"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="95"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="99"/>
       <c r="N7"/>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="99"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="104"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="92"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="97"/>
       <c r="N8"/>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="13" t="str">
+      <c r="R8" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="52"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="102"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="106"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="95"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="99"/>
       <c r="N9"/>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="99"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="104"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="92"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="97"/>
       <c r="N10"/>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="52"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="102"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="106"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="95"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="99"/>
       <c r="N11"/>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R11" s="13" t="str">
+      <c r="R11" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="99"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="104"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="92"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="97"/>
       <c r="N12"/>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="13" t="str">
+      <c r="R12" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="52"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="102"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="106"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="95"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="99"/>
       <c r="N13"/>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R13" s="13" t="str">
+      <c r="R13" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="99"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="104"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="92"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="97"/>
       <c r="N14"/>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="13" t="str">
+      <c r="R14" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="102"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="106"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="95"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="99"/>
       <c r="N15"/>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="13" t="str">
+      <c r="R15" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="99"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="104"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="92"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="97"/>
       <c r="N16"/>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="13" t="str">
+      <c r="R16" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="102"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="106"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="95"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="99"/>
       <c r="N17"/>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="str">
+      <c r="R17" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="99"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="104"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="92"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="97"/>
       <c r="N18"/>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="13" t="str">
+      <c r="R18" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="52"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="102"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="106"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="95"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="99"/>
       <c r="N19"/>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="str">
+      <c r="R19" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="99"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="104"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="92"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="97"/>
       <c r="N20"/>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="13" t="str">
+      <c r="R20" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="52"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="102"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="106"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="95"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="99"/>
       <c r="N21"/>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R21" s="13" t="str">
+      <c r="R21" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="99"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="104"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="92"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="97"/>
       <c r="N22"/>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22" s="13" t="str">
+      <c r="R22" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="52"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="102"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="106"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="95"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="99"/>
       <c r="N23"/>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="13" t="str">
+      <c r="R23" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="99"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="104"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="92"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="97"/>
       <c r="N24"/>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="13" t="str">
+      <c r="R24" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="52"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="102"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="106"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="95"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="99"/>
       <c r="N25"/>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="13" t="str">
+      <c r="R25" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="99"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="104"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="92"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="97"/>
       <c r="N26"/>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="13" t="str">
+      <c r="R26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="52"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="102"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="106"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="95"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="99"/>
       <c r="N27"/>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="str">
+      <c r="R27" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="99"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="104"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="92"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="97"/>
       <c r="N28"/>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R28" s="13" t="str">
+      <c r="R28" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="52"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="102"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="106"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="95"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="99"/>
       <c r="N29"/>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R29" s="13" t="str">
+      <c r="R29" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="99"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="104"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="92"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="97"/>
       <c r="N30"/>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R30" s="13" t="str">
+      <c r="R30" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="103"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="107"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="96"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="100"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="100"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="93"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973ECC8C-C0B7-4AFE-B4E5-38DCEA4FC2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A746550-0A5A-4062-A2E0-3C3C01F0D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37155" yWindow="-2550" windowWidth="27375" windowHeight="17475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28680" yWindow="1215" windowWidth="24060" windowHeight="14745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>月度</t>
   </si>
@@ -204,14 +204,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>売上（仮予約含む）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確定泊数（仮予約含む）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>計画総室数</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -260,22 +252,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>見込み売上+ 仮（百万）</t>
-    <rPh sb="0" eb="2">
-      <t>ミコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒャクマン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>仮売上</t>
     <rPh sb="0" eb="1">
       <t>カリ</t>
@@ -314,6 +290,172 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>見込み売上（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>見込み稼働率（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カドウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>確定泊数（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">※ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：仮予約含む</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カリヨヤク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>見込み売上（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)（百万）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒャクマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -323,9 +465,9 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="178" formatCode="0.0%;\-0.0%;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -467,8 +609,16 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,12 +635,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
@@ -531,14 +675,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -690,21 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -742,21 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -769,6 +883,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -778,7 +922,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -801,120 +945,124 @@
     <xf numFmtId="41" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="11" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -933,30 +1081,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -964,37 +1088,7 @@
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1223,6 +1317,7 @@
               <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
               <a:t>売上　計画ｘ見込み</a:t>
             </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1259,7 +1354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1289,7 +1384,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 計画売上（百万円) </c:v>
+                  <c:v>計画売上（百万円)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1415,7 +1510,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 見込み売上（百万円) </c:v>
+                  <c:v>見込み売上（百万円)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1567,7 +1662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 見込み売上+ 仮（百万） </c:v>
+                  <c:v>見込み売上（仮)（百万）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1725,7 +1820,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 売上　達成率 </c:v>
+                  <c:v>売上　達成率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2022,6 +2117,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4081408110890631E-2"/>
+          <c:y val="0.87043936709982861"/>
+          <c:w val="0.85183704777616243"/>
+          <c:h val="6.0867736124320324E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2080,6 +2185,7 @@
     <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2510,7 +2616,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 稼働率　前日対比 </c:v>
+                  <c:v>稼働率　前日対比</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2656,7 +2762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 稼働率　達成率 </c:v>
+                  <c:v>稼働率　達成率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3078,7 +3184,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11260541316252058"/>
+          <c:y val="1.403509053939455E-2"/>
+          <c:w val="0.86840985548094085"/>
+          <c:h val="0.92861302864293738"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -3092,7 +3208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
+                  <c:v>見込み稼働率（仮)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3172,7 +3288,7 @@
             <c:numRef>
               <c:f>合計データ!$M$11:$M$40</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.0%;\-0.0%;"-"</c:formatCode>
                 <c:ptCount val="30"/>
               </c:numCache>
             </c:numRef>
@@ -3216,6 +3332,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;-&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3328,6 +3445,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;-&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3438,7 +3556,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3589,7 +3707,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%;\-0.0%;&quot;-&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -3634,6 +3752,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23575815599415373"/>
+          <c:y val="0.95157954043467385"/>
+          <c:w val="0.52848355211526188"/>
+          <c:h val="2.0350278486537011E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3699,6 +3827,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3737,7 +3866,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-              <a:t>稼働率　計画ｘ見込み（仮予約含まない・含む）</a:t>
+              <a:t>稼働率　計画ｘ見込み</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3779,9 +3908,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="2.2174603174603173E-2"/>
-          <c:y val="8.1844444444444428E-2"/>
+          <c:y val="0.11779964823249213"/>
           <c:w val="0.95565079365079364"/>
-          <c:h val="0.72437638888888889"/>
+          <c:h val="0.62999366535373158"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -3973,7 +4102,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
+                  <c:v>見込み稼働率（仮)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4213,8 +4342,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2015873015873015E-2"/>
-          <c:y val="0.86612250000000002"/>
+          <c:x val="5.2015807585871203E-2"/>
+          <c:y val="0.81668383037303638"/>
           <c:w val="0.87589682539682545"/>
           <c:h val="0.10724111111111111"/>
         </c:manualLayout>
@@ -4277,6 +4406,7 @@
     <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4296,7 +4426,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11260541316252058"/>
+          <c:y val="1.408631208753801E-2"/>
+          <c:w val="0.86840985548094085"/>
+          <c:h val="0.92707192559684592"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -4386,6 +4526,15 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ2!$A$3:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>合計データ2!$R$3:$R$32</c:f>
@@ -4518,6 +4667,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4575,7 +4725,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>合計データ!$A$11:$A$40</c:f>
+              <c:f>合計データ2!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4714,6 +4864,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4771,7 +4922,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>合計データ!$A$11:$A$40</c:f>
+              <c:f>合計データ2!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4966,7 +5117,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>合計データ!$A$11:$A$40</c:f>
+              <c:f>合計データ2!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5188,6 +5339,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17542299462733457"/>
+          <c:y val="0.94884168064122265"/>
+          <c:w val="0.64915401074533075"/>
+          <c:h val="2.0424547531421703E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5253,6 +5414,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5272,7 +5434,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11260541316252058"/>
+          <c:y val="1.40485312899106E-2"/>
+          <c:w val="0.86840985548094085"/>
+          <c:h val="0.92982180388370994"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -5362,6 +5534,15 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>合計データ3!$A$3:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>合計データ3!$R$3:$R$32</c:f>
@@ -5494,6 +5675,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5551,7 +5733,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>合計データ!$A$11:$A$40</c:f>
+              <c:f>合計データ3!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5690,6 +5872,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5747,7 +5930,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>合計データ!$A$11:$A$40</c:f>
+              <c:f>合計データ3!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5942,7 +6125,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>合計データ!$A$11:$A$40</c:f>
+              <c:f>合計データ3!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6164,6 +6347,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17542299462733457"/>
+          <c:y val="0.95664172725535745"/>
+          <c:w val="0.64915401074533075"/>
+          <c:h val="2.0369766997516116E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6229,6 +6422,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6248,7 +6442,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11260541316252058"/>
+          <c:y val="1.4016311294146992E-2"/>
+          <c:w val="0.86840985548094085"/>
+          <c:h val="0.92870854590652974"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -6342,7 +6546,7 @@
             <c:numRef>
               <c:f>合計データ2!$M$3:$M$32</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.0%;\-0.0%;"-"</c:formatCode>
                 <c:ptCount val="30"/>
               </c:numCache>
             </c:numRef>
@@ -6386,6 +6590,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;-&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6498,6 +6703,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;-&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6608,7 +6814,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6759,7 +6965,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%;\-0.0%;&quot;-&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -6804,6 +7010,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23885972023001828"/>
+          <c:y val="0.95037011790657511"/>
+          <c:w val="0.52228055953996344"/>
+          <c:h val="2.0323049387481175E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6869,6 +7085,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6888,7 +7105,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11260541316252058"/>
+          <c:y val="1.3743561087521988E-2"/>
+          <c:w val="0.86840985548094085"/>
+          <c:h val="0.93134525556924119"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -6982,7 +7209,7 @@
             <c:numRef>
               <c:f>合計データ3!$M$3:$M$32</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.0%;\-0.0%;"-"</c:formatCode>
                 <c:ptCount val="30"/>
               </c:numCache>
             </c:numRef>
@@ -7026,6 +7253,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;-&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7138,6 +7366,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;-&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7248,7 +7477,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0%;\-0%;&quot;&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0.0%;\▲0.0%;&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7399,7 +7628,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%;\-0.0%;&quot;-&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
@@ -7444,6 +7673,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23885972023001828"/>
+          <c:y val="0.95383471916700446"/>
+          <c:w val="0.52228055953996344"/>
+          <c:h val="1.9927573302271771E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7509,6 +7748,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7528,7 +7768,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11254700432130751"/>
+          <c:y val="1.4113422005764781E-2"/>
+          <c:w val="0.86847808887237843"/>
+          <c:h val="0.93462980150588315"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -7542,7 +7792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> 見込売上+仮（万円) </c:v>
+                  <c:v>見込み売上（仮)（百万）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7750,6 +8000,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7946,6 +8197,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -8420,6 +8672,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15826512033174167"/>
+          <c:y val="0.9538753769682895"/>
+          <c:w val="0.68346962351041207"/>
+          <c:h val="2.046385574850185E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8485,6 +8747,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -13818,6 +14081,870 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09612</cdr:x>
+      <cdr:y>0.92526</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36427</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1301593B-13E8-89FC-9315-C0D5C301F69F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="706754" y="3079116"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24637</cdr:x>
+      <cdr:y>0.96874</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51431</cdr:x>
+      <cdr:y>0.99373</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C43D3-1EB8-66A3-D83D-9CD07D7CA24D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1812925" y="9642475"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14957</cdr:x>
+      <cdr:y>0.89439</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41803</cdr:x>
+      <cdr:y>0.98241</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B10103-0A74-BCAE-5B97-727360709A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1098550" y="2527300"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18942</cdr:x>
+      <cdr:y>0.96843</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45736</cdr:x>
+      <cdr:y>0.99351</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BF31CA-6E0F-3DC6-75CF-0D7C5CC942D4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1393825" y="9604375"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19071</cdr:x>
+      <cdr:y>0.97446</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45865</cdr:x>
+      <cdr:y>0.99947</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60EEEED-807B-A53E-A5B7-B4C6B55E7DDF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1403350" y="9690100"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25025</cdr:x>
+      <cdr:y>0.96744</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5182</cdr:x>
+      <cdr:y>0.9924</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037AAE61-E98E-8960-53E0-56910ED148A9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1841500" y="9642475"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24896</cdr:x>
+      <cdr:y>0.97017</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5169</cdr:x>
+      <cdr:y>0.99464</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72539DBE-6321-20A6-40E5-0DED2E2AEE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1831975" y="9861550"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1725</cdr:x>
+      <cdr:y>0.97126</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4403</cdr:x>
+      <cdr:y>0.99639</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8ABF9F-11AF-3C39-0611-D50E38B842CD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1270000" y="9613900"/>
+          <a:ext cx="1971675" cy="248739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仮：仮予約含む</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -13999,7 +15126,7 @@
   </sheetPr>
   <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -14009,18 +15136,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="105" t="str">
+      <c r="A1" s="91" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月26日</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+        <v>デイリーレポート - 26年01月27日</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -14075,30 +15202,30 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <f>合計データ!W3</f>
         <v>0</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <f>合計データ!X3</f>
         <v>0</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="21">
         <f>合計データ!Y3</f>
         <v>0</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="21">
         <f>合計データ!Z3</f>
         <v>0</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="21">
         <f>合計データ!AA3</f>
         <v>0</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="21">
         <f>合計データ!AB3</f>
         <v>0</v>
       </c>
@@ -14133,30 +15260,30 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <f>合計データ!W5</f>
         <v>0</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <f>合計データ!X5</f>
         <v>0</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <f>合計データ!Y5</f>
         <v>0</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <f>合計データ!Z5</f>
         <v>0</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="21">
         <f>合計データ!AA5</f>
         <v>0</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="21">
         <f>合計データ!AB5</f>
         <v>0</v>
       </c>
@@ -14171,321 +15298,321 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="102"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="102"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="102"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="106" t="str">
+      <c r="C56" s="92" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="102">
+      <c r="A104" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="102"/>
-      <c r="C104" s="102"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
-      <c r="F104" s="102"/>
-      <c r="G104" s="102"/>
-      <c r="H104" s="102"/>
-      <c r="I104" s="102"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="102"/>
-      <c r="B105" s="102"/>
-      <c r="C105" s="102"/>
-      <c r="D105" s="102"/>
-      <c r="E105" s="102"/>
-      <c r="F105" s="102"/>
-      <c r="G105" s="102"/>
-      <c r="H105" s="102"/>
-      <c r="I105" s="102"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="88"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="102"/>
-      <c r="B106" s="102"/>
-      <c r="C106" s="102"/>
-      <c r="D106" s="102"/>
-      <c r="E106" s="102"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="102"/>
-      <c r="H106" s="102"/>
-      <c r="I106" s="102"/>
+      <c r="A106" s="88"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="106" t="str">
+      <c r="C108" s="92" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="104"/>
-      <c r="G108" s="104"/>
+      <c r="D108" s="90"/>
+      <c r="E108" s="90"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="102">
+      <c r="A156" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="102"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="102"/>
-      <c r="E156" s="102"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="102"/>
-      <c r="H156" s="102"/>
-      <c r="I156" s="102"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="88"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="88"/>
+      <c r="H156" s="88"/>
+      <c r="I156" s="88"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="102"/>
-      <c r="B157" s="102"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="102"/>
-      <c r="E157" s="102"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="102"/>
-      <c r="H157" s="102"/>
-      <c r="I157" s="102"/>
+      <c r="A157" s="88"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="88"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="88"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="88"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="102"/>
-      <c r="B158" s="102"/>
-      <c r="C158" s="102"/>
-      <c r="D158" s="102"/>
-      <c r="E158" s="102"/>
-      <c r="F158" s="102"/>
-      <c r="G158" s="102"/>
-      <c r="H158" s="102"/>
-      <c r="I158" s="102"/>
+      <c r="A158" s="88"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="88"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="88"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="106" t="str">
+      <c r="C160" s="92" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="106"/>
-      <c r="E160" s="106"/>
-      <c r="F160" s="106"/>
-      <c r="G160" s="106"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="92"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="102">
+      <c r="A208" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="102"/>
-      <c r="C208" s="102"/>
-      <c r="D208" s="102"/>
-      <c r="E208" s="102"/>
-      <c r="F208" s="102"/>
-      <c r="G208" s="102"/>
-      <c r="H208" s="102"/>
-      <c r="I208" s="102"/>
+      <c r="B208" s="88"/>
+      <c r="C208" s="88"/>
+      <c r="D208" s="88"/>
+      <c r="E208" s="88"/>
+      <c r="F208" s="88"/>
+      <c r="G208" s="88"/>
+      <c r="H208" s="88"/>
+      <c r="I208" s="88"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="102"/>
-      <c r="B209" s="102"/>
-      <c r="C209" s="102"/>
-      <c r="D209" s="102"/>
-      <c r="E209" s="102"/>
-      <c r="F209" s="102"/>
-      <c r="G209" s="102"/>
-      <c r="H209" s="102"/>
-      <c r="I209" s="102"/>
+      <c r="A209" s="88"/>
+      <c r="B209" s="88"/>
+      <c r="C209" s="88"/>
+      <c r="D209" s="88"/>
+      <c r="E209" s="88"/>
+      <c r="F209" s="88"/>
+      <c r="G209" s="88"/>
+      <c r="H209" s="88"/>
+      <c r="I209" s="88"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="102"/>
-      <c r="B210" s="102"/>
-      <c r="C210" s="102"/>
-      <c r="D210" s="102"/>
-      <c r="E210" s="102"/>
-      <c r="F210" s="102"/>
-      <c r="G210" s="102"/>
-      <c r="H210" s="102"/>
-      <c r="I210" s="102"/>
+      <c r="A210" s="88"/>
+      <c r="B210" s="88"/>
+      <c r="C210" s="88"/>
+      <c r="D210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="88"/>
+      <c r="G210" s="88"/>
+      <c r="H210" s="88"/>
+      <c r="I210" s="88"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="103" t="str">
+      <c r="C212" s="89" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="106"/>
-      <c r="E212" s="106"/>
-      <c r="F212" s="106"/>
-      <c r="G212" s="106"/>
+      <c r="D212" s="92"/>
+      <c r="E212" s="92"/>
+      <c r="F212" s="92"/>
+      <c r="G212" s="92"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="102">
+      <c r="A260" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="102"/>
-      <c r="C260" s="102"/>
-      <c r="D260" s="102"/>
-      <c r="E260" s="102"/>
-      <c r="F260" s="102"/>
-      <c r="G260" s="102"/>
-      <c r="H260" s="102"/>
-      <c r="I260" s="102"/>
+      <c r="B260" s="88"/>
+      <c r="C260" s="88"/>
+      <c r="D260" s="88"/>
+      <c r="E260" s="88"/>
+      <c r="F260" s="88"/>
+      <c r="G260" s="88"/>
+      <c r="H260" s="88"/>
+      <c r="I260" s="88"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="102"/>
-      <c r="B261" s="102"/>
-      <c r="C261" s="102"/>
-      <c r="D261" s="102"/>
-      <c r="E261" s="102"/>
-      <c r="F261" s="102"/>
-      <c r="G261" s="102"/>
-      <c r="H261" s="102"/>
-      <c r="I261" s="102"/>
+      <c r="A261" s="88"/>
+      <c r="B261" s="88"/>
+      <c r="C261" s="88"/>
+      <c r="D261" s="88"/>
+      <c r="E261" s="88"/>
+      <c r="F261" s="88"/>
+      <c r="G261" s="88"/>
+      <c r="H261" s="88"/>
+      <c r="I261" s="88"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="102"/>
-      <c r="B262" s="102"/>
-      <c r="C262" s="102"/>
-      <c r="D262" s="102"/>
-      <c r="E262" s="102"/>
-      <c r="F262" s="102"/>
-      <c r="G262" s="102"/>
-      <c r="H262" s="102"/>
-      <c r="I262" s="102"/>
+      <c r="A262" s="88"/>
+      <c r="B262" s="88"/>
+      <c r="C262" s="88"/>
+      <c r="D262" s="88"/>
+      <c r="E262" s="88"/>
+      <c r="F262" s="88"/>
+      <c r="G262" s="88"/>
+      <c r="H262" s="88"/>
+      <c r="I262" s="88"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="106" t="str">
+      <c r="C264" s="92" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="104"/>
-      <c r="E264" s="104"/>
-      <c r="F264" s="104"/>
-      <c r="G264" s="104"/>
+      <c r="D264" s="90"/>
+      <c r="E264" s="90"/>
+      <c r="F264" s="90"/>
+      <c r="G264" s="90"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="102">
+      <c r="A312" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="102"/>
-      <c r="C312" s="102"/>
-      <c r="D312" s="102"/>
-      <c r="E312" s="102"/>
-      <c r="F312" s="102"/>
-      <c r="G312" s="102"/>
-      <c r="H312" s="102"/>
-      <c r="I312" s="102"/>
+      <c r="B312" s="88"/>
+      <c r="C312" s="88"/>
+      <c r="D312" s="88"/>
+      <c r="E312" s="88"/>
+      <c r="F312" s="88"/>
+      <c r="G312" s="88"/>
+      <c r="H312" s="88"/>
+      <c r="I312" s="88"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="102"/>
-      <c r="B313" s="102"/>
-      <c r="C313" s="102"/>
-      <c r="D313" s="102"/>
-      <c r="E313" s="102"/>
-      <c r="F313" s="102"/>
-      <c r="G313" s="102"/>
-      <c r="H313" s="102"/>
-      <c r="I313" s="102"/>
+      <c r="A313" s="88"/>
+      <c r="B313" s="88"/>
+      <c r="C313" s="88"/>
+      <c r="D313" s="88"/>
+      <c r="E313" s="88"/>
+      <c r="F313" s="88"/>
+      <c r="G313" s="88"/>
+      <c r="H313" s="88"/>
+      <c r="I313" s="88"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="102"/>
-      <c r="B314" s="102"/>
-      <c r="C314" s="102"/>
-      <c r="D314" s="102"/>
-      <c r="E314" s="102"/>
-      <c r="F314" s="102"/>
-      <c r="G314" s="102"/>
-      <c r="H314" s="102"/>
-      <c r="I314" s="102"/>
+      <c r="A314" s="88"/>
+      <c r="B314" s="88"/>
+      <c r="C314" s="88"/>
+      <c r="D314" s="88"/>
+      <c r="E314" s="88"/>
+      <c r="F314" s="88"/>
+      <c r="G314" s="88"/>
+      <c r="H314" s="88"/>
+      <c r="I314" s="88"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="103" t="str">
+      <c r="C316" s="89" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="104"/>
-      <c r="E316" s="104"/>
-      <c r="F316" s="104"/>
-      <c r="G316" s="104"/>
+      <c r="D316" s="90"/>
+      <c r="E316" s="90"/>
+      <c r="F316" s="90"/>
+      <c r="G316" s="90"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="102">
+      <c r="A365" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="102"/>
-      <c r="C365" s="102"/>
-      <c r="D365" s="102"/>
-      <c r="E365" s="102"/>
-      <c r="F365" s="102"/>
-      <c r="G365" s="102"/>
-      <c r="H365" s="102"/>
-      <c r="I365" s="102"/>
+      <c r="B365" s="88"/>
+      <c r="C365" s="88"/>
+      <c r="D365" s="88"/>
+      <c r="E365" s="88"/>
+      <c r="F365" s="88"/>
+      <c r="G365" s="88"/>
+      <c r="H365" s="88"/>
+      <c r="I365" s="88"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="102"/>
-      <c r="B366" s="102"/>
-      <c r="C366" s="102"/>
-      <c r="D366" s="102"/>
-      <c r="E366" s="102"/>
-      <c r="F366" s="102"/>
-      <c r="G366" s="102"/>
-      <c r="H366" s="102"/>
-      <c r="I366" s="102"/>
+      <c r="A366" s="88"/>
+      <c r="B366" s="88"/>
+      <c r="C366" s="88"/>
+      <c r="D366" s="88"/>
+      <c r="E366" s="88"/>
+      <c r="F366" s="88"/>
+      <c r="G366" s="88"/>
+      <c r="H366" s="88"/>
+      <c r="I366" s="88"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="102"/>
-      <c r="B367" s="102"/>
-      <c r="C367" s="102"/>
-      <c r="D367" s="102"/>
-      <c r="E367" s="102"/>
-      <c r="F367" s="102"/>
-      <c r="G367" s="102"/>
-      <c r="H367" s="102"/>
-      <c r="I367" s="102"/>
+      <c r="A367" s="88"/>
+      <c r="B367" s="88"/>
+      <c r="C367" s="88"/>
+      <c r="D367" s="88"/>
+      <c r="E367" s="88"/>
+      <c r="F367" s="88"/>
+      <c r="G367" s="88"/>
+      <c r="H367" s="88"/>
+      <c r="I367" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -14506,18 +15633,18 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C48:H48">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:H51">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14544,7 +15671,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
@@ -14566,105 +15693,105 @@
     <col min="32" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115" t="s">
+    <row r="1" spans="1:31" s="77" customFormat="1" ht="21.6" x14ac:dyDescent="0.45">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="12" t="s">
+      <c r="V1" s="78"/>
+      <c r="W1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="96"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="111">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="46">
         <f t="shared" ref="O2:Q7" si="0">B2/1000000</f>
         <v>0</v>
       </c>
@@ -14699,21 +15826,21 @@
       <c r="AB2" s="19"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A3" s="93"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="111">
+      <c r="A3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14766,21 +15893,21 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="96"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="111">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14815,21 +15942,21 @@
       <c r="AB4" s="19"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A5" s="93"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="111">
+      <c r="A5" s="42"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14882,21 +16009,21 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A6" s="96"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="111">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14922,21 +16049,21 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A7" s="93"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="111">
+      <c r="A7" s="42"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14971,6 +16098,9 @@
       <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -14985,90 +16115,90 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" spans="1:31" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="107" t="str">
+    <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="A9" s="93" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="107" t="str">
+      <c r="H9" s="93" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:31" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="37" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="I10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="67" t="s">
+      <c r="K10" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="101" t="s">
-        <v>39</v>
+      <c r="M10" s="71" t="s">
+        <v>38</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>38</v>
+      <c r="R10" s="76" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="95"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="98"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="84"/>
       <c r="N11" s="8"/>
       <c r="O11" s="10">
         <f>C11/10000</f>
@@ -15088,18 +16218,18 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="92"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="97"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="7"/>
       <c r="O12" s="10">
         <f t="shared" ref="O12:O38" si="6">C12/10000</f>
@@ -15119,18 +16249,19 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="95"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="99"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="60"/>
       <c r="N13" s="7"/>
       <c r="O13" s="10">
         <f t="shared" si="6"/>
@@ -15150,18 +16281,18 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="92"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="97"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="7"/>
       <c r="O14" s="10">
         <f t="shared" si="6"/>
@@ -15181,18 +16312,19 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="95"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="99"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="84"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="6"/>
@@ -15212,18 +16344,18 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="92"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="97"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="85"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="6"/>
@@ -15243,18 +16375,19 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" s="29"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="95"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="99"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="84"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
@@ -15274,18 +16407,18 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="92"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="97"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="85"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="6"/>
@@ -15305,18 +16438,19 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="29"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="95"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="99"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="84"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="6"/>
@@ -15336,18 +16470,18 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="92"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="97"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="85"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="6"/>
@@ -15367,18 +16501,19 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" s="29"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="95"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="99"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="84"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="6"/>
@@ -15398,18 +16533,18 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="92"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="97"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="85"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="6"/>
@@ -15429,18 +16564,19 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="29"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="95"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="99"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="84"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="6"/>
@@ -15460,18 +16596,18 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="92"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="97"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="85"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="6"/>
@@ -15491,18 +16627,19 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="29"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="95"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="99"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="84"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="6"/>
@@ -15522,19 +16659,18 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="97"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="85"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="6"/>
@@ -15554,18 +16690,19 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" s="29"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="95"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="99"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="84"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="6"/>
@@ -15585,18 +16722,18 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="92"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="97"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="44"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="6"/>
@@ -15616,18 +16753,19 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="29"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="95"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="99"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="84"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="6"/>
@@ -15647,18 +16785,18 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="92"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="97"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="85"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="6"/>
@@ -15678,18 +16816,19 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" s="29"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="95"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="99"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="84"/>
       <c r="N31"/>
       <c r="O31" s="10">
         <f t="shared" si="6"/>
@@ -15709,18 +16848,18 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="92"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="97"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="85"/>
       <c r="N32"/>
       <c r="O32" s="10">
         <f t="shared" si="6"/>
@@ -15740,18 +16879,19 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="95"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="99"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="84"/>
       <c r="N33"/>
       <c r="O33" s="10">
         <f t="shared" si="6"/>
@@ -15771,18 +16911,18 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="92"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="97"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="85"/>
       <c r="N34"/>
       <c r="O34" s="10">
         <f t="shared" si="6"/>
@@ -15802,18 +16942,19 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" s="29"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="95"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="99"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="84"/>
       <c r="N35"/>
       <c r="O35" s="10">
         <f t="shared" si="6"/>
@@ -15833,18 +16974,18 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="92"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="97"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="85"/>
       <c r="N36"/>
       <c r="O36" s="10">
         <f t="shared" si="6"/>
@@ -15864,18 +17005,19 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="29"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="95"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="99"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="84"/>
       <c r="N37"/>
       <c r="O37" s="10">
         <f t="shared" si="6"/>
@@ -15895,18 +17037,18 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="92"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="97"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="85"/>
       <c r="N38"/>
       <c r="O38" s="10">
         <f t="shared" si="6"/>
@@ -15926,32 +17068,39 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="62"/>
-      <c r="F39" s="96"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="56"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="100"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="84"/>
     </row>
-    <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="93"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="31"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A40" s="31"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15959,40 +17108,30 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E39:E40">
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>$E39&lt;0</formula>
+  <conditionalFormatting sqref="E11:E40">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$E11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:L40">
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>$L39&lt;0</formula>
+  <conditionalFormatting sqref="L11:L40">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$L11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AB3">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:AB5">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E38">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$E11&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L38">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$L11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16009,7 +17148,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -16032,91 +17171,91 @@
     <col min="30" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="107" t="str">
+    <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="A1" s="93" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="H1" s="109" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="H1" s="95" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="101" t="s">
-        <v>39</v>
+      <c r="M2" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="95"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="98"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="8"/>
       <c r="O3" s="10">
         <f>C3/10000</f>
@@ -16137,18 +17276,18 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="92"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="97"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="7"/>
       <c r="O4" s="10">
         <f t="shared" ref="O4:O30" si="0">C4/10000</f>
@@ -16169,18 +17308,19 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="95"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="99"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="84"/>
       <c r="N5" s="7"/>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
@@ -16201,18 +17341,18 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="92"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="97"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="7"/>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
@@ -16233,18 +17373,19 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="95"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="99"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="84"/>
       <c r="N7"/>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
@@ -16265,18 +17406,18 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="92"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="97"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="85"/>
       <c r="N8"/>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -16297,18 +17438,19 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="95"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="99"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="60"/>
       <c r="N9"/>
       <c r="O9" s="10">
         <f t="shared" si="0"/>
@@ -16329,18 +17471,18 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="92"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="97"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="44"/>
       <c r="N10"/>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
@@ -16361,18 +17503,19 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="95"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="99"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="84"/>
       <c r="N11"/>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -16393,18 +17536,18 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="92"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="97"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="85"/>
       <c r="N12"/>
       <c r="O12" s="10">
         <f t="shared" si="0"/>
@@ -16425,18 +17568,19 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="95"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="99"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="60"/>
       <c r="N13"/>
       <c r="O13" s="10">
         <f t="shared" si="0"/>
@@ -16457,18 +17601,18 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="92"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="97"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="85"/>
       <c r="N14"/>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
@@ -16489,18 +17633,19 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="95"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="99"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="84"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
@@ -16521,18 +17666,18 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="92"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="97"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="44"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="0"/>
@@ -16553,18 +17698,19 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="95"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="99"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="84"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="0"/>
@@ -16585,18 +17731,18 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="92"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="97"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="85"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
@@ -16617,18 +17763,19 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="95"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="99"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="84"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="0"/>
@@ -16649,18 +17796,18 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="92"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="97"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="85"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
@@ -16681,18 +17828,19 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="95"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="99"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="84"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
@@ -16713,18 +17861,18 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="92"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="97"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="85"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
@@ -16745,18 +17893,19 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="95"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="99"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="84"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
@@ -16777,18 +17926,18 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="92"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="97"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="85"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="0"/>
@@ -16809,18 +17958,19 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="45"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="95"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="99"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="84"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
@@ -16841,18 +17991,18 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="92"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="97"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="85"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="0"/>
@@ -16873,18 +18023,19 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="45"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="95"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="99"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="84"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="0"/>
@@ -16905,18 +18056,18 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="92"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="97"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="44"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="0"/>
@@ -16937,18 +18088,19 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="95"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="99"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="84"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="0"/>
@@ -16969,18 +18121,18 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="92"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="97"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="44"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="0"/>
@@ -17001,32 +18153,40 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="96"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="100"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="84"/>
     </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="93"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="31"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17034,22 +18194,12 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>$E31&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$L31&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E30">
+  <conditionalFormatting sqref="E3:E32">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L30">
+  <conditionalFormatting sqref="L3:L32">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$L3&lt;0</formula>
     </cfRule>
@@ -17068,7 +18218,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -17091,91 +18241,91 @@
     <col min="30" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="107" t="str">
+    <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="A1" s="93" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="H1" s="109" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="H1" s="95" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="101" t="s">
-        <v>39</v>
+      <c r="M2" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="95"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="98"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="8"/>
       <c r="O3" s="10">
         <f>C3/10000</f>
@@ -17196,18 +18346,18 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="92"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="97"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="7"/>
       <c r="O4" s="10">
         <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
@@ -17228,18 +18378,19 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="95"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="99"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="60"/>
       <c r="N5" s="7"/>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
@@ -17260,18 +18411,18 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="92"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="97"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="7"/>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
@@ -17292,18 +18443,19 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="95"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="99"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="60"/>
       <c r="N7"/>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
@@ -17324,18 +18476,18 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="92"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="97"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="85"/>
       <c r="N8"/>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -17356,18 +18508,19 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="95"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="99"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="84"/>
       <c r="N9"/>
       <c r="O9" s="10">
         <f t="shared" si="0"/>
@@ -17388,18 +18541,18 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="92"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="97"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="85"/>
       <c r="N10"/>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
@@ -17420,18 +18573,19 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="95"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="99"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="84"/>
       <c r="N11"/>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -17452,18 +18606,18 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="92"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="97"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="44"/>
       <c r="N12"/>
       <c r="O12" s="10">
         <f t="shared" si="0"/>
@@ -17484,18 +18638,19 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="95"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="99"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="84"/>
       <c r="N13"/>
       <c r="O13" s="10">
         <f t="shared" si="0"/>
@@ -17516,18 +18671,18 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="92"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="97"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="85"/>
       <c r="N14"/>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
@@ -17548,18 +18703,19 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="95"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="99"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="84"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
@@ -17580,18 +18736,18 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="92"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="97"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="85"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="0"/>
@@ -17612,18 +18768,19 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="95"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="99"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="60"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="0"/>
@@ -17644,18 +18801,18 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="92"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="97"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="85"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
@@ -17676,18 +18833,19 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="95"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="99"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="60"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="0"/>
@@ -17708,18 +18866,18 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="92"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="97"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="85"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
@@ -17740,18 +18898,19 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="95"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="99"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="84"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
@@ -17772,18 +18931,18 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="92"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="97"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="85"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
@@ -17804,18 +18963,19 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="95"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="99"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="84"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
@@ -17836,18 +18996,18 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="97"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="44"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="0"/>
@@ -17868,18 +19028,19 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="45"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="95"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="99"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="84"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
@@ -17900,18 +19061,18 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="92"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="97"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="44"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="0"/>
@@ -17932,18 +19093,19 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="45"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="95"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="99"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="84"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="0"/>
@@ -17964,18 +19126,18 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="92"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="97"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="85"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="0"/>
@@ -17996,18 +19158,19 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="95"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="99"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="84"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="0"/>
@@ -18028,18 +19191,18 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="92"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="97"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="44"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="0"/>
@@ -18060,32 +19223,43 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="96"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="100"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="84"/>
     </row>
-    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="93"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="31"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18093,22 +19267,12 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$E31&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$L31&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E30">
+  <conditionalFormatting sqref="E3:E32">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L30">
+  <conditionalFormatting sqref="L3:L32">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L3&lt;0</formula>
     </cfRule>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A746550-0A5A-4062-A2E0-3C3C01F0D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008605E-2CF8-4476-ABF4-7E12AFD2F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="1215" windowWidth="24060" windowHeight="14745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26415" yWindow="1650" windowWidth="24060" windowHeight="14745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>月度</t>
   </si>
@@ -252,16 +252,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仮売上</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見込売上+仮（万円)</t>
     <rPh sb="0" eb="2">
       <t>ミコ</t>
@@ -271,22 +261,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仮予約含む稼働率</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カドウリツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -922,7 +896,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -988,13 +962,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1036,14 +1004,8 @@
     <xf numFmtId="49" fontId="20" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1081,6 +1043,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -6466,7 +6431,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
+                  <c:v>見込み稼働率（仮)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7129,7 +7094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>仮予約含む稼働率</c:v>
+                  <c:v>見込み稼働率（仮)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15136,18 +15101,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="91" t="str">
+      <c r="A1" s="87" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月27日</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15298,139 +15263,139 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="92" t="str">
+      <c r="C56" s="88" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="88">
+      <c r="A104" s="84">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="88"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="84"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="88"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="88"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="84"/>
+      <c r="I105" s="84"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="88"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="84"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="92" t="str">
+      <c r="C108" s="88" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="86"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="88">
+      <c r="A156" s="84">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="88"/>
-      <c r="C156" s="88"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="88"/>
-      <c r="G156" s="88"/>
-      <c r="H156" s="88"/>
-      <c r="I156" s="88"/>
+      <c r="B156" s="84"/>
+      <c r="C156" s="84"/>
+      <c r="D156" s="84"/>
+      <c r="E156" s="84"/>
+      <c r="F156" s="84"/>
+      <c r="G156" s="84"/>
+      <c r="H156" s="84"/>
+      <c r="I156" s="84"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="88"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="88"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="88"/>
-      <c r="G157" s="88"/>
-      <c r="H157" s="88"/>
-      <c r="I157" s="88"/>
+      <c r="A157" s="84"/>
+      <c r="B157" s="84"/>
+      <c r="C157" s="84"/>
+      <c r="D157" s="84"/>
+      <c r="E157" s="84"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="84"/>
+      <c r="H157" s="84"/>
+      <c r="I157" s="84"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="88"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="88"/>
-      <c r="G158" s="88"/>
-      <c r="H158" s="88"/>
-      <c r="I158" s="88"/>
+      <c r="A158" s="84"/>
+      <c r="B158" s="84"/>
+      <c r="C158" s="84"/>
+      <c r="D158" s="84"/>
+      <c r="E158" s="84"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="84"/>
+      <c r="H158" s="84"/>
+      <c r="I158" s="84"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="92" t="str">
+      <c r="C160" s="88" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="92"/>
-      <c r="E160" s="92"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="92"/>
+      <c r="D160" s="88"/>
+      <c r="E160" s="88"/>
+      <c r="F160" s="88"/>
+      <c r="G160" s="88"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="22"/>
@@ -15440,179 +15405,179 @@
       <c r="G161" s="22"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="88">
+      <c r="A208" s="84">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="88"/>
-      <c r="C208" s="88"/>
-      <c r="D208" s="88"/>
-      <c r="E208" s="88"/>
-      <c r="F208" s="88"/>
-      <c r="G208" s="88"/>
-      <c r="H208" s="88"/>
-      <c r="I208" s="88"/>
+      <c r="B208" s="84"/>
+      <c r="C208" s="84"/>
+      <c r="D208" s="84"/>
+      <c r="E208" s="84"/>
+      <c r="F208" s="84"/>
+      <c r="G208" s="84"/>
+      <c r="H208" s="84"/>
+      <c r="I208" s="84"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="88"/>
-      <c r="B209" s="88"/>
-      <c r="C209" s="88"/>
-      <c r="D209" s="88"/>
-      <c r="E209" s="88"/>
-      <c r="F209" s="88"/>
-      <c r="G209" s="88"/>
-      <c r="H209" s="88"/>
-      <c r="I209" s="88"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="84"/>
+      <c r="C209" s="84"/>
+      <c r="D209" s="84"/>
+      <c r="E209" s="84"/>
+      <c r="F209" s="84"/>
+      <c r="G209" s="84"/>
+      <c r="H209" s="84"/>
+      <c r="I209" s="84"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="88"/>
-      <c r="B210" s="88"/>
-      <c r="C210" s="88"/>
-      <c r="D210" s="88"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="88"/>
-      <c r="G210" s="88"/>
-      <c r="H210" s="88"/>
-      <c r="I210" s="88"/>
+      <c r="A210" s="84"/>
+      <c r="B210" s="84"/>
+      <c r="C210" s="84"/>
+      <c r="D210" s="84"/>
+      <c r="E210" s="84"/>
+      <c r="F210" s="84"/>
+      <c r="G210" s="84"/>
+      <c r="H210" s="84"/>
+      <c r="I210" s="84"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="89" t="str">
+      <c r="C212" s="85" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="92"/>
-      <c r="E212" s="92"/>
-      <c r="F212" s="92"/>
-      <c r="G212" s="92"/>
+      <c r="D212" s="88"/>
+      <c r="E212" s="88"/>
+      <c r="F212" s="88"/>
+      <c r="G212" s="88"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="88">
+      <c r="A260" s="84">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="88"/>
-      <c r="C260" s="88"/>
-      <c r="D260" s="88"/>
-      <c r="E260" s="88"/>
-      <c r="F260" s="88"/>
-      <c r="G260" s="88"/>
-      <c r="H260" s="88"/>
-      <c r="I260" s="88"/>
+      <c r="B260" s="84"/>
+      <c r="C260" s="84"/>
+      <c r="D260" s="84"/>
+      <c r="E260" s="84"/>
+      <c r="F260" s="84"/>
+      <c r="G260" s="84"/>
+      <c r="H260" s="84"/>
+      <c r="I260" s="84"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="88"/>
-      <c r="B261" s="88"/>
-      <c r="C261" s="88"/>
-      <c r="D261" s="88"/>
-      <c r="E261" s="88"/>
-      <c r="F261" s="88"/>
-      <c r="G261" s="88"/>
-      <c r="H261" s="88"/>
-      <c r="I261" s="88"/>
+      <c r="A261" s="84"/>
+      <c r="B261" s="84"/>
+      <c r="C261" s="84"/>
+      <c r="D261" s="84"/>
+      <c r="E261" s="84"/>
+      <c r="F261" s="84"/>
+      <c r="G261" s="84"/>
+      <c r="H261" s="84"/>
+      <c r="I261" s="84"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="88"/>
-      <c r="B262" s="88"/>
-      <c r="C262" s="88"/>
-      <c r="D262" s="88"/>
-      <c r="E262" s="88"/>
-      <c r="F262" s="88"/>
-      <c r="G262" s="88"/>
-      <c r="H262" s="88"/>
-      <c r="I262" s="88"/>
+      <c r="A262" s="84"/>
+      <c r="B262" s="84"/>
+      <c r="C262" s="84"/>
+      <c r="D262" s="84"/>
+      <c r="E262" s="84"/>
+      <c r="F262" s="84"/>
+      <c r="G262" s="84"/>
+      <c r="H262" s="84"/>
+      <c r="I262" s="84"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="92" t="str">
+      <c r="C264" s="88" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="90"/>
-      <c r="E264" s="90"/>
-      <c r="F264" s="90"/>
-      <c r="G264" s="90"/>
+      <c r="D264" s="86"/>
+      <c r="E264" s="86"/>
+      <c r="F264" s="86"/>
+      <c r="G264" s="86"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="88">
+      <c r="A312" s="84">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="88"/>
-      <c r="C312" s="88"/>
-      <c r="D312" s="88"/>
-      <c r="E312" s="88"/>
-      <c r="F312" s="88"/>
-      <c r="G312" s="88"/>
-      <c r="H312" s="88"/>
-      <c r="I312" s="88"/>
+      <c r="B312" s="84"/>
+      <c r="C312" s="84"/>
+      <c r="D312" s="84"/>
+      <c r="E312" s="84"/>
+      <c r="F312" s="84"/>
+      <c r="G312" s="84"/>
+      <c r="H312" s="84"/>
+      <c r="I312" s="84"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="88"/>
-      <c r="B313" s="88"/>
-      <c r="C313" s="88"/>
-      <c r="D313" s="88"/>
-      <c r="E313" s="88"/>
-      <c r="F313" s="88"/>
-      <c r="G313" s="88"/>
-      <c r="H313" s="88"/>
-      <c r="I313" s="88"/>
+      <c r="A313" s="84"/>
+      <c r="B313" s="84"/>
+      <c r="C313" s="84"/>
+      <c r="D313" s="84"/>
+      <c r="E313" s="84"/>
+      <c r="F313" s="84"/>
+      <c r="G313" s="84"/>
+      <c r="H313" s="84"/>
+      <c r="I313" s="84"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="88"/>
-      <c r="B314" s="88"/>
-      <c r="C314" s="88"/>
-      <c r="D314" s="88"/>
-      <c r="E314" s="88"/>
-      <c r="F314" s="88"/>
-      <c r="G314" s="88"/>
-      <c r="H314" s="88"/>
-      <c r="I314" s="88"/>
+      <c r="A314" s="84"/>
+      <c r="B314" s="84"/>
+      <c r="C314" s="84"/>
+      <c r="D314" s="84"/>
+      <c r="E314" s="84"/>
+      <c r="F314" s="84"/>
+      <c r="G314" s="84"/>
+      <c r="H314" s="84"/>
+      <c r="I314" s="84"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="89" t="str">
+      <c r="C316" s="85" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="90"/>
-      <c r="E316" s="90"/>
-      <c r="F316" s="90"/>
-      <c r="G316" s="90"/>
+      <c r="D316" s="86"/>
+      <c r="E316" s="86"/>
+      <c r="F316" s="86"/>
+      <c r="G316" s="86"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="88">
+      <c r="A365" s="84">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="88"/>
-      <c r="C365" s="88"/>
-      <c r="D365" s="88"/>
-      <c r="E365" s="88"/>
-      <c r="F365" s="88"/>
-      <c r="G365" s="88"/>
-      <c r="H365" s="88"/>
-      <c r="I365" s="88"/>
+      <c r="B365" s="84"/>
+      <c r="C365" s="84"/>
+      <c r="D365" s="84"/>
+      <c r="E365" s="84"/>
+      <c r="F365" s="84"/>
+      <c r="G365" s="84"/>
+      <c r="H365" s="84"/>
+      <c r="I365" s="84"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="88"/>
-      <c r="B366" s="88"/>
-      <c r="C366" s="88"/>
-      <c r="D366" s="88"/>
-      <c r="E366" s="88"/>
-      <c r="F366" s="88"/>
-      <c r="G366" s="88"/>
-      <c r="H366" s="88"/>
-      <c r="I366" s="88"/>
+      <c r="A366" s="84"/>
+      <c r="B366" s="84"/>
+      <c r="C366" s="84"/>
+      <c r="D366" s="84"/>
+      <c r="E366" s="84"/>
+      <c r="F366" s="84"/>
+      <c r="G366" s="84"/>
+      <c r="H366" s="84"/>
+      <c r="I366" s="84"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="88"/>
-      <c r="B367" s="88"/>
-      <c r="C367" s="88"/>
-      <c r="D367" s="88"/>
-      <c r="E367" s="88"/>
-      <c r="F367" s="88"/>
-      <c r="G367" s="88"/>
-      <c r="H367" s="88"/>
-      <c r="I367" s="88"/>
+      <c r="A367" s="84"/>
+      <c r="B367" s="84"/>
+      <c r="C367" s="84"/>
+      <c r="D367" s="84"/>
+      <c r="E367" s="84"/>
+      <c r="F367" s="84"/>
+      <c r="G367" s="84"/>
+      <c r="H367" s="84"/>
+      <c r="I367" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -15693,105 +15658,105 @@
     <col min="32" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="77" customFormat="1" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:31" s="73" customFormat="1" ht="21.6" x14ac:dyDescent="0.45">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="73" t="s">
+      <c r="N1" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="78"/>
-      <c r="W1" s="79" t="s">
+      <c r="V1" s="74"/>
+      <c r="W1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="Y1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="Z1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AA1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AB1" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="46">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="44">
         <f t="shared" ref="O2:Q7" si="0">B2/1000000</f>
         <v>0</v>
       </c>
@@ -15827,20 +15792,20 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="42"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="42"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="46">
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15893,21 +15858,21 @@
       </c>
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="46">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15943,20 +15908,20 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="42"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="46">
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16009,21 +15974,21 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="46">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16050,20 +16015,20 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="42"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="46">
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16099,7 +16064,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -16116,21 +16081,21 @@
       <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A9" s="93" t="str">
+      <c r="A9" s="89" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="93" t="str">
+      <c r="H9" s="89" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -16144,14 +16109,14 @@
       <c r="C10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="68" t="s">
-        <v>37</v>
+      <c r="F10" s="66" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="26" t="s">
@@ -16163,14 +16128,14 @@
       <c r="J10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="53" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="71" t="s">
-        <v>38</v>
+      <c r="M10" s="92" t="s">
+        <v>36</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>9</v>
@@ -16181,24 +16146,24 @@
       <c r="Q10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="76" t="s">
-        <v>41</v>
+      <c r="R10" s="72" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A11" s="61"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="84"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="8"/>
       <c r="O11" s="10">
         <f>C11/10000</f>
@@ -16229,7 +16194,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="85"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="7"/>
       <c r="O12" s="10">
         <f t="shared" ref="O12:O38" si="6">C12/10000</f>
@@ -16249,19 +16214,19 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A13" s="61"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="53"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="60"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="7"/>
       <c r="O13" s="10">
         <f t="shared" si="6"/>
@@ -16292,7 +16257,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="85"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="7"/>
       <c r="O14" s="10">
         <f t="shared" si="6"/>
@@ -16312,19 +16277,19 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="53"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="84"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="80"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="6"/>
@@ -16355,7 +16320,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="37"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="85"/>
+      <c r="M16" s="81"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="6"/>
@@ -16375,19 +16340,19 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="84"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="80"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
@@ -16418,7 +16383,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="37"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="85"/>
+      <c r="M18" s="81"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="6"/>
@@ -16438,19 +16403,19 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="61"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="84"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="80"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="6"/>
@@ -16481,7 +16446,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="37"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="85"/>
+      <c r="M20" s="81"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="6"/>
@@ -16501,19 +16466,19 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" s="61"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="84"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="80"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="6"/>
@@ -16544,7 +16509,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="37"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="85"/>
+      <c r="M22" s="81"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="6"/>
@@ -16564,19 +16529,19 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="61"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="53"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="84"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="80"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="6"/>
@@ -16607,7 +16572,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="37"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="85"/>
+      <c r="M24" s="81"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="6"/>
@@ -16627,19 +16592,19 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="61"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="53"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="84"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="80"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="6"/>
@@ -16670,7 +16635,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="37"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="85"/>
+      <c r="M26" s="81"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="6"/>
@@ -16690,19 +16655,19 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" s="61"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="84"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="80"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="6"/>
@@ -16733,7 +16698,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="37"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="44"/>
+      <c r="M28" s="43"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="6"/>
@@ -16753,19 +16718,19 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="61"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="53"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="84"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="80"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="6"/>
@@ -16796,7 +16761,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="37"/>
       <c r="L30" s="33"/>
-      <c r="M30" s="85"/>
+      <c r="M30" s="81"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="6"/>
@@ -16816,19 +16781,19 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" s="61"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="53"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="84"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="80"/>
       <c r="N31"/>
       <c r="O31" s="10">
         <f t="shared" si="6"/>
@@ -16859,7 +16824,7 @@
       <c r="J32" s="32"/>
       <c r="K32" s="37"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="85"/>
+      <c r="M32" s="81"/>
       <c r="N32"/>
       <c r="O32" s="10">
         <f t="shared" si="6"/>
@@ -16879,19 +16844,19 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="61"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="53"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="84"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="80"/>
       <c r="N33"/>
       <c r="O33" s="10">
         <f t="shared" si="6"/>
@@ -16922,7 +16887,7 @@
       <c r="J34" s="32"/>
       <c r="K34" s="37"/>
       <c r="L34" s="33"/>
-      <c r="M34" s="85"/>
+      <c r="M34" s="81"/>
       <c r="N34"/>
       <c r="O34" s="10">
         <f t="shared" si="6"/>
@@ -16942,19 +16907,19 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" s="61"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="53"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="84"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="80"/>
       <c r="N35"/>
       <c r="O35" s="10">
         <f t="shared" si="6"/>
@@ -16985,7 +16950,7 @@
       <c r="J36" s="32"/>
       <c r="K36" s="37"/>
       <c r="L36" s="33"/>
-      <c r="M36" s="85"/>
+      <c r="M36" s="81"/>
       <c r="N36"/>
       <c r="O36" s="10">
         <f t="shared" si="6"/>
@@ -17005,19 +16970,19 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="61"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="53"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="84"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="80"/>
       <c r="N37"/>
       <c r="O37" s="10">
         <f t="shared" si="6"/>
@@ -17048,7 +17013,7 @@
       <c r="J38" s="32"/>
       <c r="K38" s="37"/>
       <c r="L38" s="33"/>
-      <c r="M38" s="85"/>
+      <c r="M38" s="81"/>
       <c r="N38"/>
       <c r="O38" s="10">
         <f t="shared" si="6"/>
@@ -17068,38 +17033,38 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="61"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="53"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="84"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="80"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="31"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="83"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="41"/>
       <c r="G40" s="8"/>
       <c r="H40" s="31"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -17172,20 +17137,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="89" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="H1" s="95" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="H1" s="91" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17200,14 +17165,14 @@
       <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="52" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>34</v>
+      <c r="F2" s="66" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="26" t="s">
@@ -17219,13 +17184,13 @@
       <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="53" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="92" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -17238,24 +17203,24 @@
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="61"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="8"/>
       <c r="O3" s="10">
         <f>C3/10000</f>
@@ -17287,7 +17252,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="85"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="7"/>
       <c r="O4" s="10">
         <f t="shared" ref="O4:O30" si="0">C4/10000</f>
@@ -17308,19 +17273,19 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="61"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="84"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="80"/>
       <c r="N5" s="7"/>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
@@ -17352,7 +17317,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="37"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="85"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="7"/>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
@@ -17373,19 +17338,19 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="84"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="80"/>
       <c r="N7"/>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
@@ -17417,7 +17382,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="37"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="85"/>
+      <c r="M8" s="81"/>
       <c r="N8"/>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -17438,19 +17403,19 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="61"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="53"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="60"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="58"/>
       <c r="N9"/>
       <c r="O9" s="10">
         <f t="shared" si="0"/>
@@ -17482,7 +17447,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="37"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="44"/>
+      <c r="M10" s="43"/>
       <c r="N10"/>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
@@ -17503,19 +17468,19 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="61"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="84"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="80"/>
       <c r="N11"/>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -17547,7 +17512,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="85"/>
+      <c r="M12" s="81"/>
       <c r="N12"/>
       <c r="O12" s="10">
         <f t="shared" si="0"/>
@@ -17568,19 +17533,19 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="61"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="53"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="60"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="58"/>
       <c r="N13"/>
       <c r="O13" s="10">
         <f t="shared" si="0"/>
@@ -17612,7 +17577,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="85"/>
+      <c r="M14" s="81"/>
       <c r="N14"/>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
@@ -17633,19 +17598,19 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="53"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="84"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="80"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
@@ -17677,7 +17642,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="37"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="44"/>
+      <c r="M16" s="43"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="0"/>
@@ -17698,19 +17663,19 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="84"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="80"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="0"/>
@@ -17742,7 +17707,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="37"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="85"/>
+      <c r="M18" s="81"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
@@ -17763,19 +17728,19 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="61"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="84"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="80"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="0"/>
@@ -17807,7 +17772,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="37"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="85"/>
+      <c r="M20" s="81"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
@@ -17828,19 +17793,19 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="61"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="84"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="80"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
@@ -17872,7 +17837,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="37"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="85"/>
+      <c r="M22" s="81"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
@@ -17893,19 +17858,19 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="61"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="53"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="84"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="80"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
@@ -17937,7 +17902,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="37"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="85"/>
+      <c r="M24" s="81"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="0"/>
@@ -17958,19 +17923,19 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="61"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="53"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="84"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="80"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
@@ -18002,7 +17967,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="37"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="85"/>
+      <c r="M26" s="81"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="0"/>
@@ -18023,19 +17988,19 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="61"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="84"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="80"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="0"/>
@@ -18067,7 +18032,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="37"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="44"/>
+      <c r="M28" s="43"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="0"/>
@@ -18088,19 +18053,19 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="61"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="53"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="84"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="80"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="0"/>
@@ -18132,7 +18097,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="37"/>
       <c r="L30" s="33"/>
-      <c r="M30" s="44"/>
+      <c r="M30" s="43"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="0"/>
@@ -18153,38 +18118,38 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="61"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="53"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="84"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="41"/>
       <c r="G32" s="8"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -18242,20 +18207,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="89" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="H1" s="95" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="H1" s="91" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -18270,14 +18235,14 @@
       <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="52" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>34</v>
+      <c r="F2" s="66" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="26" t="s">
@@ -18289,13 +18254,13 @@
       <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="53" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="92" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -18308,24 +18273,24 @@
         <v>8</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="61"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="53"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="84"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="8"/>
       <c r="O3" s="10">
         <f>C3/10000</f>
@@ -18357,7 +18322,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="85"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="7"/>
       <c r="O4" s="10">
         <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
@@ -18378,19 +18343,19 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="61"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="60"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="58"/>
       <c r="N5" s="7"/>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
@@ -18422,7 +18387,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="37"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="44"/>
+      <c r="M6" s="43"/>
       <c r="N6" s="7"/>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
@@ -18443,19 +18408,19 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="58"/>
       <c r="N7"/>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
@@ -18487,7 +18452,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="37"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="85"/>
+      <c r="M8" s="81"/>
       <c r="N8"/>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -18508,19 +18473,19 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="61"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="53"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="84"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="80"/>
       <c r="N9"/>
       <c r="O9" s="10">
         <f t="shared" si="0"/>
@@ -18552,7 +18517,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="37"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="85"/>
+      <c r="M10" s="81"/>
       <c r="N10"/>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
@@ -18573,19 +18538,19 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="61"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="84"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="80"/>
       <c r="N11"/>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -18617,7 +18582,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="44"/>
+      <c r="M12" s="43"/>
       <c r="N12"/>
       <c r="O12" s="10">
         <f t="shared" si="0"/>
@@ -18638,19 +18603,19 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="61"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="53"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="84"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="80"/>
       <c r="N13"/>
       <c r="O13" s="10">
         <f t="shared" si="0"/>
@@ -18682,7 +18647,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="85"/>
+      <c r="M14" s="81"/>
       <c r="N14"/>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
@@ -18703,19 +18668,19 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="53"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="84"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="80"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
@@ -18747,7 +18712,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="37"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="85"/>
+      <c r="M16" s="81"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="0"/>
@@ -18768,19 +18733,19 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="60"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="58"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="0"/>
@@ -18812,7 +18777,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="37"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="85"/>
+      <c r="M18" s="81"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
@@ -18833,19 +18798,19 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="61"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="60"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="58"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="0"/>
@@ -18877,7 +18842,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="37"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="85"/>
+      <c r="M20" s="81"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
@@ -18898,19 +18863,19 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="61"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="84"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="80"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
@@ -18942,7 +18907,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="37"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="85"/>
+      <c r="M22" s="81"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
@@ -18963,19 +18928,19 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="61"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="53"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="84"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="80"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
@@ -19007,7 +18972,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="37"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="44"/>
+      <c r="M24" s="43"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="0"/>
@@ -19028,19 +18993,19 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="61"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="53"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="84"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="80"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
@@ -19072,7 +19037,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="37"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="44"/>
+      <c r="M26" s="43"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="0"/>
@@ -19093,19 +19058,19 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="61"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="84"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="80"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="0"/>
@@ -19137,7 +19102,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="37"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="85"/>
+      <c r="M28" s="81"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="0"/>
@@ -19158,19 +19123,19 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="61"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="53"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="84"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="80"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="0"/>
@@ -19202,7 +19167,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="37"/>
       <c r="L30" s="33"/>
-      <c r="M30" s="44"/>
+      <c r="M30" s="43"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="0"/>
@@ -19223,38 +19188,38 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="61"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="53"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="84"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="41"/>
       <c r="G32" s="8"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" s="8"/>
     </row>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008605E-2CF8-4476-ABF4-7E12AFD2F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5D9DF-C6BF-45EC-B9F7-F46160FABC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26415" yWindow="1650" windowWidth="24060" windowHeight="14745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3705" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -784,21 +784,6 @@
       <right style="medium">
         <color theme="4" tint="-0.24994659260841701"/>
       </right>
-      <top style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -814,19 +799,6 @@
       </right>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -896,7 +868,7 @@
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -953,46 +925,40 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,30 +967,17 @@
     <xf numFmtId="49" fontId="18" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1043,8 +996,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2787,6 +2776,138 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3731699928178295E-2"/>
+                  <c:y val="-5.7342126640728561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F7F6-4812-A3AF-6D8096DF1CCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3731699928178281E-2"/>
+                  <c:y val="-6.186704576225293E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F7F6-4812-A3AF-6D8096DF1CCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9404560508947079E-2"/>
+                  <c:y val="-6.6391964883777313E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F7F6-4812-A3AF-6D8096DF1CCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9404560508947145E-2"/>
+                  <c:y val="-7.5441803126825996E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F7F6-4812-A3AF-6D8096DF1CCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9404560508947207E-2"/>
+                  <c:y val="-9.3541479612923459E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F7F6-4812-A3AF-6D8096DF1CCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9404560508947079E-2"/>
+                  <c:y val="-0.11616607522054527"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F7F6-4812-A3AF-6D8096DF1CCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2826,20 +2947,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -15101,18 +15209,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="78" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月27日</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15263,139 +15371,139 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="88" t="str">
+      <c r="C56" s="79" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="84">
+      <c r="A104" s="75">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="84"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="84"/>
-      <c r="I104" s="84"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="84"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="84"/>
-      <c r="I105" s="84"/>
+      <c r="A105" s="75"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="84"/>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="84"/>
-      <c r="I106" s="84"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="88" t="str">
+      <c r="C108" s="79" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="86"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="84">
+      <c r="A156" s="75">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="84"/>
-      <c r="C156" s="84"/>
-      <c r="D156" s="84"/>
-      <c r="E156" s="84"/>
-      <c r="F156" s="84"/>
-      <c r="G156" s="84"/>
-      <c r="H156" s="84"/>
-      <c r="I156" s="84"/>
+      <c r="B156" s="75"/>
+      <c r="C156" s="75"/>
+      <c r="D156" s="75"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="75"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="75"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="84"/>
-      <c r="B157" s="84"/>
-      <c r="C157" s="84"/>
-      <c r="D157" s="84"/>
-      <c r="E157" s="84"/>
-      <c r="F157" s="84"/>
-      <c r="G157" s="84"/>
-      <c r="H157" s="84"/>
-      <c r="I157" s="84"/>
+      <c r="A157" s="75"/>
+      <c r="B157" s="75"/>
+      <c r="C157" s="75"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="75"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="84"/>
-      <c r="B158" s="84"/>
-      <c r="C158" s="84"/>
-      <c r="D158" s="84"/>
-      <c r="E158" s="84"/>
-      <c r="F158" s="84"/>
-      <c r="G158" s="84"/>
-      <c r="H158" s="84"/>
-      <c r="I158" s="84"/>
+      <c r="A158" s="75"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="88" t="str">
+      <c r="C160" s="79" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="88"/>
-      <c r="E160" s="88"/>
-      <c r="F160" s="88"/>
-      <c r="G160" s="88"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="79"/>
+      <c r="F160" s="79"/>
+      <c r="G160" s="79"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="22"/>
@@ -15405,179 +15513,179 @@
       <c r="G161" s="22"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="84">
+      <c r="A208" s="75">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="84"/>
-      <c r="C208" s="84"/>
-      <c r="D208" s="84"/>
-      <c r="E208" s="84"/>
-      <c r="F208" s="84"/>
-      <c r="G208" s="84"/>
-      <c r="H208" s="84"/>
-      <c r="I208" s="84"/>
+      <c r="B208" s="75"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="75"/>
+      <c r="E208" s="75"/>
+      <c r="F208" s="75"/>
+      <c r="G208" s="75"/>
+      <c r="H208" s="75"/>
+      <c r="I208" s="75"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="84"/>
-      <c r="B209" s="84"/>
-      <c r="C209" s="84"/>
-      <c r="D209" s="84"/>
-      <c r="E209" s="84"/>
-      <c r="F209" s="84"/>
-      <c r="G209" s="84"/>
-      <c r="H209" s="84"/>
-      <c r="I209" s="84"/>
+      <c r="A209" s="75"/>
+      <c r="B209" s="75"/>
+      <c r="C209" s="75"/>
+      <c r="D209" s="75"/>
+      <c r="E209" s="75"/>
+      <c r="F209" s="75"/>
+      <c r="G209" s="75"/>
+      <c r="H209" s="75"/>
+      <c r="I209" s="75"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="84"/>
-      <c r="B210" s="84"/>
-      <c r="C210" s="84"/>
-      <c r="D210" s="84"/>
-      <c r="E210" s="84"/>
-      <c r="F210" s="84"/>
-      <c r="G210" s="84"/>
-      <c r="H210" s="84"/>
-      <c r="I210" s="84"/>
+      <c r="A210" s="75"/>
+      <c r="B210" s="75"/>
+      <c r="C210" s="75"/>
+      <c r="D210" s="75"/>
+      <c r="E210" s="75"/>
+      <c r="F210" s="75"/>
+      <c r="G210" s="75"/>
+      <c r="H210" s="75"/>
+      <c r="I210" s="75"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="85" t="str">
+      <c r="C212" s="76" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="88"/>
-      <c r="E212" s="88"/>
-      <c r="F212" s="88"/>
-      <c r="G212" s="88"/>
+      <c r="D212" s="79"/>
+      <c r="E212" s="79"/>
+      <c r="F212" s="79"/>
+      <c r="G212" s="79"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="84">
+      <c r="A260" s="75">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="84"/>
-      <c r="C260" s="84"/>
-      <c r="D260" s="84"/>
-      <c r="E260" s="84"/>
-      <c r="F260" s="84"/>
-      <c r="G260" s="84"/>
-      <c r="H260" s="84"/>
-      <c r="I260" s="84"/>
+      <c r="B260" s="75"/>
+      <c r="C260" s="75"/>
+      <c r="D260" s="75"/>
+      <c r="E260" s="75"/>
+      <c r="F260" s="75"/>
+      <c r="G260" s="75"/>
+      <c r="H260" s="75"/>
+      <c r="I260" s="75"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="84"/>
-      <c r="B261" s="84"/>
-      <c r="C261" s="84"/>
-      <c r="D261" s="84"/>
-      <c r="E261" s="84"/>
-      <c r="F261" s="84"/>
-      <c r="G261" s="84"/>
-      <c r="H261" s="84"/>
-      <c r="I261" s="84"/>
+      <c r="A261" s="75"/>
+      <c r="B261" s="75"/>
+      <c r="C261" s="75"/>
+      <c r="D261" s="75"/>
+      <c r="E261" s="75"/>
+      <c r="F261" s="75"/>
+      <c r="G261" s="75"/>
+      <c r="H261" s="75"/>
+      <c r="I261" s="75"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="84"/>
-      <c r="B262" s="84"/>
-      <c r="C262" s="84"/>
-      <c r="D262" s="84"/>
-      <c r="E262" s="84"/>
-      <c r="F262" s="84"/>
-      <c r="G262" s="84"/>
-      <c r="H262" s="84"/>
-      <c r="I262" s="84"/>
+      <c r="A262" s="75"/>
+      <c r="B262" s="75"/>
+      <c r="C262" s="75"/>
+      <c r="D262" s="75"/>
+      <c r="E262" s="75"/>
+      <c r="F262" s="75"/>
+      <c r="G262" s="75"/>
+      <c r="H262" s="75"/>
+      <c r="I262" s="75"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="88" t="str">
+      <c r="C264" s="79" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="86"/>
-      <c r="E264" s="86"/>
-      <c r="F264" s="86"/>
-      <c r="G264" s="86"/>
+      <c r="D264" s="77"/>
+      <c r="E264" s="77"/>
+      <c r="F264" s="77"/>
+      <c r="G264" s="77"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="84">
+      <c r="A312" s="75">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="84"/>
-      <c r="C312" s="84"/>
-      <c r="D312" s="84"/>
-      <c r="E312" s="84"/>
-      <c r="F312" s="84"/>
-      <c r="G312" s="84"/>
-      <c r="H312" s="84"/>
-      <c r="I312" s="84"/>
+      <c r="B312" s="75"/>
+      <c r="C312" s="75"/>
+      <c r="D312" s="75"/>
+      <c r="E312" s="75"/>
+      <c r="F312" s="75"/>
+      <c r="G312" s="75"/>
+      <c r="H312" s="75"/>
+      <c r="I312" s="75"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="84"/>
-      <c r="B313" s="84"/>
-      <c r="C313" s="84"/>
-      <c r="D313" s="84"/>
-      <c r="E313" s="84"/>
-      <c r="F313" s="84"/>
-      <c r="G313" s="84"/>
-      <c r="H313" s="84"/>
-      <c r="I313" s="84"/>
+      <c r="A313" s="75"/>
+      <c r="B313" s="75"/>
+      <c r="C313" s="75"/>
+      <c r="D313" s="75"/>
+      <c r="E313" s="75"/>
+      <c r="F313" s="75"/>
+      <c r="G313" s="75"/>
+      <c r="H313" s="75"/>
+      <c r="I313" s="75"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="84"/>
-      <c r="B314" s="84"/>
-      <c r="C314" s="84"/>
-      <c r="D314" s="84"/>
-      <c r="E314" s="84"/>
-      <c r="F314" s="84"/>
-      <c r="G314" s="84"/>
-      <c r="H314" s="84"/>
-      <c r="I314" s="84"/>
+      <c r="A314" s="75"/>
+      <c r="B314" s="75"/>
+      <c r="C314" s="75"/>
+      <c r="D314" s="75"/>
+      <c r="E314" s="75"/>
+      <c r="F314" s="75"/>
+      <c r="G314" s="75"/>
+      <c r="H314" s="75"/>
+      <c r="I314" s="75"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="85" t="str">
+      <c r="C316" s="76" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="86"/>
-      <c r="E316" s="86"/>
-      <c r="F316" s="86"/>
-      <c r="G316" s="86"/>
+      <c r="D316" s="77"/>
+      <c r="E316" s="77"/>
+      <c r="F316" s="77"/>
+      <c r="G316" s="77"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="84">
+      <c r="A365" s="75">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="84"/>
-      <c r="C365" s="84"/>
-      <c r="D365" s="84"/>
-      <c r="E365" s="84"/>
-      <c r="F365" s="84"/>
-      <c r="G365" s="84"/>
-      <c r="H365" s="84"/>
-      <c r="I365" s="84"/>
+      <c r="B365" s="75"/>
+      <c r="C365" s="75"/>
+      <c r="D365" s="75"/>
+      <c r="E365" s="75"/>
+      <c r="F365" s="75"/>
+      <c r="G365" s="75"/>
+      <c r="H365" s="75"/>
+      <c r="I365" s="75"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="84"/>
-      <c r="B366" s="84"/>
-      <c r="C366" s="84"/>
-      <c r="D366" s="84"/>
-      <c r="E366" s="84"/>
-      <c r="F366" s="84"/>
-      <c r="G366" s="84"/>
-      <c r="H366" s="84"/>
-      <c r="I366" s="84"/>
+      <c r="A366" s="75"/>
+      <c r="B366" s="75"/>
+      <c r="C366" s="75"/>
+      <c r="D366" s="75"/>
+      <c r="E366" s="75"/>
+      <c r="F366" s="75"/>
+      <c r="G366" s="75"/>
+      <c r="H366" s="75"/>
+      <c r="I366" s="75"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="84"/>
-      <c r="B367" s="84"/>
-      <c r="C367" s="84"/>
-      <c r="D367" s="84"/>
-      <c r="E367" s="84"/>
-      <c r="F367" s="84"/>
-      <c r="G367" s="84"/>
-      <c r="H367" s="84"/>
-      <c r="I367" s="84"/>
+      <c r="A367" s="75"/>
+      <c r="B367" s="75"/>
+      <c r="C367" s="75"/>
+      <c r="D367" s="75"/>
+      <c r="E367" s="75"/>
+      <c r="F367" s="75"/>
+      <c r="G367" s="75"/>
+      <c r="H367" s="75"/>
+      <c r="I367" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -15638,7 +15746,7 @@
   </sheetPr>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15658,88 +15766,88 @@
     <col min="32" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="73" customFormat="1" ht="21.6" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:31" s="92" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="75" t="s">
+      <c r="V1" s="93"/>
+      <c r="W1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="75" t="s">
+      <c r="X1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="75" t="s">
+      <c r="Y1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="75" t="s">
+      <c r="Z1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="75" t="s">
+      <c r="AA1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="75" t="s">
+      <c r="AB1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="47"/>
@@ -16081,21 +16189,21 @@
       <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="80" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="89" t="str">
+      <c r="H9" s="80" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -16115,7 +16223,7 @@
       <c r="E10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="64" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="24"/>
@@ -16134,7 +16242,7 @@
       <c r="L10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="92" t="s">
+      <c r="M10" s="74" t="s">
         <v>36</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -16146,7 +16254,7 @@
       <c r="Q10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="72" t="s">
+      <c r="R10" s="66" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16163,7 +16271,7 @@
       <c r="J11" s="56"/>
       <c r="K11" s="57"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="80"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="8"/>
       <c r="O11" s="10">
         <f>C11/10000</f>
@@ -16194,7 +16302,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="81"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="7"/>
       <c r="O12" s="10">
         <f t="shared" ref="O12:O38" si="6">C12/10000</f>
@@ -16257,7 +16365,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="71"/>
       <c r="N14" s="7"/>
       <c r="O14" s="10">
         <f t="shared" si="6"/>
@@ -16289,7 +16397,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="57"/>
       <c r="L15" s="61"/>
-      <c r="M15" s="80"/>
+      <c r="M15" s="70"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="6"/>
@@ -16320,7 +16428,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="37"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="81"/>
+      <c r="M16" s="71"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="6"/>
@@ -16352,7 +16460,7 @@
       <c r="J17" s="56"/>
       <c r="K17" s="57"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="80"/>
+      <c r="M17" s="70"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
@@ -16383,7 +16491,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="37"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="81"/>
+      <c r="M18" s="71"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="6"/>
@@ -16415,7 +16523,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="57"/>
       <c r="L19" s="61"/>
-      <c r="M19" s="80"/>
+      <c r="M19" s="70"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="6"/>
@@ -16446,7 +16554,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="37"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="81"/>
+      <c r="M20" s="71"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="6"/>
@@ -16478,7 +16586,7 @@
       <c r="J21" s="56"/>
       <c r="K21" s="57"/>
       <c r="L21" s="61"/>
-      <c r="M21" s="80"/>
+      <c r="M21" s="70"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="6"/>
@@ -16509,7 +16617,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="37"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="81"/>
+      <c r="M22" s="71"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="6"/>
@@ -16541,7 +16649,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
       <c r="L23" s="61"/>
-      <c r="M23" s="80"/>
+      <c r="M23" s="70"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="6"/>
@@ -16572,7 +16680,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="37"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="81"/>
+      <c r="M24" s="71"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="6"/>
@@ -16604,7 +16712,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="57"/>
       <c r="L25" s="61"/>
-      <c r="M25" s="80"/>
+      <c r="M25" s="70"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="6"/>
@@ -16635,7 +16743,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="37"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="81"/>
+      <c r="M26" s="71"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="6"/>
@@ -16667,7 +16775,7 @@
       <c r="J27" s="56"/>
       <c r="K27" s="57"/>
       <c r="L27" s="61"/>
-      <c r="M27" s="80"/>
+      <c r="M27" s="70"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="6"/>
@@ -16730,7 +16838,7 @@
       <c r="J29" s="56"/>
       <c r="K29" s="57"/>
       <c r="L29" s="61"/>
-      <c r="M29" s="80"/>
+      <c r="M29" s="70"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="6"/>
@@ -16761,7 +16869,7 @@
       <c r="J30" s="32"/>
       <c r="K30" s="37"/>
       <c r="L30" s="33"/>
-      <c r="M30" s="81"/>
+      <c r="M30" s="71"/>
       <c r="N30"/>
       <c r="O30" s="10">
         <f t="shared" si="6"/>
@@ -16793,7 +16901,7 @@
       <c r="J31" s="56"/>
       <c r="K31" s="57"/>
       <c r="L31" s="61"/>
-      <c r="M31" s="80"/>
+      <c r="M31" s="70"/>
       <c r="N31"/>
       <c r="O31" s="10">
         <f t="shared" si="6"/>
@@ -16824,7 +16932,7 @@
       <c r="J32" s="32"/>
       <c r="K32" s="37"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="81"/>
+      <c r="M32" s="71"/>
       <c r="N32"/>
       <c r="O32" s="10">
         <f t="shared" si="6"/>
@@ -16856,7 +16964,7 @@
       <c r="J33" s="56"/>
       <c r="K33" s="57"/>
       <c r="L33" s="61"/>
-      <c r="M33" s="80"/>
+      <c r="M33" s="70"/>
       <c r="N33"/>
       <c r="O33" s="10">
         <f t="shared" si="6"/>
@@ -16887,7 +16995,7 @@
       <c r="J34" s="32"/>
       <c r="K34" s="37"/>
       <c r="L34" s="33"/>
-      <c r="M34" s="81"/>
+      <c r="M34" s="71"/>
       <c r="N34"/>
       <c r="O34" s="10">
         <f t="shared" si="6"/>
@@ -16919,7 +17027,7 @@
       <c r="J35" s="56"/>
       <c r="K35" s="57"/>
       <c r="L35" s="61"/>
-      <c r="M35" s="80"/>
+      <c r="M35" s="70"/>
       <c r="N35"/>
       <c r="O35" s="10">
         <f t="shared" si="6"/>
@@ -16950,7 +17058,7 @@
       <c r="J36" s="32"/>
       <c r="K36" s="37"/>
       <c r="L36" s="33"/>
-      <c r="M36" s="81"/>
+      <c r="M36" s="71"/>
       <c r="N36"/>
       <c r="O36" s="10">
         <f t="shared" si="6"/>
@@ -16982,7 +17090,7 @@
       <c r="J37" s="56"/>
       <c r="K37" s="57"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="80"/>
+      <c r="M37" s="70"/>
       <c r="N37"/>
       <c r="O37" s="10">
         <f t="shared" si="6"/>
@@ -17013,7 +17121,7 @@
       <c r="J38" s="32"/>
       <c r="K38" s="37"/>
       <c r="L38" s="33"/>
-      <c r="M38" s="81"/>
+      <c r="M38" s="71"/>
       <c r="N38"/>
       <c r="O38" s="10">
         <f t="shared" si="6"/>
@@ -17045,22 +17153,22 @@
       <c r="J39" s="56"/>
       <c r="K39" s="57"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="80"/>
+      <c r="M39" s="70"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="31"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="79"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="41"/>
       <c r="G40" s="8"/>
       <c r="H40" s="31"/>
       <c r="I40" s="62"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -17115,7 +17223,7 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -17137,20 +17245,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="80" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="H1" s="91" t="str">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="H1" s="82" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17171,7 +17279,7 @@
       <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="64" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="24"/>
@@ -17190,7 +17298,7 @@
       <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="74" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -17220,7 +17328,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
       <c r="L3" s="61"/>
-      <c r="M3" s="80"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="8"/>
       <c r="O3" s="10">
         <f>C3/10000</f>
@@ -17252,7 +17360,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="81"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="7"/>
       <c r="O4" s="10">
         <f t="shared" ref="O4:O30" si="0">C4/10000</f>
@@ -17285,7 +17393,7 @@
       <c r="J5" s="56"/>
       <c r="K5" s="57"/>
       <c r="L5" s="61"/>
-      <c r="M5" s="80"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="7"/>
       <c r="O5" s="10">
         <f t="shared" si="0"/>
@@ -17317,7 +17425,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="37"/>
       <c r="L6" s="33"/>
-      <c r="M6" s="81"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="7"/>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
@@ -17350,7 +17458,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="57"/>
       <c r="L7" s="61"/>
-      <c r="M7" s="80"/>
+      <c r="M7" s="70"/>
       <c r="N7"/>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
@@ -17382,7 +17490,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="37"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="81"/>
+      <c r="M8" s="71"/>
       <c r="N8"/>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -17480,7 +17588,7 @@
       <c r="J11" s="56"/>
       <c r="K11" s="57"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="80"/>
+      <c r="M11" s="70"/>
       <c r="N11"/>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -17512,7 +17620,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="37"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="81"/>
+      <c r="M12" s="71"/>
       <c r="N12"/>
       <c r="O12" s="10">
         <f t="shared" si="0"/>
@@ -17577,7 +17685,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="71"/>
       <c r="N14"/>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
@@ -17610,7 +17718,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="57"/>
       <c r="L15" s="61"/>
-      <c r="M15" s="80"/>
+      <c r="M15" s="70"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
@@ -17675,7 +17783,7 @@
       <c r="J17" s="56"/>
       <c r="K17" s="57"/>
       <c r="L17" s="61"/>
-      <c r="M17" s="80"/>
+      <c r="M17" s="70"/>
       <c r="N17"/>
       <c r="O17" s="10">
         <f t="shared" si="0"/>
@@ -17707,7 +17815,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="37"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="81"/>
+      <c r="M18" s="71"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
@@ -17740,7 +17848,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="57"/>
       <c r="L19" s="61"/>
-      <c r="M19" s="80"/>
+      <c r="M19" s="70"/>
       <c r="N19"/>
       <c r="O19" s="10">
         <f t="shared" si="0"/>
@@ -17772,7 +17880,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="37"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="81"/>
+      <c r="M20" s="71"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
@@ -17805,7 +17913,7 @@
       <c r="J21" s="56"/>
       <c r="K21" s="57"/>
       <c r="L21" s="61"/>
-      <c r="M21" s="80"/>
+      <c r="M21" s="70"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
@@ -17837,7 +17945,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="37"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="81"/>
+      <c r="M22" s="71"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
@@ -17870,7 +17978,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
       <c r="L23" s="61"/>
-      <c r="M23" s="80"/>
+      <c r="M23" s="70"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
@@ -17902,7 +18010,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="37"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="81"/>
+      <c r="M24" s="71"/>
       <c r="N24"/>
       <c r="O24" s="10">
         <f t="shared" si="0"/>
@@ -17935,7 +18043,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="57"/>
       <c r="L25" s="61"/>
-      <c r="M25" s="80"/>
+      <c r="M25" s="70"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
@@ -17967,7 +18075,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="37"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="81"/>
+      <c r="M26" s="71"/>
       <c r="N26"/>
       <c r="O26" s="10">
         <f t="shared" si="0"/>
@@ -18000,7 +18108,7 @@
       <c r="J27" s="56"/>
       <c r="K27" s="57"/>
       <c r="L27" s="61"/>
-      <c r="M27" s="80"/>
+      <c r="M27" s="70"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="0"/>
@@ -18065,7 +18173,7 @@
       <c r="J29" s="56"/>
       <c r="K29" s="57"/>
       <c r="L29" s="61"/>
-      <c r="M29" s="80"/>
+      <c r="M29" s="70"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="0"/>
@@ -18130,22 +18238,22 @@
       <c r="J31" s="56"/>
       <c r="K31" s="57"/>
       <c r="L31" s="61"/>
-      <c r="M31" s="80"/>
+      <c r="M31" s="70"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="79"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="41"/>
       <c r="G32" s="8"/>
       <c r="H32" s="31"/>
       <c r="I32" s="62"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
@@ -18185,7 +18293,7 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -18207,20 +18315,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="80" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="H1" s="91" t="str">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="H1" s="82" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -18241,7 +18349,7 @@
       <c r="E2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="64" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="24"/>
@@ -18260,7 +18368,7 @@
       <c r="L2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="74" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -18290,7 +18398,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
       <c r="L3" s="61"/>
-      <c r="M3" s="80"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="8"/>
       <c r="O3" s="10">
         <f>C3/10000</f>
@@ -18322,7 +18430,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
-      <c r="M4" s="81"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="7"/>
       <c r="O4" s="10">
         <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
@@ -18452,7 +18560,7 @@
       <c r="J8" s="32"/>
       <c r="K8" s="37"/>
       <c r="L8" s="33"/>
-      <c r="M8" s="81"/>
+      <c r="M8" s="71"/>
       <c r="N8"/>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -18485,7 +18593,7 @@
       <c r="J9" s="56"/>
       <c r="K9" s="57"/>
       <c r="L9" s="61"/>
-      <c r="M9" s="80"/>
+      <c r="M9" s="70"/>
       <c r="N9"/>
       <c r="O9" s="10">
         <f t="shared" si="0"/>
@@ -18517,7 +18625,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="37"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="81"/>
+      <c r="M10" s="71"/>
       <c r="N10"/>
       <c r="O10" s="10">
         <f t="shared" si="0"/>
@@ -18550,7 +18658,7 @@
       <c r="J11" s="56"/>
       <c r="K11" s="57"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="80"/>
+      <c r="M11" s="70"/>
       <c r="N11"/>
       <c r="O11" s="10">
         <f t="shared" si="0"/>
@@ -18615,7 +18723,7 @@
       <c r="J13" s="56"/>
       <c r="K13" s="57"/>
       <c r="L13" s="61"/>
-      <c r="M13" s="80"/>
+      <c r="M13" s="70"/>
       <c r="N13"/>
       <c r="O13" s="10">
         <f t="shared" si="0"/>
@@ -18647,7 +18755,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="37"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="71"/>
       <c r="N14"/>
       <c r="O14" s="10">
         <f t="shared" si="0"/>
@@ -18680,7 +18788,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="57"/>
       <c r="L15" s="61"/>
-      <c r="M15" s="80"/>
+      <c r="M15" s="70"/>
       <c r="N15"/>
       <c r="O15" s="10">
         <f t="shared" si="0"/>
@@ -18712,7 +18820,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="37"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="81"/>
+      <c r="M16" s="71"/>
       <c r="N16"/>
       <c r="O16" s="10">
         <f t="shared" si="0"/>
@@ -18777,7 +18885,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="37"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="81"/>
+      <c r="M18" s="71"/>
       <c r="N18"/>
       <c r="O18" s="10">
         <f t="shared" si="0"/>
@@ -18842,7 +18950,7 @@
       <c r="J20" s="32"/>
       <c r="K20" s="37"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="81"/>
+      <c r="M20" s="71"/>
       <c r="N20"/>
       <c r="O20" s="10">
         <f t="shared" si="0"/>
@@ -18875,7 +18983,7 @@
       <c r="J21" s="56"/>
       <c r="K21" s="57"/>
       <c r="L21" s="61"/>
-      <c r="M21" s="80"/>
+      <c r="M21" s="70"/>
       <c r="N21"/>
       <c r="O21" s="10">
         <f t="shared" si="0"/>
@@ -18907,7 +19015,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="37"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="81"/>
+      <c r="M22" s="71"/>
       <c r="N22"/>
       <c r="O22" s="10">
         <f t="shared" si="0"/>
@@ -18940,7 +19048,7 @@
       <c r="J23" s="56"/>
       <c r="K23" s="57"/>
       <c r="L23" s="61"/>
-      <c r="M23" s="80"/>
+      <c r="M23" s="70"/>
       <c r="N23"/>
       <c r="O23" s="10">
         <f t="shared" si="0"/>
@@ -19005,7 +19113,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="57"/>
       <c r="L25" s="61"/>
-      <c r="M25" s="80"/>
+      <c r="M25" s="70"/>
       <c r="N25"/>
       <c r="O25" s="10">
         <f t="shared" si="0"/>
@@ -19070,7 +19178,7 @@
       <c r="J27" s="56"/>
       <c r="K27" s="57"/>
       <c r="L27" s="61"/>
-      <c r="M27" s="80"/>
+      <c r="M27" s="70"/>
       <c r="N27"/>
       <c r="O27" s="10">
         <f t="shared" si="0"/>
@@ -19102,7 +19210,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="37"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="81"/>
+      <c r="M28" s="71"/>
       <c r="N28"/>
       <c r="O28" s="10">
         <f t="shared" si="0"/>
@@ -19135,7 +19243,7 @@
       <c r="J29" s="56"/>
       <c r="K29" s="57"/>
       <c r="L29" s="61"/>
-      <c r="M29" s="80"/>
+      <c r="M29" s="70"/>
       <c r="N29"/>
       <c r="O29" s="10">
         <f t="shared" si="0"/>
@@ -19200,22 +19308,22 @@
       <c r="J31" s="56"/>
       <c r="K31" s="57"/>
       <c r="L31" s="61"/>
-      <c r="M31" s="80"/>
+      <c r="M31" s="70"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="79"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="41"/>
       <c r="G32" s="8"/>
       <c r="H32" s="31"/>
       <c r="I32" s="62"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5D9DF-C6BF-45EC-B9F7-F46160FABC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F57DA32-F4C1-4CE9-86CB-CF86333D35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3705" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35175" yWindow="-2430" windowWidth="31860" windowHeight="19695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="合計データ3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">合計データ2!$A$1:$N$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">合計データ3!$A$1:$N$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">合計データ!$A$1:$N$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">合計データ2!$A$1:$N$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">合計データ3!$A$1:$N$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">レポート!$1:$1</definedName>
     <definedName name="稼働率" localSheetId="2">OFFSET(合計データ2!#REF!, 0, 0, COUNTA(合計データ2!$I$3:$I$991), 1)</definedName>
     <definedName name="稼働率" localSheetId="3">OFFSET(合計データ3!#REF!, 0, 0, COUNTA(合計データ3!$I$3:$I$992), 1)</definedName>
@@ -266,97 +266,6 @@
   </si>
   <si>
     <r>
-      <t>見込み売上（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>仮</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ミコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>見込み稼働率（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>仮</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ミコ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カドウリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>確定泊数（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>仮</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Noto Sans JP"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">※ </t>
     </r>
     <r>
@@ -428,6 +337,96 @@
     <rPh sb="9" eb="11">
       <t>ヒャクマン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>見込み売上（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>見込み稼働率（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カドウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>確定泊数（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>仮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -978,24 +977,6 @@
     <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1035,6 +1016,24 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -3281,7 +3280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率（仮)</c:v>
+                  <c:v>見込み稼働率（仮）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4175,7 +4174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率（仮)</c:v>
+                  <c:v>見込み稼働率（仮）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6539,7 +6538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率（仮)</c:v>
+                  <c:v>見込み稼働率（仮）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7202,7 +7201,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>見込み稼働率（仮)</c:v>
+                  <c:v>見込み稼働率（仮）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15209,18 +15208,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="78" t="str">
+      <c r="A1" s="91" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
         <v>デイリーレポート - 26年01月27日</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15371,139 +15370,139 @@
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C56" s="79" t="str">
+      <c r="C56" s="92" t="str">
         <f>合計データ!A9</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="75">
+      <c r="A104" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B104" s="75"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="75"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="75"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="75"/>
-      <c r="B105" s="75"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="88"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="75"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="75"/>
-      <c r="I106" s="75"/>
+      <c r="A106" s="88"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C108" s="79" t="str">
+      <c r="C108" s="92" t="str">
         <f>合計データ!H9</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
+      <c r="D108" s="90"/>
+      <c r="E108" s="90"/>
+      <c r="F108" s="90"/>
+      <c r="G108" s="90"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="75">
+      <c r="A156" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B156" s="75"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="75"/>
-      <c r="G156" s="75"/>
-      <c r="H156" s="75"/>
-      <c r="I156" s="75"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="88"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="88"/>
+      <c r="H156" s="88"/>
+      <c r="I156" s="88"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="75"/>
-      <c r="B157" s="75"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="75"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="75"/>
-      <c r="G157" s="75"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="75"/>
+      <c r="A157" s="88"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="88"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="88"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="88"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="75"/>
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="75"/>
+      <c r="A158" s="88"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="88"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="88"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C160" s="79" t="str">
+      <c r="C160" s="92" t="str">
         <f>合計データ2!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D160" s="79"/>
-      <c r="E160" s="79"/>
-      <c r="F160" s="79"/>
-      <c r="G160" s="79"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="92"/>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="22"/>
@@ -15513,179 +15512,179 @@
       <c r="G161" s="22"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="75">
+      <c r="A208" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B208" s="75"/>
-      <c r="C208" s="75"/>
-      <c r="D208" s="75"/>
-      <c r="E208" s="75"/>
-      <c r="F208" s="75"/>
-      <c r="G208" s="75"/>
-      <c r="H208" s="75"/>
-      <c r="I208" s="75"/>
+      <c r="B208" s="88"/>
+      <c r="C208" s="88"/>
+      <c r="D208" s="88"/>
+      <c r="E208" s="88"/>
+      <c r="F208" s="88"/>
+      <c r="G208" s="88"/>
+      <c r="H208" s="88"/>
+      <c r="I208" s="88"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="75"/>
-      <c r="B209" s="75"/>
-      <c r="C209" s="75"/>
-      <c r="D209" s="75"/>
-      <c r="E209" s="75"/>
-      <c r="F209" s="75"/>
-      <c r="G209" s="75"/>
-      <c r="H209" s="75"/>
-      <c r="I209" s="75"/>
+      <c r="A209" s="88"/>
+      <c r="B209" s="88"/>
+      <c r="C209" s="88"/>
+      <c r="D209" s="88"/>
+      <c r="E209" s="88"/>
+      <c r="F209" s="88"/>
+      <c r="G209" s="88"/>
+      <c r="H209" s="88"/>
+      <c r="I209" s="88"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="75"/>
-      <c r="B210" s="75"/>
-      <c r="C210" s="75"/>
-      <c r="D210" s="75"/>
-      <c r="E210" s="75"/>
-      <c r="F210" s="75"/>
-      <c r="G210" s="75"/>
-      <c r="H210" s="75"/>
-      <c r="I210" s="75"/>
+      <c r="A210" s="88"/>
+      <c r="B210" s="88"/>
+      <c r="C210" s="88"/>
+      <c r="D210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="88"/>
+      <c r="G210" s="88"/>
+      <c r="H210" s="88"/>
+      <c r="I210" s="88"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C212" s="76" t="str">
+      <c r="C212" s="89" t="str">
         <f>合計データ2!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D212" s="79"/>
-      <c r="E212" s="79"/>
-      <c r="F212" s="79"/>
-      <c r="G212" s="79"/>
+      <c r="D212" s="92"/>
+      <c r="E212" s="92"/>
+      <c r="F212" s="92"/>
+      <c r="G212" s="92"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A260" s="75">
+      <c r="A260" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B260" s="75"/>
-      <c r="C260" s="75"/>
-      <c r="D260" s="75"/>
-      <c r="E260" s="75"/>
-      <c r="F260" s="75"/>
-      <c r="G260" s="75"/>
-      <c r="H260" s="75"/>
-      <c r="I260" s="75"/>
+      <c r="B260" s="88"/>
+      <c r="C260" s="88"/>
+      <c r="D260" s="88"/>
+      <c r="E260" s="88"/>
+      <c r="F260" s="88"/>
+      <c r="G260" s="88"/>
+      <c r="H260" s="88"/>
+      <c r="I260" s="88"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A261" s="75"/>
-      <c r="B261" s="75"/>
-      <c r="C261" s="75"/>
-      <c r="D261" s="75"/>
-      <c r="E261" s="75"/>
-      <c r="F261" s="75"/>
-      <c r="G261" s="75"/>
-      <c r="H261" s="75"/>
-      <c r="I261" s="75"/>
+      <c r="A261" s="88"/>
+      <c r="B261" s="88"/>
+      <c r="C261" s="88"/>
+      <c r="D261" s="88"/>
+      <c r="E261" s="88"/>
+      <c r="F261" s="88"/>
+      <c r="G261" s="88"/>
+      <c r="H261" s="88"/>
+      <c r="I261" s="88"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A262" s="75"/>
-      <c r="B262" s="75"/>
-      <c r="C262" s="75"/>
-      <c r="D262" s="75"/>
-      <c r="E262" s="75"/>
-      <c r="F262" s="75"/>
-      <c r="G262" s="75"/>
-      <c r="H262" s="75"/>
-      <c r="I262" s="75"/>
+      <c r="A262" s="88"/>
+      <c r="B262" s="88"/>
+      <c r="C262" s="88"/>
+      <c r="D262" s="88"/>
+      <c r="E262" s="88"/>
+      <c r="F262" s="88"/>
+      <c r="G262" s="88"/>
+      <c r="H262" s="88"/>
+      <c r="I262" s="88"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="C264" s="79" t="str">
+      <c r="C264" s="92" t="str">
         <f>合計データ3!A1</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D264" s="77"/>
-      <c r="E264" s="77"/>
-      <c r="F264" s="77"/>
-      <c r="G264" s="77"/>
+      <c r="D264" s="90"/>
+      <c r="E264" s="90"/>
+      <c r="F264" s="90"/>
+      <c r="G264" s="90"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A312" s="75">
+      <c r="A312" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B312" s="75"/>
-      <c r="C312" s="75"/>
-      <c r="D312" s="75"/>
-      <c r="E312" s="75"/>
-      <c r="F312" s="75"/>
-      <c r="G312" s="75"/>
-      <c r="H312" s="75"/>
-      <c r="I312" s="75"/>
+      <c r="B312" s="88"/>
+      <c r="C312" s="88"/>
+      <c r="D312" s="88"/>
+      <c r="E312" s="88"/>
+      <c r="F312" s="88"/>
+      <c r="G312" s="88"/>
+      <c r="H312" s="88"/>
+      <c r="I312" s="88"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A313" s="75"/>
-      <c r="B313" s="75"/>
-      <c r="C313" s="75"/>
-      <c r="D313" s="75"/>
-      <c r="E313" s="75"/>
-      <c r="F313" s="75"/>
-      <c r="G313" s="75"/>
-      <c r="H313" s="75"/>
-      <c r="I313" s="75"/>
+      <c r="A313" s="88"/>
+      <c r="B313" s="88"/>
+      <c r="C313" s="88"/>
+      <c r="D313" s="88"/>
+      <c r="E313" s="88"/>
+      <c r="F313" s="88"/>
+      <c r="G313" s="88"/>
+      <c r="H313" s="88"/>
+      <c r="I313" s="88"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A314" s="75"/>
-      <c r="B314" s="75"/>
-      <c r="C314" s="75"/>
-      <c r="D314" s="75"/>
-      <c r="E314" s="75"/>
-      <c r="F314" s="75"/>
-      <c r="G314" s="75"/>
-      <c r="H314" s="75"/>
-      <c r="I314" s="75"/>
+      <c r="A314" s="88"/>
+      <c r="B314" s="88"/>
+      <c r="C314" s="88"/>
+      <c r="D314" s="88"/>
+      <c r="E314" s="88"/>
+      <c r="F314" s="88"/>
+      <c r="G314" s="88"/>
+      <c r="H314" s="88"/>
+      <c r="I314" s="88"/>
     </row>
     <row r="316" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C316" s="76" t="str">
+      <c r="C316" s="89" t="str">
         <f>合計データ3!H1</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="D316" s="77"/>
-      <c r="E316" s="77"/>
-      <c r="F316" s="77"/>
-      <c r="G316" s="77"/>
+      <c r="D316" s="90"/>
+      <c r="E316" s="90"/>
+      <c r="F316" s="90"/>
+      <c r="G316" s="90"/>
     </row>
     <row r="317" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="365" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A365" s="75">
+      <c r="A365" s="88">
         <f>$A$52</f>
         <v>0</v>
       </c>
-      <c r="B365" s="75"/>
-      <c r="C365" s="75"/>
-      <c r="D365" s="75"/>
-      <c r="E365" s="75"/>
-      <c r="F365" s="75"/>
-      <c r="G365" s="75"/>
-      <c r="H365" s="75"/>
-      <c r="I365" s="75"/>
+      <c r="B365" s="88"/>
+      <c r="C365" s="88"/>
+      <c r="D365" s="88"/>
+      <c r="E365" s="88"/>
+      <c r="F365" s="88"/>
+      <c r="G365" s="88"/>
+      <c r="H365" s="88"/>
+      <c r="I365" s="88"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A366" s="75"/>
-      <c r="B366" s="75"/>
-      <c r="C366" s="75"/>
-      <c r="D366" s="75"/>
-      <c r="E366" s="75"/>
-      <c r="F366" s="75"/>
-      <c r="G366" s="75"/>
-      <c r="H366" s="75"/>
-      <c r="I366" s="75"/>
+      <c r="A366" s="88"/>
+      <c r="B366" s="88"/>
+      <c r="C366" s="88"/>
+      <c r="D366" s="88"/>
+      <c r="E366" s="88"/>
+      <c r="F366" s="88"/>
+      <c r="G366" s="88"/>
+      <c r="H366" s="88"/>
+      <c r="I366" s="88"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A367" s="75"/>
-      <c r="B367" s="75"/>
-      <c r="C367" s="75"/>
-      <c r="D367" s="75"/>
-      <c r="E367" s="75"/>
-      <c r="F367" s="75"/>
-      <c r="G367" s="75"/>
-      <c r="H367" s="75"/>
-      <c r="I367" s="75"/>
+      <c r="A367" s="88"/>
+      <c r="B367" s="88"/>
+      <c r="C367" s="88"/>
+      <c r="D367" s="88"/>
+      <c r="E367" s="88"/>
+      <c r="F367" s="88"/>
+      <c r="G367" s="88"/>
+      <c r="H367" s="88"/>
+      <c r="I367" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -15746,7 +15745,9 @@
   </sheetPr>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15766,88 +15767,88 @@
     <col min="32" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="92" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:31" s="84" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="85" t="s">
-        <v>35</v>
+      <c r="D1" s="77" t="s">
+        <v>37</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="90" t="s">
+      <c r="T1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="93"/>
-      <c r="W1" s="94" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="94" t="s">
+      <c r="X1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="94" t="s">
+      <c r="Y1" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="94" t="s">
+      <c r="Z1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="94" t="s">
+      <c r="AA1" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="94" t="s">
+      <c r="AB1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="47"/>
@@ -16172,7 +16173,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
@@ -16189,21 +16190,21 @@
       <c r="AB8" s="9"/>
     </row>
     <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="93" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="80" t="str">
+      <c r="H9" s="93" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B11, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
@@ -16224,7 +16225,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="26" t="s">
@@ -16243,7 +16244,7 @@
         <v>14</v>
       </c>
       <c r="M10" s="74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>9</v>
@@ -16255,7 +16256,7 @@
         <v>8</v>
       </c>
       <c r="R10" s="66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
@@ -17172,7 +17173,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -17208,7 +17209,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;12&amp;KFFFFFFページ&amp;"Times New Roman,標準" &amp;P</oddFooter>
@@ -17245,20 +17246,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="80" t="str">
+      <c r="A1" s="93" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="H1" s="82" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="H1" s="95" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17280,7 +17281,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="26" t="s">
@@ -17299,7 +17300,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
@@ -18257,7 +18258,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -18315,20 +18316,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="80" t="str">
+      <c r="A1" s="93" t="str">
         <f>"売上　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>売上　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="H1" s="82" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="H1" s="95" t="str">
         <f>"稼働率　計画ｘ見込み（" &amp; TEXT(B3, "yyyy年m月") &amp; "）"</f>
         <v>稼働率　計画ｘ見込み（1900年1月）</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -18350,7 +18351,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="26" t="s">
@@ -18369,7 +18370,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
@@ -19327,7 +19328,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33" s="8"/>
     </row>

--- a/api/components/デイリーテンプレート.xlsx
+++ b/api/components/デイリーテンプレート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Documents\GitHub\rht-hotel\api\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakamura.yos_redhors\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F57DA32-F4C1-4CE9-86CB-CF86333D35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{425D826B-7E67-4CC8-BB33-85A98290820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35175" yWindow="-2430" windowWidth="31860" windowHeight="19695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37965" yWindow="-2640" windowWidth="30210" windowHeight="18930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レポート" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,37 @@
     <cellStyle name="桁区切り 2" xfId="3" xr:uid="{FADD5BB4-22B4-4CE0-8B7D-319EB05B36C7}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4697,6 +4727,12 @@
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4811,88 +4847,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5008,88 +5050,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,88 +5251,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,6 +5759,12 @@
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5819,88 +5879,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6016,88 +6082,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6211,88 +6283,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8030,6 +8108,12 @@
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8144,88 +8228,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8341,88 +8431,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8536,88 +8632,94 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15210,7 +15312,7 @@
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="91" t="str">
         <f ca="1">_xlfn.CONCAT("デイリーレポート - ",TEXT(TODAY(),"yy年mm月dd日"))</f>
-        <v>デイリーレポート - 26年01月27日</v>
+        <v>デイリーレポート - 26年01月28日</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -15705,18 +15807,18 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C48:H48">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:H51">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15745,9 +15847,7 @@
   </sheetPr>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16274,17 +16374,17 @@
       <c r="L11" s="61"/>
       <c r="M11" s="70"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="10">
-        <f>C11/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <f>D11/10000</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f>E11/10000</f>
-        <v>0</v>
+      <c r="O11" s="10" t="e">
+        <f>IF($A11="",NA(),$C11/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="10" t="e">
+        <f>IF($A11="",NA(),$D11/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="10" t="e">
+        <f>IF($A11="",NA(),$E11/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R11" s="10" t="str">
         <f>IF(OR(F11="",F11=0),"",(D11+F11)/10000)</f>
@@ -16305,17 +16405,17 @@
       <c r="L12" s="33"/>
       <c r="M12" s="71"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="10">
-        <f t="shared" ref="O12:O38" si="6">C12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" ref="P12:P38" si="7">D12/10000</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" ref="Q12:Q38" si="8">E12/10000</f>
-        <v>0</v>
+      <c r="O12" s="10" t="e">
+        <f t="shared" ref="O12:O40" si="6">IF($A12="",NA(),$C12/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="10" t="e">
+        <f t="shared" ref="P12:P40" si="7">IF($A12="",NA(),$D12/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="10" t="e">
+        <f t="shared" ref="Q12:Q40" si="8">IF($A12="",NA(),$E12/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R12" s="10" t="str">
         <f t="shared" ref="R12:R38" si="9">IF(OR(F12="",F12=0),"",(D12+F12)/10000)</f>
@@ -16337,17 +16437,17 @@
       <c r="L13" s="61"/>
       <c r="M13" s="58"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="10">
+      <c r="O13" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R13" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16368,17 +16468,17 @@
       <c r="L14" s="33"/>
       <c r="M14" s="71"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="10">
+      <c r="O14" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R14" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16400,17 +16500,17 @@
       <c r="L15" s="61"/>
       <c r="M15" s="70"/>
       <c r="N15"/>
-      <c r="O15" s="10">
+      <c r="O15" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R15" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16431,17 +16531,17 @@
       <c r="L16" s="33"/>
       <c r="M16" s="71"/>
       <c r="N16"/>
-      <c r="O16" s="10">
+      <c r="O16" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R16" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16463,17 +16563,17 @@
       <c r="L17" s="61"/>
       <c r="M17" s="70"/>
       <c r="N17"/>
-      <c r="O17" s="10">
+      <c r="O17" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R17" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16494,17 +16594,17 @@
       <c r="L18" s="33"/>
       <c r="M18" s="71"/>
       <c r="N18"/>
-      <c r="O18" s="10">
+      <c r="O18" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R18" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16526,17 +16626,17 @@
       <c r="L19" s="61"/>
       <c r="M19" s="70"/>
       <c r="N19"/>
-      <c r="O19" s="10">
+      <c r="O19" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R19" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16557,17 +16657,17 @@
       <c r="L20" s="33"/>
       <c r="M20" s="71"/>
       <c r="N20"/>
-      <c r="O20" s="10">
+      <c r="O20" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R20" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16589,17 +16689,17 @@
       <c r="L21" s="61"/>
       <c r="M21" s="70"/>
       <c r="N21"/>
-      <c r="O21" s="10">
+      <c r="O21" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R21" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16620,17 +16720,17 @@
       <c r="L22" s="33"/>
       <c r="M22" s="71"/>
       <c r="N22"/>
-      <c r="O22" s="10">
+      <c r="O22" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R22" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16652,17 +16752,17 @@
       <c r="L23" s="61"/>
       <c r="M23" s="70"/>
       <c r="N23"/>
-      <c r="O23" s="10">
+      <c r="O23" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R23" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16683,17 +16783,17 @@
       <c r="L24" s="33"/>
       <c r="M24" s="71"/>
       <c r="N24"/>
-      <c r="O24" s="10">
+      <c r="O24" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R24" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16715,17 +16815,17 @@
       <c r="L25" s="61"/>
       <c r="M25" s="70"/>
       <c r="N25"/>
-      <c r="O25" s="10">
+      <c r="O25" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R25" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16746,17 +16846,17 @@
       <c r="L26" s="33"/>
       <c r="M26" s="71"/>
       <c r="N26"/>
-      <c r="O26" s="10">
+      <c r="O26" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R26" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16778,17 +16878,17 @@
       <c r="L27" s="61"/>
       <c r="M27" s="70"/>
       <c r="N27"/>
-      <c r="O27" s="10">
+      <c r="O27" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R27" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16809,17 +16909,17 @@
       <c r="L28" s="33"/>
       <c r="M28" s="43"/>
       <c r="N28"/>
-      <c r="O28" s="10">
+      <c r="O28" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R28" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16841,17 +16941,17 @@
       <c r="L29" s="61"/>
       <c r="M29" s="70"/>
       <c r="N29"/>
-      <c r="O29" s="10">
+      <c r="O29" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R29" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16872,17 +16972,17 @@
       <c r="L30" s="33"/>
       <c r="M30" s="71"/>
       <c r="N30"/>
-      <c r="O30" s="10">
+      <c r="O30" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R30" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16904,17 +17004,17 @@
       <c r="L31" s="61"/>
       <c r="M31" s="70"/>
       <c r="N31"/>
-      <c r="O31" s="10">
+      <c r="O31" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R31" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16935,17 +17035,17 @@
       <c r="L32" s="33"/>
       <c r="M32" s="71"/>
       <c r="N32"/>
-      <c r="O32" s="10">
+      <c r="O32" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R32" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16967,17 +17067,17 @@
       <c r="L33" s="61"/>
       <c r="M33" s="70"/>
       <c r="N33"/>
-      <c r="O33" s="10">
+      <c r="O33" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R33" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16998,17 +17098,17 @@
       <c r="L34" s="33"/>
       <c r="M34" s="71"/>
       <c r="N34"/>
-      <c r="O34" s="10">
+      <c r="O34" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R34" s="10" t="str">
         <f t="shared" si="9"/>
@@ -17030,17 +17130,17 @@
       <c r="L35" s="61"/>
       <c r="M35" s="70"/>
       <c r="N35"/>
-      <c r="O35" s="10">
+      <c r="O35" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P35" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q35" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R35" s="10" t="str">
         <f t="shared" si="9"/>
@@ -17061,17 +17161,17 @@
       <c r="L36" s="33"/>
       <c r="M36" s="71"/>
       <c r="N36"/>
-      <c r="O36" s="10">
+      <c r="O36" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P36" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q36" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R36" s="10" t="str">
         <f t="shared" si="9"/>
@@ -17093,17 +17193,17 @@
       <c r="L37" s="61"/>
       <c r="M37" s="70"/>
       <c r="N37"/>
-      <c r="O37" s="10">
+      <c r="O37" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P37" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R37" s="10" t="str">
         <f t="shared" si="9"/>
@@ -17124,17 +17224,17 @@
       <c r="L38" s="33"/>
       <c r="M38" s="71"/>
       <c r="N38"/>
-      <c r="O38" s="10">
+      <c r="O38" s="10" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="P38" s="10" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R38" s="10" t="str">
         <f t="shared" si="9"/>
@@ -17155,6 +17255,22 @@
       <c r="K39" s="57"/>
       <c r="L39" s="61"/>
       <c r="M39" s="70"/>
+      <c r="O39" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" s="10" t="str">
+        <f t="shared" ref="R39:R40" si="10">IF(OR(F39="",F39=0),"",(D39+F39)/10000)</f>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="31"/>
@@ -17170,6 +17286,22 @@
       <c r="K40" s="73"/>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
+      <c r="O40" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -17182,30 +17314,40 @@
     <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E11:E40">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$E11&lt;0</formula>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>$E40&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L40">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>$L11&lt;0</formula>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>$L40&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AB3">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:AB5">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E39">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$E11&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L39">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$L11&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17331,17 +17473,17 @@
       <c r="L3" s="61"/>
       <c r="M3" s="70"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="10">
-        <f>C3/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <f>D3/10000</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
-        <f>E3/10000</f>
-        <v>0</v>
+      <c r="O3" s="10" t="e">
+        <f>IF($A3="",NA(),$C3/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="10" t="e">
+        <f>IF($A3="",NA(),$D3/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="10" t="e">
+        <f>IF($A3="",NA(),$E3/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R3" s="10" t="str">
         <f>IF(OR(F3="",F3=0),"",(D3+F3)/10000)</f>
@@ -17363,20 +17505,20 @@
       <c r="L4" s="33"/>
       <c r="M4" s="71"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="10">
-        <f t="shared" ref="O4:O30" si="0">C4/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <f t="shared" ref="P4:P30" si="1">D4/10000</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <f t="shared" ref="Q4:Q30" si="2">E4/10000</f>
-        <v>0</v>
+      <c r="O4" s="10" t="e">
+        <f>IF($A4="",NA(),$C4/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="10" t="e">
+        <f>IF($A4="",NA(),$D4/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" s="10" t="e">
+        <f>IF($A4="",NA(),$E4/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R4" s="10" t="str">
-        <f t="shared" ref="R4:R30" si="3">IF(OR(F4="",F4=0),"",(D4+F4)/10000)</f>
+        <f t="shared" ref="R4:R30" si="0">IF(OR(F4="",F4=0),"",(D4+F4)/10000)</f>
         <v/>
       </c>
       <c r="S4" s="1"/>
@@ -17396,17 +17538,17 @@
       <c r="L5" s="61"/>
       <c r="M5" s="70"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O5" s="10" t="e">
+        <f>IF($A5="",NA(),$C5/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="10" t="e">
+        <f>IF($A5="",NA(),$D5/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="10" t="e">
+        <f>IF($A5="",NA(),$E5/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R5" s="10" t="str">
         <f>IF(OR(F5="",F5=0),"",(D5+F5)/10000)</f>
@@ -17428,20 +17570,20 @@
       <c r="L6" s="33"/>
       <c r="M6" s="71"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="10">
+      <c r="O6" s="10" t="e">
+        <f t="shared" ref="O6:O32" si="1">IF($A6="",NA(),$C6/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="10" t="e">
+        <f t="shared" ref="P6:P32" si="2">IF($A6="",NA(),$D6/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="10" t="e">
+        <f t="shared" ref="Q6:Q32" si="3">IF($A6="",NA(),$E6/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S6" s="1"/>
@@ -17461,20 +17603,20 @@
       <c r="L7" s="61"/>
       <c r="M7" s="70"/>
       <c r="N7"/>
-      <c r="O7" s="10">
+      <c r="O7" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S7" s="1"/>
@@ -17493,20 +17635,20 @@
       <c r="L8" s="33"/>
       <c r="M8" s="71"/>
       <c r="N8"/>
-      <c r="O8" s="10">
+      <c r="O8" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S8" s="1"/>
@@ -17526,20 +17668,20 @@
       <c r="L9" s="61"/>
       <c r="M9" s="58"/>
       <c r="N9"/>
-      <c r="O9" s="10">
+      <c r="O9" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S9" s="1"/>
@@ -17558,20 +17700,20 @@
       <c r="L10" s="33"/>
       <c r="M10" s="43"/>
       <c r="N10"/>
-      <c r="O10" s="10">
+      <c r="O10" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S10" s="1"/>
@@ -17591,20 +17733,20 @@
       <c r="L11" s="61"/>
       <c r="M11" s="70"/>
       <c r="N11"/>
-      <c r="O11" s="10">
+      <c r="O11" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S11" s="1"/>
@@ -17623,20 +17765,20 @@
       <c r="L12" s="33"/>
       <c r="M12" s="71"/>
       <c r="N12"/>
-      <c r="O12" s="10">
+      <c r="O12" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S12" s="1"/>
@@ -17656,20 +17798,20 @@
       <c r="L13" s="61"/>
       <c r="M13" s="58"/>
       <c r="N13"/>
-      <c r="O13" s="10">
+      <c r="O13" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S13" s="1"/>
@@ -17688,20 +17830,20 @@
       <c r="L14" s="33"/>
       <c r="M14" s="71"/>
       <c r="N14"/>
-      <c r="O14" s="10">
+      <c r="O14" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S14" s="1"/>
@@ -17721,20 +17863,20 @@
       <c r="L15" s="61"/>
       <c r="M15" s="70"/>
       <c r="N15"/>
-      <c r="O15" s="10">
+      <c r="O15" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S15" s="1"/>
@@ -17753,20 +17895,20 @@
       <c r="L16" s="33"/>
       <c r="M16" s="43"/>
       <c r="N16"/>
-      <c r="O16" s="10">
+      <c r="O16" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S16" s="1"/>
@@ -17786,20 +17928,20 @@
       <c r="L17" s="61"/>
       <c r="M17" s="70"/>
       <c r="N17"/>
-      <c r="O17" s="10">
+      <c r="O17" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S17" s="1"/>
@@ -17818,20 +17960,20 @@
       <c r="L18" s="33"/>
       <c r="M18" s="71"/>
       <c r="N18"/>
-      <c r="O18" s="10">
+      <c r="O18" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S18" s="1"/>
@@ -17851,20 +17993,20 @@
       <c r="L19" s="61"/>
       <c r="M19" s="70"/>
       <c r="N19"/>
-      <c r="O19" s="10">
+      <c r="O19" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S19" s="1"/>
@@ -17883,20 +18025,20 @@
       <c r="L20" s="33"/>
       <c r="M20" s="71"/>
       <c r="N20"/>
-      <c r="O20" s="10">
+      <c r="O20" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S20" s="1"/>
@@ -17916,20 +18058,20 @@
       <c r="L21" s="61"/>
       <c r="M21" s="70"/>
       <c r="N21"/>
-      <c r="O21" s="10">
+      <c r="O21" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S21" s="1"/>
@@ -17948,20 +18090,20 @@
       <c r="L22" s="33"/>
       <c r="M22" s="71"/>
       <c r="N22"/>
-      <c r="O22" s="10">
+      <c r="O22" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S22" s="1"/>
@@ -17981,20 +18123,20 @@
       <c r="L23" s="61"/>
       <c r="M23" s="70"/>
       <c r="N23"/>
-      <c r="O23" s="10">
+      <c r="O23" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S23" s="1"/>
@@ -18013,20 +18155,20 @@
       <c r="L24" s="33"/>
       <c r="M24" s="71"/>
       <c r="N24"/>
-      <c r="O24" s="10">
+      <c r="O24" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S24" s="1"/>
@@ -18046,20 +18188,20 @@
       <c r="L25" s="61"/>
       <c r="M25" s="70"/>
       <c r="N25"/>
-      <c r="O25" s="10">
+      <c r="O25" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S25" s="1"/>
@@ -18078,20 +18220,20 @@
       <c r="L26" s="33"/>
       <c r="M26" s="71"/>
       <c r="N26"/>
-      <c r="O26" s="10">
+      <c r="O26" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S26" s="1"/>
@@ -18111,20 +18253,20 @@
       <c r="L27" s="61"/>
       <c r="M27" s="70"/>
       <c r="N27"/>
-      <c r="O27" s="10">
+      <c r="O27" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S27" s="1"/>
@@ -18143,20 +18285,20 @@
       <c r="L28" s="33"/>
       <c r="M28" s="43"/>
       <c r="N28"/>
-      <c r="O28" s="10">
+      <c r="O28" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S28" s="1"/>
@@ -18176,20 +18318,20 @@
       <c r="L29" s="61"/>
       <c r="M29" s="70"/>
       <c r="N29"/>
-      <c r="O29" s="10">
+      <c r="O29" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S29" s="1"/>
@@ -18208,20 +18350,20 @@
       <c r="L30" s="33"/>
       <c r="M30" s="43"/>
       <c r="N30"/>
-      <c r="O30" s="10">
+      <c r="O30" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="10" t="str">
-        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S30" s="1"/>
@@ -18240,6 +18382,22 @@
       <c r="K31" s="57"/>
       <c r="L31" s="61"/>
       <c r="M31" s="70"/>
+      <c r="O31" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="10" t="str">
+        <f t="shared" ref="R31:R32" si="4">IF(OR(F31="",F31=0),"",(D31+F31)/10000)</f>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
@@ -18255,6 +18413,22 @@
       <c r="K32" s="73"/>
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
+      <c r="O32" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
@@ -18268,12 +18442,22 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E3:E32">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$E32&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$L32&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E31">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L32">
+  <conditionalFormatting sqref="L3:L31">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$L3&lt;0</formula>
     </cfRule>
@@ -18401,17 +18585,17 @@
       <c r="L3" s="61"/>
       <c r="M3" s="70"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="10">
-        <f>C3/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <f>D3/10000</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
-        <f>E3/10000</f>
-        <v>0</v>
+      <c r="O3" s="10" t="e">
+        <f>IF($A3="",NA(),$C3/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="10" t="e">
+        <f>IF($A3="",NA(),$D3/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="10" t="e">
+        <f>IF($A3="",NA(),$E3/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R3" s="10" t="str">
         <f>IF(OR(F3="",F3=0),"",(D3+F3)/10000)</f>
@@ -18433,20 +18617,20 @@
       <c r="L4" s="33"/>
       <c r="M4" s="71"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="10">
-        <f t="shared" ref="O4:Q30" si="0">C4/10000</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O4" s="10" t="e">
+        <f>IF($A4="",NA(),$C4/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="10" t="e">
+        <f>IF($A4="",NA(),$D4/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" s="10" t="e">
+        <f>IF($A4="",NA(),$E4/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R4" s="10" t="str">
-        <f t="shared" ref="R4:R30" si="1">IF(OR(F4="",F4=0),"",(D4+F4)/10000)</f>
+        <f t="shared" ref="R4:R30" si="0">IF(OR(F4="",F4=0),"",(D4+F4)/10000)</f>
         <v/>
       </c>
       <c r="S4" s="1"/>
@@ -18466,17 +18650,17 @@
       <c r="L5" s="61"/>
       <c r="M5" s="58"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O5" s="10" t="e">
+        <f>IF($A5="",NA(),$C5/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="10" t="e">
+        <f>IF($A5="",NA(),$D5/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="10" t="e">
+        <f>IF($A5="",NA(),$E5/10000)</f>
+        <v>#N/A</v>
       </c>
       <c r="R5" s="10" t="str">
         <f>IF(OR(F5="",F5=0),"",(D5+F5)/10000)</f>
@@ -18498,20 +18682,20 @@
       <c r="L6" s="33"/>
       <c r="M6" s="43"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="10">
+      <c r="O6" s="10" t="e">
+        <f t="shared" ref="O6:O32" si="1">IF($A6="",NA(),$C6/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="10" t="e">
+        <f t="shared" ref="P6:P32" si="2">IF($A6="",NA(),$D6/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="10" t="e">
+        <f t="shared" ref="Q6:Q32" si="3">IF($A6="",NA(),$E6/10000)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S6" s="1"/>
@@ -18531,20 +18715,20 @@
       <c r="L7" s="61"/>
       <c r="M7" s="58"/>
       <c r="N7"/>
-      <c r="O7" s="10">
+      <c r="O7" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S7" s="1"/>
@@ -18563,20 +18747,20 @@
       <c r="L8" s="33"/>
       <c r="M8" s="71"/>
       <c r="N8"/>
-      <c r="O8" s="10">
+      <c r="O8" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S8" s="1"/>
@@ -18596,20 +18780,20 @@
       <c r="L9" s="61"/>
       <c r="M9" s="70"/>
       <c r="N9"/>
-      <c r="O9" s="10">
+      <c r="O9" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="1"/>
@@ -18626,22 +18810,22 @@
       <c r="J10" s="32"/>
       <c r="K10" s="37"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="71"/>
+      <c r="M10" s="43"/>
       <c r="N10"/>
-      <c r="O10" s="10">
+      <c r="O10" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S10" s="1"/>
@@ -18661,20 +18845,20 @@
       <c r="L11" s="61"/>
       <c r="M11" s="70"/>
       <c r="N11"/>
-      <c r="O11" s="10">
+      <c r="O11" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S11" s="1"/>
@@ -18693,20 +18877,20 @@
       <c r="L12" s="33"/>
       <c r="M12" s="43"/>
       <c r="N12"/>
-      <c r="O12" s="10">
+      <c r="O12" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S12" s="1"/>
@@ -18726,20 +18910,20 @@
       <c r="L13" s="61"/>
       <c r="M13" s="70"/>
       <c r="N13"/>
-      <c r="O13" s="10">
+      <c r="O13" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S13" s="1"/>
@@ -18758,20 +18942,20 @@
       <c r="L14" s="33"/>
       <c r="M14" s="71"/>
       <c r="N14"/>
-      <c r="O14" s="10">
+      <c r="O14" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S14" s="1"/>
@@ -18791,20 +18975,20 @@
       <c r="L15" s="61"/>
       <c r="M15" s="70"/>
       <c r="N15"/>
-      <c r="O15" s="10">
+      <c r="O15" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S15" s="1"/>
@@ -18823,20 +19007,20 @@
       <c r="L16" s="33"/>
       <c r="M16" s="71"/>
       <c r="N16"/>
-      <c r="O16" s="10">
+      <c r="O16" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S16" s="1"/>
@@ -18856,20 +19040,20 @@
       <c r="L17" s="61"/>
       <c r="M17" s="58"/>
       <c r="N17"/>
-      <c r="O17" s="10">
+      <c r="O17" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S17" s="1"/>
@@ -18888,20 +19072,20 @@
       <c r="L18" s="33"/>
       <c r="M18" s="71"/>
       <c r="N18"/>
-      <c r="O18" s="10">
+      <c r="O18" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S18" s="1"/>
@@ -18921,20 +19105,20 @@
       <c r="L19" s="61"/>
       <c r="M19" s="58"/>
       <c r="N19"/>
-      <c r="O19" s="10">
+      <c r="O19" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S19" s="1"/>
@@ -18953,20 +19137,20 @@
       <c r="L20" s="33"/>
       <c r="M20" s="71"/>
       <c r="N20"/>
-      <c r="O20" s="10">
+      <c r="O20" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S20" s="1"/>
@@ -18986,20 +19170,20 @@
       <c r="L21" s="61"/>
       <c r="M21" s="70"/>
       <c r="N21"/>
-      <c r="O21" s="10">
+      <c r="O21" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S21" s="1"/>
@@ -19018,20 +19202,20 @@
       <c r="L22" s="33"/>
       <c r="M22" s="71"/>
       <c r="N22"/>
-      <c r="O22" s="10">
+      <c r="O22" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S22" s="1"/>
@@ -19051,20 +19235,20 @@
       <c r="L23" s="61"/>
       <c r="M23" s="70"/>
       <c r="N23"/>
-      <c r="O23" s="10">
+      <c r="O23" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S23" s="1"/>
@@ -19083,20 +19267,20 @@
       <c r="L24" s="33"/>
       <c r="M24" s="43"/>
       <c r="N24"/>
-      <c r="O24" s="10">
+      <c r="O24" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S24" s="1"/>
@@ -19116,20 +19300,20 @@
       <c r="L25" s="61"/>
       <c r="M25" s="70"/>
       <c r="N25"/>
-      <c r="O25" s="10">
+      <c r="O25" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S25" s="1"/>
@@ -19148,20 +19332,20 @@
       <c r="L26" s="33"/>
       <c r="M26" s="43"/>
       <c r="N26"/>
-      <c r="O26" s="10">
+      <c r="O26" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S26" s="1"/>
@@ -19181,20 +19365,20 @@
       <c r="L27" s="61"/>
       <c r="M27" s="70"/>
       <c r="N27"/>
-      <c r="O27" s="10">
+      <c r="O27" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S27" s="1"/>
@@ -19213,20 +19397,20 @@
       <c r="L28" s="33"/>
       <c r="M28" s="71"/>
       <c r="N28"/>
-      <c r="O28" s="10">
+      <c r="O28" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S28" s="1"/>
@@ -19246,20 +19430,20 @@
       <c r="L29" s="61"/>
       <c r="M29" s="70"/>
       <c r="N29"/>
-      <c r="O29" s="10">
+      <c r="O29" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S29" s="1"/>
@@ -19278,20 +19462,20 @@
       <c r="L30" s="33"/>
       <c r="M30" s="43"/>
       <c r="N30"/>
-      <c r="O30" s="10">
+      <c r="O30" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="10" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S30" s="1"/>
@@ -19310,6 +19494,22 @@
       <c r="K31" s="57"/>
       <c r="L31" s="61"/>
       <c r="M31" s="70"/>
+      <c r="O31" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="10" t="str">
+        <f t="shared" ref="R31:R32" si="4">IF(OR(F31="",F31=0),"",(D31+F31)/10000)</f>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="31"/>
@@ -19325,6 +19525,22 @@
       <c r="K32" s="73"/>
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
+      <c r="O32" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
@@ -19341,12 +19557,22 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E3:E32">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$E32&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$L32&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E31">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E3&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L32">
+  <conditionalFormatting sqref="L3:L31">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L3&lt;0</formula>
     </cfRule>
